--- a/test.xlsx
+++ b/test.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="223">
   <si>
     <t xml:space="preserve">No</t>
   </si>
@@ -1111,8 +1111,8 @@
       <c r="G2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="0" t="s">
-        <v>13</v>
+      <c r="H2" t="s">
+        <v>221</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="3">
@@ -1133,8 +1133,8 @@
       <c r="G3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="0" t="s">
-        <v>13</v>
+      <c r="H3" t="s">
+        <v>221</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4">
@@ -1153,8 +1153,8 @@
       <c r="G4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="0" t="s">
-        <v>13</v>
+      <c r="H4" t="s">
+        <v>221</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="5">
@@ -1175,8 +1175,8 @@
       <c r="G5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="0" t="s">
-        <v>13</v>
+      <c r="H5" t="s">
+        <v>221</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="6">
@@ -1197,8 +1197,8 @@
       <c r="G6" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="0" t="s">
-        <v>13</v>
+      <c r="H6" t="s">
+        <v>221</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="7">
@@ -1219,8 +1219,8 @@
       <c r="G7" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="0" t="s">
-        <v>13</v>
+      <c r="H7" t="s">
+        <v>221</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="8">
@@ -1239,8 +1239,8 @@
       <c r="G8" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="0" t="s">
-        <v>13</v>
+      <c r="H8" t="s">
+        <v>221</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32.05" outlineLevel="0" r="9">
@@ -1261,8 +1261,8 @@
       <c r="G9" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="0" t="s">
-        <v>13</v>
+      <c r="H9" t="s">
+        <v>221</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="10">

--- a/test.xlsx
+++ b/test.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookPr backupFile="false" date1904="false" showObjects="all"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="500" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" r:id="rId2" sheetId="1" state="visible"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr iterate="false" iterateCount="100" iterateDelta="0.001" refMode="A1"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="201">
   <si>
     <t xml:space="preserve">No</t>
   </si>
@@ -235,7 +235,7 @@
     <t xml:space="preserve">Chọn Đặt lại</t>
   </si>
   <si>
-    <t xml:space="preserve">31 thg 5 → 1 thg 6</t>
+    <t xml:space="preserve">3 thg 6 → 4 thương 6</t>
   </si>
   <si>
     <t xml:space="preserve">Chọn Áp dụng</t>
@@ -478,19 +478,19 @@
     <t xml:space="preserve">Chọn ngày hiện tại </t>
   </si>
   <si>
-    <t xml:space="preserve">31,5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31 thg 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chọn ngày tương lai 6/7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30,7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30 thg 7</t>
+    <t xml:space="preserve">4,6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 thg 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chọn ngày tương lai 30/6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30,6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30 thg 6</t>
   </si>
   <si>
     <t xml:space="preserve">Chọn số người </t>
@@ -617,6 +617,12 @@
   </si>
   <si>
     <t xml:space="preserve">Cảm ơn bạn đã đánh giá</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Pass</t>
   </si>
 </sst>
 </file>
@@ -731,28 +737,28 @@
     </fill>
   </fills>
   <borders count="4">
-    <border diagonalUp="false" diagonalDown="false">
+    <border diagonalDown="false" diagonalUp="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border diagonalDown="false" diagonalUp="false">
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border diagonalDown="false" diagonalUp="false">
       <left/>
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border diagonalDown="false" diagonalUp="false">
       <left style="dotted"/>
       <right style="dotted"/>
       <top/>
@@ -761,119 +767,119 @@
     </border>
   </borders>
   <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
   <cellXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="2" fontId="4" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="2" fontId="5" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="2" fontId="5" numFmtId="164" xfId="0">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="3" fillId="2" fontId="6" numFmtId="164" xfId="0">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="3" fontId="7" numFmtId="164" xfId="0">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="3" fontId="7" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="7" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="8" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="3" fontId="7" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="3" fontId="7" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="3" fontId="9" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="3" fontId="10" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="3" fontId="8" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="165" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="11" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="3" name="Comma" xfId="15"/>
+    <cellStyle builtinId="6" name="Comma [0]" xfId="16"/>
+    <cellStyle builtinId="4" name="Currency" xfId="17"/>
+    <cellStyle builtinId="7" name="Currency [0]" xfId="18"/>
+    <cellStyle builtinId="5" name="Percent" xfId="19"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -939,28 +945,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H95"/>
+  <dimension ref="A1:I95"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C31" activeCellId="0" sqref="C31"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="B64" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="H68" activeCellId="0" pane="topLeft" sqref="H68:H72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.61328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.66796875" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="false"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="36.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="49.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="28.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="21.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="51.82"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="4.44" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="26.13" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="3" customWidth="true" hidden="false" style="0" width="36.54" collapsed="true" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="true" hidden="false" style="0" width="49.46" collapsed="true" outlineLevel="0"/>
+    <col min="5" max="5" customWidth="true" hidden="false" style="0" width="28.34" collapsed="true" outlineLevel="0"/>
+    <col min="6" max="6" customWidth="true" hidden="false" style="0" width="21.26" collapsed="true" outlineLevel="0"/>
+    <col min="7" max="7" customWidth="true" hidden="false" style="0" width="51.82" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.85" outlineLevel="0" r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -986,7 +992,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="2">
       <c r="A2" s="5" t="n">
         <v>1</v>
       </c>
@@ -1008,9 +1014,8 @@
       <c r="G2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="11"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="3">
       <c r="A3" s="5" t="n">
         <v>2</v>
       </c>
@@ -1028,9 +1033,8 @@
       <c r="G3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="11"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4">
       <c r="A4" s="5" t="n">
         <v>3</v>
       </c>
@@ -1043,12 +1047,11 @@
       <c r="F4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="11"/>
-    </row>
-    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="5">
       <c r="A5" s="5" t="n">
         <v>4</v>
       </c>
@@ -1066,9 +1069,8 @@
       <c r="G5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="11"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="6">
       <c r="A6" s="5" t="n">
         <v>5</v>
       </c>
@@ -1086,9 +1088,8 @@
       <c r="G6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="11"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="7">
       <c r="A7" s="5" t="n">
         <v>6</v>
       </c>
@@ -1106,9 +1107,8 @@
       <c r="G7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="11"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="8">
       <c r="A8" s="5" t="n">
         <v>7</v>
       </c>
@@ -1124,9 +1124,11 @@
       <c r="G8" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="11"/>
-    </row>
-    <row r="9" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H8" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32.05" outlineLevel="0" r="9">
       <c r="A9" s="5" t="n">
         <v>8</v>
       </c>
@@ -1144,150 +1146,168 @@
       <c r="G9" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="11"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H9" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="10">
       <c r="A10" s="5" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11" t="s">
+      <c r="F10" s="12"/>
+      <c r="G10" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="11"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H10" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="11">
       <c r="A11" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11" t="s">
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="H11" s="11"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H11" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="12">
       <c r="A12" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11" t="s">
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11" t="s">
+      <c r="F12" s="12"/>
+      <c r="G12" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="H12" s="11"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H12" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="13">
       <c r="A13" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11" t="s">
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11" t="s">
+      <c r="F13" s="12"/>
+      <c r="G13" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="11"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H13" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="14">
       <c r="A14" s="5" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11" t="s">
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11" t="s">
+      <c r="F14" s="12"/>
+      <c r="G14" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="H14" s="11"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H14" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="15">
       <c r="A15" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11" t="s">
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11" t="s">
+      <c r="F15" s="12"/>
+      <c r="G15" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="H15" s="11"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H15" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="16">
       <c r="A16" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11" t="s">
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11" t="s">
+      <c r="F16" s="12"/>
+      <c r="G16" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="H16" s="11"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="11" t="n">
+      <c r="H16" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="17">
+      <c r="A17" s="12" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-    </row>
-    <row r="18" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="11" t="n">
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="18">
+      <c r="A18" s="12" t="n">
         <v>17</v>
       </c>
       <c r="B18" s="15" t="s">
@@ -1305,255 +1325,283 @@
       <c r="F18" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="G18" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="H18" s="11"/>
-    </row>
-    <row r="19" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="11" t="n">
+      <c r="H18" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="19">
+      <c r="A19" s="12" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
       <c r="D19" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="12" t="s">
         <v>50</v>
       </c>
       <c r="F19" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="G19" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="H19" s="11"/>
-    </row>
-    <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="11" t="n">
+      <c r="H19" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="20">
+      <c r="A20" s="12" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
       <c r="D20" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="F20" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="G20" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H20" s="11"/>
-    </row>
-    <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="11" t="n">
+      <c r="H20" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="21">
+      <c r="A21" s="12" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
       <c r="D21" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="F21" s="11" t="s">
+      <c r="F21" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="G21" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="H21" s="11"/>
-    </row>
-    <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="11" t="n">
+      <c r="H21" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="22">
+      <c r="A22" s="12" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="11"/>
+      <c r="B22" s="12"/>
       <c r="C22" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="11" t="n">
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="23">
+      <c r="A23" s="12" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11" t="s">
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E23" s="11" t="n">
+      <c r="E23" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="F23" s="11" t="s">
+      <c r="F23" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="G23" s="11" t="s">
+      <c r="G23" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="H23" s="11"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="11" t="n">
+      <c r="H23" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="24">
+      <c r="A24" s="12" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11" t="s">
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="E24" s="11" t="n">
+      <c r="E24" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="F24" s="11" t="s">
+      <c r="F24" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="G24" s="11" t="n">
+      <c r="G24" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="H24" s="11"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="11" t="n">
+      <c r="H24" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="25">
+      <c r="A25" s="12" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11" t="s">
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E25" s="11" t="n">
+      <c r="E25" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="F25" s="11" t="s">
+      <c r="F25" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="G25" s="11" t="s">
+      <c r="G25" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="H25" s="11"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="11" t="n">
+      <c r="H25" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="26">
+      <c r="A26" s="12" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11" t="s">
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="E26" s="11" t="n">
+      <c r="E26" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="F26" s="11" t="s">
+      <c r="F26" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="G26" s="11" t="n">
+      <c r="G26" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="H26" s="11"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="11" t="n">
+      <c r="H26" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="27">
+      <c r="A27" s="12" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11" t="s">
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="E27" s="11" t="n">
+      <c r="E27" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11" t="s">
+      <c r="F27" s="12"/>
+      <c r="G27" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="H27" s="11"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="11" t="n">
+      <c r="H27" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="28">
+      <c r="A28" s="12" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11" t="s">
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="E28" s="11" t="n">
+      <c r="E28" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11" t="n">
+      <c r="F28" s="12"/>
+      <c r="G28" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="H28" s="11"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="11" t="n">
+      <c r="H28" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="29">
+      <c r="A29" s="12" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="11" t="n">
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="30">
+      <c r="A30" s="12" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11" t="s">
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="E30" s="11" t="s">
+      <c r="E30" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="F30" s="11" t="s">
+      <c r="F30" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="G30" s="11" t="s">
+      <c r="G30" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="H30" s="11"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="11" t="n">
+      <c r="H30" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="31">
+      <c r="A31" s="12" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11" t="s">
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12" t="s">
         <v>72</v>
       </c>
       <c r="E31" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="F31" s="11" t="s">
+      <c r="F31" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="G31" s="11" t="s">
+      <c r="G31" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="H31" s="11"/>
-    </row>
-    <row r="32" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="11" t="n">
+      <c r="H31" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="32">
+      <c r="A32" s="12" t="n">
         <v>31</v>
       </c>
       <c r="B32" s="15" t="s">
@@ -1562,198 +1610,220 @@
       <c r="C32" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="11" t="n">
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="33">
+      <c r="A33" s="12" t="n">
         <v>32</v>
       </c>
-      <c r="B33" s="11"/>
+      <c r="B33" s="12"/>
       <c r="C33" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="D33" s="11" t="s">
+      <c r="D33" s="12" t="s">
         <v>77</v>
       </c>
       <c r="E33" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11" t="s">
+      <c r="F33" s="12"/>
+      <c r="G33" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="H33" s="11"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="11" t="n">
+      <c r="H33" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="34">
+      <c r="A34" s="12" t="n">
         <v>33</v>
       </c>
-      <c r="B34" s="11"/>
+      <c r="B34" s="12"/>
       <c r="C34" s="15"/>
-      <c r="D34" s="11" t="s">
+      <c r="D34" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11" t="s">
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="H34" s="11"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="11" t="n">
+      <c r="H34" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="35">
+      <c r="A35" s="12" t="n">
         <v>34</v>
       </c>
-      <c r="B35" s="11"/>
+      <c r="B35" s="12"/>
       <c r="C35" s="15"/>
-      <c r="D35" s="11" t="s">
+      <c r="D35" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="E35" s="11" t="s">
+      <c r="E35" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11" t="s">
+      <c r="F35" s="12"/>
+      <c r="G35" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="H35" s="11"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="11" t="n">
+      <c r="H35" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="36">
+      <c r="A36" s="12" t="n">
         <v>35</v>
       </c>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11" t="s">
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="E36" s="11" t="s">
+      <c r="E36" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="F36" s="11" t="s">
+      <c r="F36" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="11" t="n">
+      <c r="G36" s="12"/>
+      <c r="H36" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="37">
+      <c r="A37" s="12" t="n">
         <v>36</v>
       </c>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11" t="s">
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="E37" s="11" t="s">
+      <c r="E37" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="F37" s="11" t="s">
+      <c r="F37" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="11" t="n">
+      <c r="G37" s="12"/>
+      <c r="H37" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="38">
+      <c r="A38" s="12" t="n">
         <v>37</v>
       </c>
-      <c r="B38" s="11"/>
+      <c r="B38" s="12"/>
       <c r="C38" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="D38" s="11" t="s">
+      <c r="D38" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11" t="s">
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="H38" s="11"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="11" t="n">
+      <c r="H38" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="39">
+      <c r="A39" s="12" t="n">
         <v>38</v>
       </c>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11" t="s">
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12" t="s">
         <v>77</v>
       </c>
       <c r="E39" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="F39" s="11" t="s">
+      <c r="F39" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="G39" s="11" t="s">
+      <c r="G39" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="H39" s="11"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="11" t="n">
+      <c r="H39" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="40">
+      <c r="A40" s="12" t="n">
         <v>39</v>
       </c>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11" t="s">
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="E40" s="11" t="s">
+      <c r="E40" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11" t="s">
+      <c r="F40" s="12"/>
+      <c r="G40" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="H40" s="11"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="11" t="n">
+      <c r="H40" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="41">
+      <c r="A41" s="12" t="n">
         <v>40</v>
       </c>
-      <c r="B41" s="11"/>
+      <c r="B41" s="12"/>
       <c r="C41" s="15"/>
-      <c r="D41" s="11" t="s">
+      <c r="D41" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="E41" s="11" t="s">
+      <c r="E41" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="F41" s="11" t="s">
+      <c r="F41" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="11" t="n">
+      <c r="G41" s="12"/>
+      <c r="H41" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="42">
+      <c r="A42" s="12" t="n">
         <v>41</v>
       </c>
-      <c r="B42" s="11"/>
+      <c r="B42" s="12"/>
       <c r="C42" s="15"/>
-      <c r="D42" s="11" t="s">
+      <c r="D42" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="E42" s="11" t="s">
+      <c r="E42" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="11" t="n">
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="43">
+      <c r="A43" s="12" t="n">
         <v>42</v>
       </c>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11" t="s">
+      <c r="B43" s="12"/>
+      <c r="C43" s="12" t="s">
         <v>98</v>
       </c>
       <c r="D43" s="8" t="s">
@@ -1766,14 +1836,16 @@
       <c r="G43" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="H43" s="11"/>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="11" t="n">
+      <c r="H43" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="44">
+      <c r="A44" s="12" t="n">
         <v>43</v>
       </c>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
       <c r="D44" s="8" t="s">
         <v>13</v>
       </c>
@@ -1784,14 +1856,16 @@
       <c r="G44" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="H44" s="11"/>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="11" t="n">
+      <c r="H44" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="45">
+      <c r="A45" s="12" t="n">
         <v>44</v>
       </c>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
       <c r="D45" s="8" t="s">
         <v>15</v>
       </c>
@@ -1800,14 +1874,16 @@
       <c r="G45" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="H45" s="11"/>
-    </row>
-    <row r="46" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="11" t="n">
+      <c r="H45" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="46">
+      <c r="A46" s="12" t="n">
         <v>45</v>
       </c>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
       <c r="D46" s="8" t="s">
         <v>17</v>
       </c>
@@ -1818,14 +1894,16 @@
       <c r="G46" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="H46" s="11"/>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="11" t="n">
+      <c r="H46" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="47">
+      <c r="A47" s="12" t="n">
         <v>46</v>
       </c>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
       <c r="D47" s="8" t="s">
         <v>20</v>
       </c>
@@ -1836,14 +1914,16 @@
       <c r="G47" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="H47" s="11"/>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="11" t="n">
+      <c r="H47" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="48">
+      <c r="A48" s="12" t="n">
         <v>47</v>
       </c>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
       <c r="D48" s="8" t="s">
         <v>100</v>
       </c>
@@ -1854,354 +1934,394 @@
         <v>102</v>
       </c>
       <c r="G48" s="10"/>
-      <c r="H48" s="11"/>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="11" t="n">
+      <c r="H48" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="49">
+      <c r="A49" s="12" t="n">
         <v>48</v>
       </c>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11" t="s">
+      <c r="B49" s="12"/>
+      <c r="C49" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="D49" s="11" t="s">
+      <c r="D49" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11" t="s">
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="H49" s="11"/>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="11" t="n">
+      <c r="H49" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="50">
+      <c r="A50" s="12" t="n">
         <v>49</v>
       </c>
-      <c r="B50" s="11"/>
-      <c r="C50" s="11" t="s">
+      <c r="B50" s="12"/>
+      <c r="C50" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="D50" s="11" t="s">
+      <c r="D50" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="E50" s="11" t="s">
+      <c r="E50" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11" t="s">
+      <c r="F50" s="12"/>
+      <c r="G50" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="H50" s="11"/>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="11" t="n">
+      <c r="H50" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="51">
+      <c r="A51" s="12" t="n">
         <v>50</v>
       </c>
-      <c r="B51" s="11"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11" t="s">
+      <c r="B51" s="12"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="E51" s="11" t="n">
+      <c r="E51" s="12" t="n">
         <v>78976567</v>
       </c>
-      <c r="F51" s="11"/>
-      <c r="G51" s="11" t="s">
+      <c r="F51" s="12"/>
+      <c r="G51" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="H51" s="11"/>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="11" t="n">
+      <c r="H51" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="52">
+      <c r="A52" s="12" t="n">
         <v>51</v>
       </c>
-      <c r="B52" s="11"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11" t="s">
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="E52" s="11" t="n">
+      <c r="E52" s="12" t="n">
         <v>678909765</v>
       </c>
-      <c r="F52" s="11" t="s">
+      <c r="F52" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="G52" s="11"/>
-      <c r="H52" s="11"/>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="11" t="n">
+      <c r="G52" s="12"/>
+      <c r="H52" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="53">
+      <c r="A53" s="12" t="n">
         <v>52</v>
       </c>
-      <c r="B53" s="11"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11" t="s">
+      <c r="B53" s="12"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="E53" s="11" t="s">
+      <c r="E53" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11" t="s">
+      <c r="F53" s="12"/>
+      <c r="G53" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="H53" s="11"/>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="11" t="n">
+      <c r="H53" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="54">
+      <c r="A54" s="12" t="n">
         <v>53</v>
       </c>
-      <c r="B54" s="11"/>
-      <c r="C54" s="11" t="s">
+      <c r="B54" s="12"/>
+      <c r="C54" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="D54" s="11" t="s">
+      <c r="D54" s="12" t="s">
         <v>116</v>
       </c>
       <c r="E54" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="F54" s="11"/>
-      <c r="G54" s="11" t="s">
+      <c r="F54" s="12"/>
+      <c r="G54" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="H54" s="11"/>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="11" t="n">
+      <c r="H54" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="55">
+      <c r="A55" s="12" t="n">
         <v>54</v>
       </c>
-      <c r="B55" s="11"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11" t="s">
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12" t="s">
         <v>118</v>
       </c>
       <c r="E55" s="18"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11" t="s">
+      <c r="F55" s="12"/>
+      <c r="G55" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="H55" s="11"/>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="11" t="n">
+      <c r="H55" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="56">
+      <c r="A56" s="12" t="n">
         <v>55</v>
       </c>
-      <c r="B56" s="11"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11" t="s">
+      <c r="B56" s="12"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12" t="s">
         <v>119</v>
       </c>
       <c r="E56" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="F56" s="11"/>
-      <c r="G56" s="11" t="s">
+      <c r="F56" s="12"/>
+      <c r="G56" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="H56" s="11"/>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="11" t="n">
+      <c r="H56" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="57">
+      <c r="A57" s="12" t="n">
         <v>56</v>
       </c>
-      <c r="B57" s="11"/>
-      <c r="C57" s="11"/>
-      <c r="D57" s="11" t="s">
+      <c r="B57" s="12"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12" t="s">
         <v>121</v>
       </c>
       <c r="E57" s="17" t="n">
         <v>789654</v>
       </c>
-      <c r="F57" s="11" t="s">
+      <c r="F57" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="G57" s="11"/>
-      <c r="H57" s="11"/>
-    </row>
-    <row r="58" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="11" t="n">
+      <c r="G57" s="12"/>
+      <c r="H57" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="79.85" outlineLevel="0" r="58">
+      <c r="A58" s="12" t="n">
         <v>57</v>
       </c>
-      <c r="B58" s="11"/>
+      <c r="B58" s="12"/>
       <c r="C58" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="D58" s="11" t="s">
+      <c r="D58" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="E58" s="11" t="s">
+      <c r="E58" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="F58" s="11"/>
+      <c r="F58" s="12"/>
       <c r="G58" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="H58" s="11"/>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="11" t="n">
+      <c r="H58" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="59">
+      <c r="A59" s="12" t="n">
         <v>58</v>
       </c>
-      <c r="B59" s="11"/>
+      <c r="B59" s="12"/>
       <c r="C59" s="15"/>
       <c r="D59" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="E59" s="11"/>
-      <c r="F59" s="11"/>
-      <c r="G59" s="11" t="s">
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="H59" s="11"/>
-    </row>
-    <row r="60" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="11" t="n">
+      <c r="H59" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="60">
+      <c r="A60" s="12" t="n">
         <v>59</v>
       </c>
-      <c r="B60" s="11"/>
+      <c r="B60" s="12"/>
       <c r="C60" s="15"/>
       <c r="D60" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="E60" s="11" t="s">
+      <c r="E60" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="F60" s="11"/>
+      <c r="F60" s="12"/>
       <c r="G60" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="H60" s="11"/>
-    </row>
-    <row r="61" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="11" t="n">
+      <c r="H60" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="61">
+      <c r="A61" s="12" t="n">
         <v>60</v>
       </c>
-      <c r="B61" s="11"/>
-      <c r="C61" s="11"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="12"/>
       <c r="D61" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="E61" s="11" t="s">
+      <c r="E61" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="F61" s="11"/>
+      <c r="F61" s="12"/>
       <c r="G61" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="H61" s="11"/>
-    </row>
-    <row r="62" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="11" t="n">
+      <c r="H61" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="62">
+      <c r="A62" s="12" t="n">
         <v>61</v>
       </c>
-      <c r="B62" s="11"/>
+      <c r="B62" s="12"/>
       <c r="C62" s="15"/>
       <c r="D62" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="E62" s="11" t="s">
+      <c r="E62" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="F62" s="11"/>
+      <c r="F62" s="12"/>
       <c r="G62" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="H62" s="11"/>
-    </row>
-    <row r="63" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="11" t="n">
+      <c r="H62" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="63">
+      <c r="A63" s="12" t="n">
         <v>62</v>
       </c>
-      <c r="B63" s="11"/>
+      <c r="B63" s="12"/>
       <c r="C63" s="15"/>
       <c r="D63" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="E63" s="11" t="s">
+      <c r="E63" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="F63" s="11"/>
-      <c r="G63" s="11"/>
-      <c r="H63" s="11"/>
-    </row>
-    <row r="64" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="11" t="n">
+      <c r="F63" s="12"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="64">
+      <c r="A64" s="12" t="n">
         <v>63</v>
       </c>
-      <c r="B64" s="11" t="s">
+      <c r="B64" s="12" t="s">
         <v>137</v>
       </c>
       <c r="C64" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="D64" s="11" t="s">
+      <c r="D64" s="12" t="s">
         <v>139</v>
       </c>
       <c r="E64" s="19"/>
-      <c r="F64" s="11"/>
+      <c r="F64" s="12"/>
       <c r="G64" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="H64" s="11"/>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="11" t="n">
+      <c r="H64" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="65">
+      <c r="A65" s="12" t="n">
         <v>64</v>
       </c>
-      <c r="B65" s="11"/>
+      <c r="B65" s="12"/>
       <c r="C65" s="7"/>
-      <c r="D65" s="11" t="s">
+      <c r="D65" s="12" t="s">
         <v>141</v>
       </c>
       <c r="E65" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F65" s="11"/>
+      <c r="F65" s="12"/>
       <c r="G65" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="H65" s="11"/>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="11" t="n">
+      <c r="H65" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="66">
+      <c r="A66" s="12" t="n">
         <v>65</v>
       </c>
-      <c r="B66" s="11"/>
+      <c r="B66" s="12"/>
       <c r="C66" s="15"/>
-      <c r="D66" s="11" t="s">
+      <c r="D66" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="E66" s="11" t="s">
+      <c r="E66" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="F66" s="11"/>
+      <c r="F66" s="12"/>
       <c r="G66" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="H66" s="11"/>
-    </row>
-    <row r="67" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="11" t="n">
+      <c r="H66" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="67">
+      <c r="A67" s="12" t="n">
         <v>66</v>
       </c>
-      <c r="B67" s="11"/>
+      <c r="B67" s="12"/>
       <c r="C67" s="15"/>
       <c r="D67" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="E67" s="11" t="s">
+      <c r="E67" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="F67" s="11"/>
+      <c r="F67" s="12"/>
       <c r="G67" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="H67" s="11"/>
-    </row>
-    <row r="68" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="11" t="n">
+      <c r="H67" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="68">
+      <c r="A68" s="12" t="n">
         <v>67</v>
       </c>
       <c r="B68" s="15" t="s">
@@ -2210,74 +2330,82 @@
       <c r="C68" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="D68" s="11"/>
-      <c r="E68" s="11"/>
-      <c r="F68" s="11"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
       <c r="G68" s="15"/>
-      <c r="H68" s="11"/>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="11" t="n">
+      <c r="H68" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="69">
+      <c r="A69" s="12" t="n">
         <v>68</v>
       </c>
       <c r="B69" s="15"/>
       <c r="C69" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="D69" s="11" t="s">
+      <c r="D69" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="E69" s="11" t="s">
+      <c r="E69" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="F69" s="11"/>
+      <c r="F69" s="12"/>
       <c r="G69" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="H69" s="11"/>
-    </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="11" t="n">
+      <c r="H69" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="70">
+      <c r="A70" s="12" t="n">
         <v>69</v>
       </c>
       <c r="B70" s="15"/>
       <c r="C70" s="15"/>
-      <c r="D70" s="11" t="s">
+      <c r="D70" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="E70" s="11" t="s">
+      <c r="E70" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="F70" s="11"/>
+      <c r="F70" s="12"/>
       <c r="G70" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="H70" s="11"/>
-    </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="11" t="n">
+      <c r="H70" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="71">
+      <c r="A71" s="12" t="n">
         <v>70</v>
       </c>
       <c r="B71" s="15"/>
       <c r="C71" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="D71" s="11" t="s">
+      <c r="D71" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="E71" s="11" t="n">
+      <c r="E71" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="F71" s="11" t="s">
+      <c r="F71" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="G71" s="11" t="s">
+      <c r="G71" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="H71" s="11"/>
-    </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="11" t="n">
+      <c r="H71" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="72">
+      <c r="A72" s="12" t="n">
         <v>71</v>
       </c>
       <c r="B72" s="15"/>
@@ -2285,19 +2413,21 @@
       <c r="D72" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="E72" s="11" t="n">
+      <c r="E72" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="F72" s="11" t="s">
+      <c r="F72" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="G72" s="11" t="n">
+      <c r="G72" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="H72" s="11"/>
-    </row>
-    <row r="73" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="11" t="n">
+      <c r="H72" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="73">
+      <c r="A73" s="12" t="n">
         <v>72</v>
       </c>
       <c r="B73" s="15"/>
@@ -2307,415 +2437,457 @@
       <c r="D73" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="E73" s="11"/>
-      <c r="F73" s="11"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="12"/>
       <c r="G73" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="H73" s="11"/>
-    </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="11" t="n">
+      <c r="H73" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="74">
+      <c r="A74" s="12" t="n">
         <v>73</v>
       </c>
       <c r="B74" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="C74" s="11" t="s">
+      <c r="C74" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="D74" s="11" t="s">
+      <c r="D74" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E74" s="11" t="s">
+      <c r="E74" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F74" s="11"/>
-      <c r="G74" s="11" t="s">
+      <c r="F74" s="12"/>
+      <c r="G74" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="H74" s="11"/>
-    </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="11" t="n">
+      <c r="H74" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="75">
+      <c r="A75" s="12" t="n">
         <v>74</v>
       </c>
-      <c r="B75" s="11"/>
-      <c r="C75" s="11"/>
-      <c r="D75" s="11" t="s">
+      <c r="B75" s="12"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E75" s="11"/>
-      <c r="F75" s="11"/>
-      <c r="G75" s="11" t="s">
+      <c r="E75" s="12"/>
+      <c r="F75" s="12"/>
+      <c r="G75" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="H75" s="11"/>
-    </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="11" t="n">
+      <c r="H75" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="76">
+      <c r="A76" s="12" t="n">
         <v>75</v>
       </c>
-      <c r="B76" s="11"/>
-      <c r="C76" s="11"/>
-      <c r="D76" s="11" t="s">
+      <c r="B76" s="12"/>
+      <c r="C76" s="12"/>
+      <c r="D76" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E76" s="11" t="s">
+      <c r="E76" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="F76" s="11"/>
-      <c r="G76" s="11" t="s">
+      <c r="F76" s="12"/>
+      <c r="G76" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="H76" s="11"/>
-    </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="11" t="n">
+      <c r="H76" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="77">
+      <c r="A77" s="12" t="n">
         <v>76</v>
       </c>
-      <c r="B77" s="11"/>
-      <c r="C77" s="11"/>
-      <c r="D77" s="11" t="s">
+      <c r="B77" s="12"/>
+      <c r="C77" s="12"/>
+      <c r="D77" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E77" s="11" t="s">
+      <c r="E77" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="F77" s="11"/>
-      <c r="G77" s="11" t="s">
+      <c r="F77" s="12"/>
+      <c r="G77" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="H77" s="11"/>
-    </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="11" t="n">
+      <c r="H77" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="78">
+      <c r="A78" s="12" t="n">
         <v>77</v>
       </c>
-      <c r="B78" s="11"/>
-      <c r="C78" s="11"/>
-      <c r="D78" s="11" t="s">
+      <c r="B78" s="12"/>
+      <c r="C78" s="12"/>
+      <c r="D78" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E78" s="11" t="s">
+      <c r="E78" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F78" s="11"/>
-      <c r="G78" s="11" t="s">
+      <c r="F78" s="12"/>
+      <c r="G78" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="H78" s="11"/>
-    </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="11" t="n">
+      <c r="H78" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="79">
+      <c r="A79" s="12" t="n">
         <v>78</v>
       </c>
-      <c r="B79" s="11"/>
-      <c r="C79" s="11"/>
-      <c r="D79" s="11" t="s">
+      <c r="B79" s="12"/>
+      <c r="C79" s="12"/>
+      <c r="D79" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E79" s="11" t="s">
+      <c r="E79" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="F79" s="11"/>
-      <c r="G79" s="11" t="s">
+      <c r="F79" s="12"/>
+      <c r="G79" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="H79" s="11"/>
-    </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="11" t="n">
+      <c r="H79" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="80">
+      <c r="A80" s="12" t="n">
         <v>79</v>
       </c>
-      <c r="B80" s="11"/>
-      <c r="C80" s="11"/>
-      <c r="D80" s="11" t="s">
+      <c r="B80" s="12"/>
+      <c r="C80" s="12"/>
+      <c r="D80" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="E80" s="11" t="s">
+      <c r="E80" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="F80" s="11"/>
-      <c r="G80" s="11" t="s">
+      <c r="F80" s="12"/>
+      <c r="G80" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="H80" s="11"/>
-    </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="11" t="n">
+      <c r="H80" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="81">
+      <c r="A81" s="12" t="n">
         <v>80</v>
       </c>
-      <c r="B81" s="11" t="s">
+      <c r="B81" s="12" t="s">
         <v>166</v>
       </c>
       <c r="C81" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="D81" s="11"/>
-      <c r="E81" s="11"/>
-      <c r="F81" s="11"/>
-      <c r="G81" s="11"/>
-      <c r="H81" s="11"/>
-    </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="11" t="n">
+      <c r="D81" s="12"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="12"/>
+      <c r="G81" s="12"/>
+      <c r="H81" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="82">
+      <c r="A82" s="12" t="n">
         <v>81</v>
       </c>
-      <c r="B82" s="11"/>
-      <c r="C82" s="11" t="s">
+      <c r="B82" s="12"/>
+      <c r="C82" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="D82" s="11" t="s">
+      <c r="D82" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="E82" s="11"/>
-      <c r="F82" s="11"/>
-      <c r="G82" s="11" t="s">
+      <c r="E82" s="12"/>
+      <c r="F82" s="12"/>
+      <c r="G82" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="H82" s="11"/>
-    </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="11" t="n">
+      <c r="H82" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="83">
+      <c r="A83" s="12" t="n">
         <v>82</v>
       </c>
-      <c r="B83" s="11"/>
-      <c r="C83" s="11"/>
-      <c r="D83" s="11" t="s">
+      <c r="B83" s="12"/>
+      <c r="C83" s="12"/>
+      <c r="D83" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="E83" s="11" t="n">
+      <c r="E83" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="F83" s="11"/>
-      <c r="G83" s="11" t="s">
+      <c r="F83" s="12"/>
+      <c r="G83" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="H83" s="11"/>
-    </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="11" t="n">
+      <c r="H83" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="84">
+      <c r="A84" s="12" t="n">
         <v>83</v>
       </c>
-      <c r="B84" s="11"/>
-      <c r="C84" s="11"/>
-      <c r="D84" s="11"/>
-      <c r="E84" s="11" t="n">
+      <c r="B84" s="12"/>
+      <c r="C84" s="12"/>
+      <c r="D84" s="12"/>
+      <c r="E84" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="F84" s="11"/>
-      <c r="G84" s="11" t="s">
+      <c r="F84" s="12"/>
+      <c r="G84" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="H84" s="11"/>
-    </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="11" t="n">
+      <c r="H84" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="85">
+      <c r="A85" s="12" t="n">
         <v>84</v>
       </c>
-      <c r="B85" s="11"/>
-      <c r="C85" s="11"/>
-      <c r="D85" s="11"/>
-      <c r="E85" s="11" t="n">
+      <c r="B85" s="12"/>
+      <c r="C85" s="12"/>
+      <c r="D85" s="12"/>
+      <c r="E85" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="F85" s="11"/>
-      <c r="G85" s="11" t="s">
+      <c r="F85" s="12"/>
+      <c r="G85" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="H85" s="11"/>
-    </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="11" t="n">
+      <c r="H85" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="86">
+      <c r="A86" s="12" t="n">
         <v>85</v>
       </c>
-      <c r="B86" s="11"/>
-      <c r="C86" s="11"/>
-      <c r="D86" s="11"/>
-      <c r="E86" s="11" t="n">
+      <c r="B86" s="12"/>
+      <c r="C86" s="12"/>
+      <c r="D86" s="12"/>
+      <c r="E86" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="F86" s="11"/>
-      <c r="G86" s="11" t="s">
+      <c r="F86" s="12"/>
+      <c r="G86" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="H86" s="11"/>
-    </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="11" t="n">
+      <c r="H86" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="87">
+      <c r="A87" s="12" t="n">
         <v>86</v>
       </c>
-      <c r="B87" s="11"/>
-      <c r="C87" s="11"/>
-      <c r="D87" s="11"/>
-      <c r="E87" s="11" t="n">
+      <c r="B87" s="12"/>
+      <c r="C87" s="12"/>
+      <c r="D87" s="12"/>
+      <c r="E87" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="F87" s="11"/>
-      <c r="G87" s="11" t="s">
+      <c r="F87" s="12"/>
+      <c r="G87" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="H87" s="11"/>
-    </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="11" t="n">
+      <c r="H87" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="88">
+      <c r="A88" s="12" t="n">
         <v>87</v>
       </c>
-      <c r="B88" s="11"/>
-      <c r="C88" s="11" t="s">
+      <c r="B88" s="12"/>
+      <c r="C88" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="D88" s="11" t="s">
+      <c r="D88" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="E88" s="11"/>
-      <c r="F88" s="11"/>
-      <c r="G88" s="11" t="s">
+      <c r="E88" s="12"/>
+      <c r="F88" s="12"/>
+      <c r="G88" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="H88" s="11"/>
-    </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="11" t="n">
+      <c r="H88" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="89">
+      <c r="A89" s="12" t="n">
         <v>88</v>
       </c>
-      <c r="B89" s="11"/>
-      <c r="C89" s="11"/>
-      <c r="D89" s="11" t="s">
+      <c r="B89" s="12"/>
+      <c r="C89" s="12"/>
+      <c r="D89" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="E89" s="11" t="s">
+      <c r="E89" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="F89" s="11"/>
-      <c r="G89" s="11" t="s">
+      <c r="F89" s="12"/>
+      <c r="G89" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="H89" s="11"/>
-    </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="11" t="n">
+      <c r="H89" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="90">
+      <c r="A90" s="12" t="n">
         <v>89</v>
       </c>
-      <c r="B90" s="11"/>
-      <c r="C90" s="11" t="s">
+      <c r="B90" s="12"/>
+      <c r="C90" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="D90" s="11" t="s">
+      <c r="D90" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="E90" s="11"/>
-      <c r="F90" s="11"/>
-      <c r="G90" s="11" t="s">
+      <c r="E90" s="12"/>
+      <c r="F90" s="12"/>
+      <c r="G90" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="H90" s="11"/>
-    </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="11" t="n">
+      <c r="H90" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="91">
+      <c r="A91" s="12" t="n">
         <v>90</v>
       </c>
-      <c r="B91" s="11"/>
-      <c r="C91" s="11"/>
-      <c r="D91" s="11" t="s">
+      <c r="B91" s="12"/>
+      <c r="C91" s="12"/>
+      <c r="D91" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="E91" s="11" t="s">
+      <c r="E91" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="F91" s="11"/>
-      <c r="G91" s="11" t="s">
+      <c r="F91" s="12"/>
+      <c r="G91" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="H91" s="11"/>
-    </row>
-    <row r="92" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="11" t="n">
+      <c r="H91" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="91" outlineLevel="0" r="92">
+      <c r="A92" s="12" t="n">
         <v>91</v>
       </c>
-      <c r="B92" s="11"/>
-      <c r="C92" s="11"/>
-      <c r="D92" s="11" t="s">
+      <c r="B92" s="12"/>
+      <c r="C92" s="12"/>
+      <c r="D92" s="12" t="s">
         <v>188</v>
       </c>
       <c r="E92" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="F92" s="11"/>
+      <c r="F92" s="12"/>
       <c r="G92" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="H92" s="11"/>
-    </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="11" t="n">
+      <c r="H92" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="93">
+      <c r="A93" s="12" t="n">
         <v>92</v>
       </c>
-      <c r="B93" s="11"/>
-      <c r="C93" s="11" t="s">
+      <c r="B93" s="12"/>
+      <c r="C93" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="D93" s="11" t="s">
+      <c r="D93" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="E93" s="11"/>
-      <c r="F93" s="11"/>
-      <c r="G93" s="11" t="s">
+      <c r="E93" s="12"/>
+      <c r="F93" s="12"/>
+      <c r="G93" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="H93" s="11"/>
-    </row>
-    <row r="94" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="11" t="n">
+      <c r="H93" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="57.45" outlineLevel="0" r="94">
+      <c r="A94" s="12" t="n">
         <v>93</v>
       </c>
-      <c r="B94" s="11"/>
-      <c r="C94" s="11"/>
-      <c r="D94" s="11" t="s">
+      <c r="B94" s="12"/>
+      <c r="C94" s="12"/>
+      <c r="D94" s="12" t="s">
         <v>193</v>
       </c>
       <c r="E94" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="F94" s="11" t="s">
+      <c r="F94" s="12" t="s">
         <v>195</v>
       </c>
       <c r="G94" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="H94" s="11"/>
-    </row>
-    <row r="95" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="11" t="n">
+      <c r="H94" s="12"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="95">
+      <c r="A95" s="12" t="n">
         <v>94</v>
       </c>
-      <c r="B95" s="11"/>
-      <c r="C95" s="11"/>
+      <c r="B95" s="12"/>
+      <c r="C95" s="12"/>
       <c r="D95" s="15" t="s">
         <v>196</v>
       </c>
       <c r="E95" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="F95" s="11"/>
-      <c r="G95" s="11" t="s">
+      <c r="F95" s="12"/>
+      <c r="G95" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="H95" s="11"/>
+      <c r="H95" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E1:F1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E7" r:id="rId1" display="bipbipbip@gmail.com"/>
-    <hyperlink ref="E8" r:id="rId2" display="bipbipbip@gmail.com"/>
-    <hyperlink ref="E9" r:id="rId3" display="bipbipbip112@gmail.com"/>
+    <hyperlink display="bipbipbip@gmail.com" r:id="rId1" ref="E7"/>
+    <hyperlink display="bipbipbip@gmail.com" r:id="rId2" ref="E8"/>
+    <hyperlink display="bipbipbip112@gmail.com" r:id="rId3" ref="E9"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <printOptions gridLines="false" gridLinesSet="true" headings="false" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="true" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Chuẩn"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Chuẩn"&amp;12Page &amp;P</oddFooter>

--- a/test.xlsx
+++ b/test.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="202">
   <si>
     <t xml:space="preserve">No</t>
   </si>
@@ -175,27 +175,30 @@
     <t xml:space="preserve">9,7</t>
   </si>
   <si>
+    <t xml:space="preserve">8,8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 thg 7 → 8 thg 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ngày kết thúc quá 1 tháng so với ngày bắt đầu. Chọn ngày đặt phòng từ ngày 9/7 đến ngày 10/8. Chọn ngày bắt đầu trước </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10,8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phạm vi ngày quá dài</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ngày kết thúc 1 tháng so với ngày bắt đầu. Chọn ngày đặt phòng từ ngày 10/7 đến ngày 9/8. Chọn ngày bắt đầu trước</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10,7</t>
+  </si>
+  <si>
     <t xml:space="preserve">9,8</t>
   </si>
   <si>
-    <t xml:space="preserve">9 thg 7 → 9 thg 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ngày kết thúc quá 1 tháng so với ngày bắt đầu. Chọn ngày đặt phòng từ ngày 9/7 đến ngày 10/8. Chọn ngày bắt đầu trước </t>
-  </si>
-  <si>
-    <t xml:space="preserve">10,8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phạm vi ngày quá dài</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ngày kết thúc 1 tháng so với ngày bắt đầu. Chọn ngày đặt phòng từ ngày 10/7 đến ngày 9/8. Chọn ngày bắt đầu trước</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10,7</t>
-  </si>
-  <si>
     <t xml:space="preserve">10 thg 7 → 9 thg 8</t>
   </si>
   <si>
@@ -325,7 +328,7 @@
     <t xml:space="preserve">Nhập email đúng định dạng</t>
   </si>
   <si>
-    <t xml:space="preserve">bipbipbip11@gmail.com</t>
+    <t xml:space="preserve">bipbipbip12@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">Không</t>
@@ -951,11 +954,11 @@
   </sheetPr>
   <dimension ref="A1:I95"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="B64" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="H68" activeCellId="0" pane="topLeft" sqref="H68:H72"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="B10" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="H13" activeCellId="0" pane="topLeft" sqref="H13:I45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.66796875" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="false"/>
+  <sheetFormatPr defaultColWidth="13.7421875" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="false"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="4.44" collapsed="true" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="26.13" collapsed="true" outlineLevel="0"/>
@@ -1014,6 +1017,9 @@
       <c r="G2" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="H2" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="3">
       <c r="A3" s="5" t="n">
@@ -1033,6 +1039,9 @@
       <c r="G3" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="H3" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4">
       <c r="A4" s="5" t="n">
@@ -1050,6 +1059,9 @@
       <c r="G4" s="11" t="s">
         <v>16</v>
       </c>
+      <c r="H4" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="5">
       <c r="A5" s="5" t="n">
@@ -1069,6 +1081,9 @@
       <c r="G5" s="10" t="s">
         <v>19</v>
       </c>
+      <c r="H5" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="6">
       <c r="A6" s="5" t="n">
@@ -1088,6 +1103,9 @@
       <c r="G6" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="H6" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="7">
       <c r="A7" s="5" t="n">
@@ -1107,6 +1125,9 @@
       <c r="G7" s="10" t="s">
         <v>19</v>
       </c>
+      <c r="H7" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="8">
       <c r="A8" s="5" t="n">
@@ -1124,8 +1145,8 @@
       <c r="G8" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="12" t="s">
-        <v>199</v>
+      <c r="H8" t="s">
+        <v>200</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32.05" outlineLevel="0" r="9">
@@ -1146,8 +1167,8 @@
       <c r="G9" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="12" t="s">
-        <v>199</v>
+      <c r="H9" t="s">
+        <v>200</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="10">
@@ -1169,9 +1190,6 @@
       <c r="F10" s="12"/>
       <c r="G10" s="12" t="s">
         <v>33</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>199</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="11">
@@ -1188,9 +1206,6 @@
       <c r="G11" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="H11" s="12" t="s">
-        <v>199</v>
-      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="12">
       <c r="A12" s="5" t="n">
@@ -1208,9 +1223,6 @@
       <c r="G12" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="H12" s="12" t="s">
-        <v>199</v>
-      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="13">
       <c r="A13" s="5" t="n">
@@ -1228,9 +1240,6 @@
       <c r="G13" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="12" t="s">
-        <v>199</v>
-      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="14">
       <c r="A14" s="5" t="n">
@@ -1248,9 +1257,6 @@
       <c r="G14" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="H14" s="12" t="s">
-        <v>199</v>
-      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="15">
       <c r="A15" s="5" t="n">
@@ -1268,9 +1274,6 @@
       <c r="G15" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="H15" s="12" t="s">
-        <v>199</v>
-      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="16">
       <c r="A16" s="5" t="n">
@@ -1287,9 +1290,6 @@
       <c r="F16" s="12"/>
       <c r="G16" s="12" t="s">
         <v>46</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>199</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="17">
@@ -1303,7 +1303,7 @@
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
       <c r="H17" s="12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="18">
@@ -1327,9 +1327,6 @@
       </c>
       <c r="G18" s="12" t="s">
         <v>52</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>199</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="19">
@@ -1350,9 +1347,6 @@
       <c r="G19" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="H19" s="12" t="s">
-        <v>199</v>
-      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="20">
       <c r="A20" s="12" t="n">
@@ -1367,13 +1361,10 @@
         <v>57</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>199</v>
+        <v>59</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="21">
@@ -1383,19 +1374,16 @@
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
       <c r="D21" s="15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F21" s="12" t="s">
         <v>50</v>
       </c>
       <c r="G21" s="12" t="s">
         <v>55</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>199</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="22">
@@ -1404,14 +1392,14 @@
       </c>
       <c r="B22" s="12"/>
       <c r="C22" s="15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
       <c r="H22" s="12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="23">
@@ -1421,19 +1409,16 @@
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
       <c r="D23" s="12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E23" s="12" t="n">
         <v>1</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>199</v>
+        <v>65</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="24">
@@ -1443,19 +1428,16 @@
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
       <c r="D24" s="12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E24" s="12" t="n">
         <v>2</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G24" s="12" t="n">
         <v>2</v>
-      </c>
-      <c r="H24" s="12" t="s">
-        <v>199</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="25">
@@ -1465,19 +1447,16 @@
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
       <c r="D25" s="12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E25" s="12" t="n">
         <v>1</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="H25" s="12" t="s">
-        <v>199</v>
+        <v>65</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="26">
@@ -1487,19 +1466,16 @@
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
       <c r="D26" s="12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E26" s="12" t="n">
         <v>2</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G26" s="12" t="n">
         <v>2</v>
-      </c>
-      <c r="H26" s="12" t="s">
-        <v>199</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="27">
@@ -1509,17 +1485,14 @@
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
       <c r="D27" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E27" s="12" t="n">
         <v>0</v>
       </c>
       <c r="F27" s="12"/>
       <c r="G27" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="H27" s="12" t="s">
-        <v>199</v>
+        <v>65</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="28">
@@ -1529,7 +1502,7 @@
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
       <c r="D28" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E28" s="12" t="n">
         <v>1</v>
@@ -1537,9 +1510,6 @@
       <c r="F28" s="12"/>
       <c r="G28" s="12" t="n">
         <v>1</v>
-      </c>
-      <c r="H28" s="12" t="s">
-        <v>199</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="29">
@@ -1553,7 +1523,7 @@
       <c r="F29" s="12"/>
       <c r="G29" s="12"/>
       <c r="H29" s="12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="30">
@@ -1563,19 +1533,19 @@
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
       <c r="D30" s="12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="31">
@@ -1585,7 +1555,7 @@
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
       <c r="D31" s="12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E31" s="16" t="s">
         <v>50</v>
@@ -1594,10 +1564,10 @@
         <v>57</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="32">
@@ -1605,17 +1575,17 @@
         <v>31</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
       <c r="H32" s="12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="33">
@@ -1624,20 +1594,17 @@
       </c>
       <c r="B33" s="12"/>
       <c r="C33" s="15" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F33" s="12"/>
       <c r="G33" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="H33" s="12" t="s">
-        <v>199</v>
+        <v>80</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="34">
@@ -1647,15 +1614,15 @@
       <c r="B34" s="12"/>
       <c r="C34" s="15"/>
       <c r="D34" s="12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E34" s="12"/>
       <c r="F34" s="12"/>
       <c r="G34" s="12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="35">
@@ -1665,17 +1632,14 @@
       <c r="B35" s="12"/>
       <c r="C35" s="15"/>
       <c r="D35" s="12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F35" s="12"/>
       <c r="G35" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="H35" s="12" t="s">
-        <v>199</v>
+        <v>80</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="36">
@@ -1685,18 +1649,15 @@
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
       <c r="D36" s="12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G36" s="12"/>
-      <c r="H36" s="12" t="s">
-        <v>199</v>
-      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="37">
       <c r="A37" s="12" t="n">
@@ -1705,18 +1666,15 @@
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
       <c r="D37" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F37" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="E37" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="F37" s="12" t="s">
-        <v>86</v>
-      </c>
       <c r="G37" s="12"/>
-      <c r="H37" s="12" t="s">
-        <v>199</v>
-      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="38">
       <c r="A38" s="12" t="n">
@@ -1724,18 +1682,18 @@
       </c>
       <c r="B38" s="12"/>
       <c r="C38" s="15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E38" s="12"/>
       <c r="F38" s="12"/>
       <c r="G38" s="12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="39">
@@ -1745,19 +1703,16 @@
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
       <c r="D39" s="12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E39" s="17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="H39" s="12" t="s">
-        <v>199</v>
+        <v>94</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="40">
@@ -1767,17 +1722,14 @@
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
       <c r="D40" s="12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F40" s="12"/>
       <c r="G40" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="H40" s="12" t="s">
-        <v>199</v>
+        <v>94</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="41">
@@ -1787,18 +1739,15 @@
       <c r="B41" s="12"/>
       <c r="C41" s="15"/>
       <c r="D41" s="12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G41" s="12"/>
-      <c r="H41" s="12" t="s">
-        <v>199</v>
-      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="42">
       <c r="A42" s="12" t="n">
@@ -1807,16 +1756,13 @@
       <c r="B42" s="12"/>
       <c r="C42" s="15"/>
       <c r="D42" s="12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F42" s="12"/>
       <c r="G42" s="12"/>
-      <c r="H42" s="12" t="s">
-        <v>199</v>
-      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="43">
       <c r="A43" s="12" t="n">
@@ -1824,7 +1770,7 @@
       </c>
       <c r="B43" s="12"/>
       <c r="C43" s="12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>9</v>
@@ -1834,10 +1780,10 @@
       </c>
       <c r="F43" s="9"/>
       <c r="G43" s="10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="44">
@@ -1854,10 +1800,10 @@
       </c>
       <c r="F44" s="9"/>
       <c r="G44" s="10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H44" s="12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="45">
@@ -1872,10 +1818,10 @@
       <c r="E45" s="8"/>
       <c r="F45" s="9"/>
       <c r="G45" s="10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="46">
@@ -1892,10 +1838,10 @@
       </c>
       <c r="F46" s="9"/>
       <c r="G46" s="10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H46" s="12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="47">
@@ -1912,10 +1858,10 @@
       </c>
       <c r="F47" s="9"/>
       <c r="G47" s="10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H47" s="12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="48">
@@ -1925,18 +1871,15 @@
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
       <c r="D48" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G48" s="10"/>
-      <c r="H48" s="12" t="s">
-        <v>199</v>
-      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="49">
       <c r="A49" s="12" t="n">
@@ -1944,18 +1887,15 @@
       </c>
       <c r="B49" s="12"/>
       <c r="C49" s="12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E49" s="12"/>
       <c r="F49" s="12"/>
       <c r="G49" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="H49" s="12" t="s">
-        <v>199</v>
+        <v>106</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="50">
@@ -1964,20 +1904,17 @@
       </c>
       <c r="B50" s="12"/>
       <c r="C50" s="12" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F50" s="12"/>
       <c r="G50" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="H50" s="12" t="s">
-        <v>199</v>
+        <v>106</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="51">
@@ -1987,17 +1924,17 @@
       <c r="B51" s="12"/>
       <c r="C51" s="12"/>
       <c r="D51" s="12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E51" s="12" t="n">
         <v>78976567</v>
       </c>
       <c r="F51" s="12"/>
       <c r="G51" s="12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H51" s="12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="52">
@@ -2007,18 +1944,15 @@
       <c r="B52" s="12"/>
       <c r="C52" s="12"/>
       <c r="D52" s="12" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E52" s="12" t="n">
         <v>678909765</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G52" s="12"/>
-      <c r="H52" s="12" t="s">
-        <v>199</v>
-      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="53">
       <c r="A53" s="12" t="n">
@@ -2027,17 +1961,14 @@
       <c r="B53" s="12"/>
       <c r="C53" s="12"/>
       <c r="D53" s="12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F53" s="12"/>
       <c r="G53" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="H53" s="12" t="s">
-        <v>199</v>
+        <v>115</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="54">
@@ -2046,20 +1977,20 @@
       </c>
       <c r="B54" s="12"/>
       <c r="C54" s="12" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E54" s="17" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F54" s="12"/>
       <c r="G54" s="12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="55">
@@ -2069,15 +2000,15 @@
       <c r="B55" s="12"/>
       <c r="C55" s="12"/>
       <c r="D55" s="12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E55" s="18"/>
       <c r="F55" s="12"/>
       <c r="G55" s="12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H55" s="12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="56">
@@ -2087,17 +2018,17 @@
       <c r="B56" s="12"/>
       <c r="C56" s="12"/>
       <c r="D56" s="12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E56" s="17" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F56" s="12"/>
       <c r="G56" s="12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H56" s="12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="57">
@@ -2107,18 +2038,15 @@
       <c r="B57" s="12"/>
       <c r="C57" s="12"/>
       <c r="D57" s="12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E57" s="17" t="n">
         <v>789654</v>
       </c>
       <c r="F57" s="12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G57" s="12"/>
-      <c r="H57" s="12" t="s">
-        <v>199</v>
-      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="79.85" outlineLevel="0" r="58">
       <c r="A58" s="12" t="n">
@@ -2126,20 +2054,20 @@
       </c>
       <c r="B58" s="12"/>
       <c r="C58" s="15" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F58" s="12"/>
       <c r="G58" s="15" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H58" s="12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="59">
@@ -2149,15 +2077,15 @@
       <c r="B59" s="12"/>
       <c r="C59" s="15"/>
       <c r="D59" s="15" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E59" s="12"/>
       <c r="F59" s="12"/>
       <c r="G59" s="12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H59" s="12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="60">
@@ -2167,17 +2095,17 @@
       <c r="B60" s="12"/>
       <c r="C60" s="15"/>
       <c r="D60" s="15" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E60" s="12" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F60" s="12"/>
       <c r="G60" s="15" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H60" s="12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="61">
@@ -2187,17 +2115,17 @@
       <c r="B61" s="12"/>
       <c r="C61" s="12"/>
       <c r="D61" s="15" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E61" s="12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F61" s="12"/>
       <c r="G61" s="15" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H61" s="12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="62">
@@ -2207,17 +2135,17 @@
       <c r="B62" s="12"/>
       <c r="C62" s="15"/>
       <c r="D62" s="15" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F62" s="12"/>
       <c r="G62" s="15" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H62" s="12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="63">
@@ -2227,15 +2155,15 @@
       <c r="B63" s="12"/>
       <c r="C63" s="15"/>
       <c r="D63" s="15" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F63" s="12"/>
       <c r="G63" s="12"/>
       <c r="H63" s="12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="64">
@@ -2243,21 +2171,21 @@
         <v>63</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E64" s="19"/>
       <c r="F64" s="12"/>
       <c r="G64" s="15" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H64" s="12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="65">
@@ -2267,17 +2195,17 @@
       <c r="B65" s="12"/>
       <c r="C65" s="7"/>
       <c r="D65" s="12" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F65" s="12"/>
       <c r="G65" s="15" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H65" s="12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="66">
@@ -2287,17 +2215,17 @@
       <c r="B66" s="12"/>
       <c r="C66" s="15"/>
       <c r="D66" s="12" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E66" s="12" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F66" s="12"/>
       <c r="G66" s="15" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H66" s="12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="67">
@@ -2307,17 +2235,14 @@
       <c r="B67" s="12"/>
       <c r="C67" s="15"/>
       <c r="D67" s="15" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F67" s="12"/>
       <c r="G67" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="H67" s="12" t="s">
-        <v>199</v>
+        <v>148</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="68">
@@ -2325,17 +2250,17 @@
         <v>67</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D68" s="12"/>
       <c r="E68" s="12"/>
       <c r="F68" s="12"/>
       <c r="G68" s="15"/>
       <c r="H68" s="12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="69">
@@ -2344,20 +2269,17 @@
       </c>
       <c r="B69" s="15"/>
       <c r="C69" s="15" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D69" s="12" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E69" s="12" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F69" s="12"/>
       <c r="G69" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="H69" t="s">
-        <v>200</v>
+        <v>154</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="70">
@@ -2367,17 +2289,14 @@
       <c r="B70" s="15"/>
       <c r="C70" s="15"/>
       <c r="D70" s="12" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E70" s="12" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F70" s="12"/>
       <c r="G70" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="H70" t="s">
-        <v>200</v>
+        <v>157</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="71">
@@ -2386,22 +2305,19 @@
       </c>
       <c r="B71" s="15"/>
       <c r="C71" s="15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E71" s="12" t="n">
         <v>0</v>
       </c>
       <c r="F71" s="12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G71" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="H71" t="s">
-        <v>200</v>
+        <v>65</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="72">
@@ -2411,19 +2327,16 @@
       <c r="B72" s="15"/>
       <c r="C72" s="15"/>
       <c r="D72" s="15" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E72" s="12" t="n">
         <v>2</v>
       </c>
       <c r="F72" s="12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G72" s="12" t="n">
         <v>2</v>
-      </c>
-      <c r="H72" t="s">
-        <v>200</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="73">
@@ -2432,18 +2345,15 @@
       </c>
       <c r="B73" s="15"/>
       <c r="C73" s="15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D73" s="15" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E73" s="12"/>
       <c r="F73" s="12"/>
       <c r="G73" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="H73" s="12" t="s">
-        <v>199</v>
+        <v>163</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="74">
@@ -2451,10 +2361,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D74" s="12" t="s">
         <v>32</v>
@@ -2466,8 +2376,8 @@
       <c r="G74" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="H74" s="12" t="s">
-        <v>199</v>
+      <c r="H74" t="s">
+        <v>200</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="75">
@@ -2482,10 +2392,7 @@
       <c r="E75" s="12"/>
       <c r="F75" s="12"/>
       <c r="G75" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="H75" s="12" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="76">
@@ -2504,9 +2411,6 @@
       <c r="G76" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="H76" s="12" t="s">
-        <v>199</v>
-      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="77">
       <c r="A77" s="12" t="n">
@@ -2524,9 +2428,6 @@
       <c r="G77" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="H77" s="12" t="s">
-        <v>199</v>
-      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="78">
       <c r="A78" s="12" t="n">
@@ -2544,9 +2445,6 @@
       <c r="G78" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="H78" s="12" t="s">
-        <v>199</v>
-      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="79">
       <c r="A79" s="12" t="n">
@@ -2564,9 +2462,6 @@
       <c r="G79" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="H79" s="12" t="s">
-        <v>199</v>
-      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="80">
       <c r="A80" s="12" t="n">
@@ -2584,26 +2479,23 @@
       <c r="G80" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="H80" s="12" t="s">
-        <v>199</v>
-      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="81">
       <c r="A81" s="12" t="n">
         <v>80</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C81" s="15" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D81" s="12"/>
       <c r="E81" s="12"/>
       <c r="F81" s="12"/>
       <c r="G81" s="12"/>
       <c r="H81" s="12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="82">
@@ -2612,18 +2504,15 @@
       </c>
       <c r="B82" s="12"/>
       <c r="C82" s="12" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D82" s="12" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E82" s="12"/>
       <c r="F82" s="12"/>
       <c r="G82" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="H82" s="12" t="s">
-        <v>199</v>
+        <v>171</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="83">
@@ -2633,17 +2522,14 @@
       <c r="B83" s="12"/>
       <c r="C83" s="12"/>
       <c r="D83" s="12" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E83" s="12" t="n">
         <v>1</v>
       </c>
       <c r="F83" s="12"/>
       <c r="G83" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="H83" s="12" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="84">
@@ -2658,10 +2544,7 @@
       </c>
       <c r="F84" s="12"/>
       <c r="G84" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="H84" s="12" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="85">
@@ -2676,10 +2559,7 @@
       </c>
       <c r="F85" s="12"/>
       <c r="G85" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="H85" s="12" t="s">
-        <v>199</v>
+        <v>175</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="86">
@@ -2694,10 +2574,7 @@
       </c>
       <c r="F86" s="12"/>
       <c r="G86" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="H86" s="12" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="87">
@@ -2712,10 +2589,7 @@
       </c>
       <c r="F87" s="12"/>
       <c r="G87" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="H87" s="12" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="88">
@@ -2724,18 +2598,15 @@
       </c>
       <c r="B88" s="12"/>
       <c r="C88" s="12" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D88" s="12" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E88" s="12"/>
       <c r="F88" s="12"/>
       <c r="G88" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="H88" s="12" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="89">
@@ -2745,17 +2616,14 @@
       <c r="B89" s="12"/>
       <c r="C89" s="12"/>
       <c r="D89" s="12" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E89" s="12" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F89" s="12"/>
       <c r="G89" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="H89" s="12" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="90">
@@ -2764,18 +2632,15 @@
       </c>
       <c r="B90" s="12"/>
       <c r="C90" s="12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D90" s="12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E90" s="12"/>
       <c r="F90" s="12"/>
       <c r="G90" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="H90" s="12" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="91">
@@ -2785,17 +2650,14 @@
       <c r="B91" s="12"/>
       <c r="C91" s="12"/>
       <c r="D91" s="12" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E91" s="12" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F91" s="12"/>
       <c r="G91" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="H91" s="12" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="91" outlineLevel="0" r="92">
@@ -2805,17 +2667,14 @@
       <c r="B92" s="12"/>
       <c r="C92" s="12"/>
       <c r="D92" s="12" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E92" s="15" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F92" s="12"/>
       <c r="G92" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="H92" s="12" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="93">
@@ -2824,18 +2683,15 @@
       </c>
       <c r="B93" s="12"/>
       <c r="C93" s="12" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D93" s="12" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E93" s="12"/>
       <c r="F93" s="12"/>
       <c r="G93" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="H93" s="12" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="57.45" outlineLevel="0" r="94">
@@ -2845,18 +2701,17 @@
       <c r="B94" s="12"/>
       <c r="C94" s="12"/>
       <c r="D94" s="12" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E94" s="15" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F94" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="G94" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="G94" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="H94" s="12"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="95">
       <c r="A95" s="12" t="n">
@@ -2865,16 +2720,15 @@
       <c r="B95" s="12"/>
       <c r="C95" s="12"/>
       <c r="D95" s="15" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E95" s="15" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F95" s="12"/>
       <c r="G95" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="H95" s="12"/>
+        <v>199</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/test.xlsx
+++ b/test.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="202">
   <si>
     <t xml:space="preserve">No</t>
   </si>
@@ -1018,7 +1018,7 @@
         <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="3">
@@ -1040,7 +1040,7 @@
         <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4">
@@ -1060,7 +1060,7 @@
         <v>16</v>
       </c>
       <c r="H4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="5">

--- a/test.xlsx
+++ b/test.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookPr backupFile="false" date1904="false" showObjects="all"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="500" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" r:id="rId2" sheetId="1" state="visible"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr iterate="false" iterateCount="100" iterateDelta="0.001" refMode="A1"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="204">
   <si>
     <t xml:space="preserve">No</t>
   </si>
@@ -623,6 +623,15 @@
   </si>
   <si>
     <t xml:space="preserve">Cảm ơn bạn đã đánh giá</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Faild</t>
   </si>
 </sst>
 </file>
@@ -737,28 +746,28 @@
     </fill>
   </fills>
   <borders count="4">
-    <border diagonalUp="false" diagonalDown="false">
+    <border diagonalDown="false" diagonalUp="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border diagonalDown="false" diagonalUp="false">
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border diagonalDown="false" diagonalUp="false">
       <left/>
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border diagonalDown="false" diagonalUp="false">
       <left style="dotted"/>
       <right style="dotted"/>
       <top/>
@@ -767,119 +776,119 @@
     </border>
   </borders>
   <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
   <cellXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="2" fontId="4" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="2" fontId="5" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="2" fontId="5" numFmtId="164" xfId="0">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="3" fillId="2" fontId="6" numFmtId="164" xfId="0">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="3" fontId="7" numFmtId="164" xfId="0">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="3" fontId="7" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="7" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="8" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="3" fontId="7" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="3" fontId="7" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="3" fontId="9" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="3" fontId="10" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="3" fontId="8" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="165" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="11" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="3" name="Comma" xfId="15"/>
+    <cellStyle builtinId="6" name="Comma [0]" xfId="16"/>
+    <cellStyle builtinId="4" name="Currency" xfId="17"/>
+    <cellStyle builtinId="7" name="Currency [0]" xfId="18"/>
+    <cellStyle builtinId="5" name="Percent" xfId="19"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -945,28 +954,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H95"/>
+  <dimension ref="A1:I95"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G69" activeCellId="0" sqref="G69"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="B55" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="G69" activeCellId="0" pane="topLeft" sqref="G69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.7578125" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="false"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="36.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="49.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="28.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="21.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="51.82"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="4.44" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="26.13" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="3" customWidth="true" hidden="false" style="0" width="36.54" collapsed="true" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="true" hidden="false" style="0" width="49.46" collapsed="true" outlineLevel="0"/>
+    <col min="5" max="5" customWidth="true" hidden="false" style="0" width="28.34" collapsed="true" outlineLevel="0"/>
+    <col min="6" max="6" customWidth="true" hidden="false" style="0" width="21.26" collapsed="true" outlineLevel="0"/>
+    <col min="7" max="7" customWidth="true" hidden="false" style="0" width="51.82" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.85" outlineLevel="0" r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -992,7 +1001,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="2">
       <c r="A2" s="5" t="n">
         <v>1</v>
       </c>
@@ -1015,10 +1024,10 @@
         <v>12</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>201</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="3">
       <c r="A3" s="5" t="n">
         <v>2</v>
       </c>
@@ -1037,10 +1046,10 @@
         <v>12</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>201</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4">
       <c r="A4" s="5" t="n">
         <v>3</v>
       </c>
@@ -1057,10 +1066,10 @@
         <v>17</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>201</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="5">
       <c r="A5" s="5" t="n">
         <v>4</v>
       </c>
@@ -1079,7 +1088,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="6">
       <c r="A6" s="5" t="n">
         <v>5</v>
       </c>
@@ -1098,7 +1107,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="7">
       <c r="A7" s="5" t="n">
         <v>6</v>
       </c>
@@ -1117,7 +1126,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="8">
       <c r="A8" s="5" t="n">
         <v>7</v>
       </c>
@@ -1134,7 +1143,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32.05" outlineLevel="0" r="9">
       <c r="A9" s="5" t="n">
         <v>8</v>
       </c>
@@ -1153,7 +1162,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="10">
       <c r="A10" s="5" t="n">
         <v>9</v>
       </c>
@@ -1174,7 +1183,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="11">
       <c r="A11" s="5" t="n">
         <v>10</v>
       </c>
@@ -1189,7 +1198,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="12">
       <c r="A12" s="5" t="n">
         <v>11</v>
       </c>
@@ -1206,7 +1215,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="13">
       <c r="A13" s="5" t="n">
         <v>12</v>
       </c>
@@ -1223,7 +1232,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="14">
       <c r="A14" s="5" t="n">
         <v>13</v>
       </c>
@@ -1240,7 +1249,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="15">
       <c r="A15" s="5" t="n">
         <v>14</v>
       </c>
@@ -1257,7 +1266,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="16">
       <c r="A16" s="5" t="n">
         <v>15</v>
       </c>
@@ -1274,7 +1283,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="17">
       <c r="A17" s="14" t="n">
         <v>16</v>
       </c>
@@ -1284,9 +1293,11 @@
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-    </row>
-    <row r="18" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H17" s="14" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="18">
       <c r="A18" s="14" t="n">
         <v>17</v>
       </c>
@@ -1309,7 +1320,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="19">
       <c r="A19" s="14" t="n">
         <v>18</v>
       </c>
@@ -1328,7 +1339,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="20">
       <c r="A20" s="14" t="n">
         <v>19</v>
       </c>
@@ -1347,7 +1358,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="21">
       <c r="A21" s="14" t="n">
         <v>20</v>
       </c>
@@ -1366,7 +1377,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="22">
       <c r="A22" s="14" t="n">
         <v>21</v>
       </c>
@@ -1378,9 +1389,11 @@
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H22" s="14" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="23">
       <c r="A23" s="14" t="n">
         <v>22</v>
       </c>
@@ -1399,7 +1412,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="24">
       <c r="A24" s="14" t="n">
         <v>23</v>
       </c>
@@ -1418,7 +1431,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="25">
       <c r="A25" s="14" t="n">
         <v>24</v>
       </c>
@@ -1437,7 +1450,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="26">
       <c r="A26" s="14" t="n">
         <v>25</v>
       </c>
@@ -1456,7 +1469,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="27">
       <c r="A27" s="14" t="n">
         <v>26</v>
       </c>
@@ -1473,7 +1486,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="28">
       <c r="A28" s="14" t="n">
         <v>27</v>
       </c>
@@ -1490,7 +1503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="29">
       <c r="A29" s="14" t="n">
         <v>28</v>
       </c>
@@ -1500,9 +1513,11 @@
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
       <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H29" s="14" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="30">
       <c r="A30" s="14" t="n">
         <v>29</v>
       </c>
@@ -1520,9 +1535,11 @@
       <c r="G30" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H30" s="14"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H30" s="14" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="31">
       <c r="A31" s="14" t="n">
         <v>30</v>
       </c>
@@ -1540,9 +1557,11 @@
       <c r="G31" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="H31" s="14"/>
-    </row>
-    <row r="32" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H31" s="14" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="32">
       <c r="A32" s="14" t="n">
         <v>31</v>
       </c>
@@ -1556,9 +1575,11 @@
       <c r="E32" s="14"/>
       <c r="F32" s="14"/>
       <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H32" s="14" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="33">
       <c r="A33" s="14" t="n">
         <v>32</v>
       </c>
@@ -1577,7 +1598,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="34">
       <c r="A34" s="14" t="n">
         <v>33</v>
       </c>
@@ -1591,9 +1612,11 @@
       <c r="G34" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="H34" s="14"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H34" s="14" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="35">
       <c r="A35" s="14" t="n">
         <v>34</v>
       </c>
@@ -1610,7 +1633,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="36">
       <c r="A36" s="14" t="n">
         <v>35</v>
       </c>
@@ -1627,7 +1650,7 @@
       </c>
       <c r="G36" s="14"/>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="37">
       <c r="A37" s="14" t="n">
         <v>36</v>
       </c>
@@ -1644,7 +1667,7 @@
       </c>
       <c r="G37" s="14"/>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="38">
       <c r="A38" s="14" t="n">
         <v>37</v>
       </c>
@@ -1660,9 +1683,11 @@
       <c r="G38" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="H38" s="14"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H38" s="14" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="39">
       <c r="A39" s="14" t="n">
         <v>38</v>
       </c>
@@ -1681,7 +1706,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="40">
       <c r="A40" s="14" t="n">
         <v>39</v>
       </c>
@@ -1698,7 +1723,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="41">
       <c r="A41" s="14" t="n">
         <v>40</v>
       </c>
@@ -1715,7 +1740,7 @@
       </c>
       <c r="G41" s="14"/>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="42">
       <c r="A42" s="14" t="n">
         <v>41</v>
       </c>
@@ -1730,7 +1755,7 @@
       <c r="F42" s="14"/>
       <c r="G42" s="14"/>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="43">
       <c r="A43" s="14" t="n">
         <v>42</v>
       </c>
@@ -1748,9 +1773,11 @@
       <c r="G43" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="H43" s="14"/>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H43" s="14" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="44">
       <c r="A44" s="14" t="n">
         <v>43</v>
       </c>
@@ -1766,9 +1793,11 @@
       <c r="G44" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="H44" s="14"/>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H44" s="14" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="45">
       <c r="A45" s="14" t="n">
         <v>44</v>
       </c>
@@ -1782,9 +1811,11 @@
       <c r="G45" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="H45" s="14"/>
-    </row>
-    <row r="46" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H45" s="14" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="46">
       <c r="A46" s="14" t="n">
         <v>45</v>
       </c>
@@ -1800,9 +1831,11 @@
       <c r="G46" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="H46" s="14"/>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H46" s="14" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="47">
       <c r="A47" s="14" t="n">
         <v>46</v>
       </c>
@@ -1818,9 +1851,11 @@
       <c r="G47" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="H47" s="14"/>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H47" s="14" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="48">
       <c r="A48" s="14" t="n">
         <v>47</v>
       </c>
@@ -1837,7 +1872,7 @@
       </c>
       <c r="G48" s="10"/>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="49">
       <c r="A49" s="14" t="n">
         <v>48</v>
       </c>
@@ -1854,7 +1889,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="50">
       <c r="A50" s="14" t="n">
         <v>49</v>
       </c>
@@ -1873,7 +1908,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="51">
       <c r="A51" s="14" t="n">
         <v>50</v>
       </c>
@@ -1889,9 +1924,11 @@
       <c r="G51" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="H51" s="14"/>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H51" s="14" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="52">
       <c r="A52" s="14" t="n">
         <v>51</v>
       </c>
@@ -1908,7 +1945,7 @@
       </c>
       <c r="G52" s="14"/>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="53">
       <c r="A53" s="14" t="n">
         <v>52</v>
       </c>
@@ -1925,7 +1962,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="54">
       <c r="A54" s="14" t="n">
         <v>53</v>
       </c>
@@ -1943,9 +1980,11 @@
       <c r="G54" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="H54" s="14"/>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H54" s="14" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="55">
       <c r="A55" s="14" t="n">
         <v>54</v>
       </c>
@@ -1959,9 +1998,11 @@
       <c r="G55" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="H55" s="14"/>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H55" s="14" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="56">
       <c r="A56" s="14" t="n">
         <v>55</v>
       </c>
@@ -1977,9 +2018,11 @@
       <c r="G56" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="H56" s="14"/>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H56" s="14" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="57">
       <c r="A57" s="14" t="n">
         <v>56</v>
       </c>
@@ -1996,7 +2039,7 @@
       </c>
       <c r="G57" s="14"/>
     </row>
-    <row r="58" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="79.85" outlineLevel="0" r="58">
       <c r="A58" s="14" t="n">
         <v>57</v>
       </c>
@@ -2014,9 +2057,11 @@
       <c r="G58" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="H58" s="14"/>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H58" s="14" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="59">
       <c r="A59" s="14" t="n">
         <v>58</v>
       </c>
@@ -2030,9 +2075,11 @@
       <c r="G59" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="H59" s="14"/>
-    </row>
-    <row r="60" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H59" s="14" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="60">
       <c r="A60" s="14" t="n">
         <v>59</v>
       </c>
@@ -2048,9 +2095,11 @@
       <c r="G60" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="H60" s="14"/>
-    </row>
-    <row r="61" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H60" s="14" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="61">
       <c r="A61" s="14" t="n">
         <v>60</v>
       </c>
@@ -2066,9 +2115,11 @@
       <c r="G61" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="H61" s="14"/>
-    </row>
-    <row r="62" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H61" s="14" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="62">
       <c r="A62" s="14" t="n">
         <v>61</v>
       </c>
@@ -2084,9 +2135,11 @@
       <c r="G62" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="H62" s="14"/>
-    </row>
-    <row r="63" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H62" s="14" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="63">
       <c r="A63" s="14" t="n">
         <v>62</v>
       </c>
@@ -2100,9 +2153,11 @@
       </c>
       <c r="F63" s="14"/>
       <c r="G63" s="14"/>
-      <c r="H63" s="14"/>
-    </row>
-    <row r="64" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H63" s="14" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="64">
       <c r="A64" s="14" t="n">
         <v>63</v>
       </c>
@@ -2120,9 +2175,11 @@
       <c r="G64" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="H64" s="14"/>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H64" s="14" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="65">
       <c r="A65" s="14" t="n">
         <v>64</v>
       </c>
@@ -2138,9 +2195,11 @@
       <c r="G65" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="H65" s="14"/>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H65" s="14" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="66">
       <c r="A66" s="14" t="n">
         <v>65</v>
       </c>
@@ -2156,9 +2215,11 @@
       <c r="G66" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="H66" s="14"/>
-    </row>
-    <row r="67" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H66" s="14" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="67">
       <c r="A67" s="14" t="n">
         <v>66</v>
       </c>
@@ -2175,7 +2236,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="68">
       <c r="A68" s="14" t="n">
         <v>67</v>
       </c>
@@ -2189,9 +2250,11 @@
       <c r="E68" s="14"/>
       <c r="F68" s="14"/>
       <c r="G68" s="15"/>
-      <c r="H68" s="14"/>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H68" s="14" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="69">
       <c r="A69" s="14" t="n">
         <v>68</v>
       </c>
@@ -2209,8 +2272,11 @@
       <c r="G69" s="15" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H69" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="70">
       <c r="A70" s="14" t="n">
         <v>69</v>
       </c>
@@ -2226,8 +2292,11 @@
       <c r="G70" s="15" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H70" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="71">
       <c r="A71" s="14" t="n">
         <v>70</v>
       </c>
@@ -2247,8 +2316,11 @@
       <c r="G71" s="14" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H71" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="72">
       <c r="A72" s="14" t="n">
         <v>71</v>
       </c>
@@ -2266,8 +2338,11 @@
       <c r="G72" s="14" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="73" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H72" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="73">
       <c r="A73" s="14" t="n">
         <v>72</v>
       </c>
@@ -2283,8 +2358,11 @@
       <c r="G73" s="15" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H73" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="74">
       <c r="A74" s="14" t="n">
         <v>73</v>
       </c>
@@ -2305,7 +2383,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="75">
       <c r="A75" s="14" t="n">
         <v>74</v>
       </c>
@@ -2320,7 +2398,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="76">
       <c r="A76" s="14" t="n">
         <v>75</v>
       </c>
@@ -2337,7 +2415,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="77">
       <c r="A77" s="14" t="n">
         <v>76</v>
       </c>
@@ -2354,7 +2432,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="78">
       <c r="A78" s="14" t="n">
         <v>77</v>
       </c>
@@ -2371,7 +2449,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="79">
       <c r="A79" s="14" t="n">
         <v>78</v>
       </c>
@@ -2388,7 +2466,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="80">
       <c r="A80" s="14" t="n">
         <v>79</v>
       </c>
@@ -2405,7 +2483,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="81">
       <c r="A81" s="14" t="n">
         <v>80</v>
       </c>
@@ -2419,9 +2497,11 @@
       <c r="E81" s="14"/>
       <c r="F81" s="14"/>
       <c r="G81" s="14"/>
-      <c r="H81" s="14"/>
-    </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H81" s="14" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="82">
       <c r="A82" s="14" t="n">
         <v>81</v>
       </c>
@@ -2438,7 +2518,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="83">
       <c r="A83" s="14" t="n">
         <v>82</v>
       </c>
@@ -2455,7 +2535,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="84">
       <c r="A84" s="14" t="n">
         <v>83</v>
       </c>
@@ -2470,7 +2550,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="85">
       <c r="A85" s="14" t="n">
         <v>84</v>
       </c>
@@ -2485,7 +2565,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="86">
       <c r="A86" s="14" t="n">
         <v>85</v>
       </c>
@@ -2500,7 +2580,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="87">
       <c r="A87" s="14" t="n">
         <v>86</v>
       </c>
@@ -2515,7 +2595,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="88">
       <c r="A88" s="14" t="n">
         <v>87</v>
       </c>
@@ -2532,7 +2612,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="89">
       <c r="A89" s="14" t="n">
         <v>88</v>
       </c>
@@ -2549,7 +2629,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="90">
       <c r="A90" s="14" t="n">
         <v>89</v>
       </c>
@@ -2566,7 +2646,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="91">
       <c r="A91" s="14" t="n">
         <v>90</v>
       </c>
@@ -2583,7 +2663,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="91" outlineLevel="0" r="92">
       <c r="A92" s="14" t="n">
         <v>91</v>
       </c>
@@ -2600,7 +2680,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="93">
       <c r="A93" s="14" t="n">
         <v>92</v>
       </c>
@@ -2617,7 +2697,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="57.45" outlineLevel="0" r="94">
       <c r="A94" s="14" t="n">
         <v>93</v>
       </c>
@@ -2636,7 +2716,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="95">
       <c r="A95" s="14" t="n">
         <v>94</v>
       </c>
@@ -2658,13 +2738,13 @@
     <mergeCell ref="E1:F1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E7" r:id="rId1" display="bipbipbip@gmail.com"/>
-    <hyperlink ref="E8" r:id="rId2" display="bipbipbip@gmail.com"/>
-    <hyperlink ref="E9" r:id="rId3" display="bipbipbip112@gmail.com"/>
+    <hyperlink display="bipbipbip@gmail.com" r:id="rId1" ref="E7"/>
+    <hyperlink display="bipbipbip@gmail.com" r:id="rId2" ref="E8"/>
+    <hyperlink display="bipbipbip112@gmail.com" r:id="rId3" ref="E9"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <printOptions gridLines="false" gridLinesSet="true" headings="false" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="true" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Chuẩn"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Chuẩn"&amp;12Page &amp;P</oddFooter>

--- a/test.xlsx
+++ b/test.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="204">
   <si>
     <t xml:space="preserve">No</t>
   </si>
@@ -1023,8 +1023,8 @@
       <c r="G2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="0" t="s">
-        <v>201</v>
+      <c r="H2" t="s">
+        <v>202</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="3">
@@ -1045,8 +1045,8 @@
       <c r="G3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="0" t="s">
-        <v>201</v>
+      <c r="H3" t="s">
+        <v>202</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4">
@@ -1065,8 +1065,8 @@
       <c r="G4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="0" t="s">
-        <v>201</v>
+      <c r="H4" t="s">
+        <v>202</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="5">
@@ -1087,6 +1087,9 @@
       <c r="G5" s="10" t="s">
         <v>20</v>
       </c>
+      <c r="H5" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="6">
       <c r="A6" s="5" t="n">
@@ -1106,6 +1109,9 @@
       <c r="G6" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="H6" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="7">
       <c r="A7" s="5" t="n">
@@ -1125,6 +1131,9 @@
       <c r="G7" s="10" t="s">
         <v>20</v>
       </c>
+      <c r="H7" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="8">
       <c r="A8" s="5" t="n">
@@ -1142,6 +1151,9 @@
       <c r="G8" s="10" t="s">
         <v>27</v>
       </c>
+      <c r="H8" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32.05" outlineLevel="0" r="9">
       <c r="A9" s="5" t="n">
@@ -1161,6 +1173,9 @@
       <c r="G9" s="13" t="s">
         <v>30</v>
       </c>
+      <c r="H9" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="10">
       <c r="A10" s="5" t="n">
@@ -1181,6 +1196,9 @@
       <c r="F10" s="14"/>
       <c r="G10" s="14" t="s">
         <v>34</v>
+      </c>
+      <c r="H10" t="s">
+        <v>202</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="11">
@@ -1197,6 +1215,9 @@
       <c r="G11" s="14" t="s">
         <v>36</v>
       </c>
+      <c r="H11" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="12">
       <c r="A12" s="5" t="n">
@@ -1214,6 +1235,9 @@
       <c r="G12" s="14" t="s">
         <v>34</v>
       </c>
+      <c r="H12" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="13">
       <c r="A13" s="5" t="n">
@@ -1231,6 +1255,9 @@
       <c r="G13" s="14" t="s">
         <v>34</v>
       </c>
+      <c r="H13" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="14">
       <c r="A14" s="5" t="n">
@@ -1248,6 +1275,9 @@
       <c r="G14" s="14" t="s">
         <v>34</v>
       </c>
+      <c r="H14" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="15">
       <c r="A15" s="5" t="n">
@@ -1265,6 +1295,9 @@
       <c r="G15" s="14" t="s">
         <v>34</v>
       </c>
+      <c r="H15" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="16">
       <c r="A16" s="5" t="n">
@@ -1281,6 +1314,9 @@
       <c r="F16" s="14"/>
       <c r="G16" s="14" t="s">
         <v>47</v>
+      </c>
+      <c r="H16" t="s">
+        <v>201</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="17">
@@ -2273,7 +2309,7 @@
         <v>155</v>
       </c>
       <c r="H69" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="70">
@@ -2293,7 +2329,7 @@
         <v>158</v>
       </c>
       <c r="H70" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="71">
@@ -2317,7 +2353,7 @@
         <v>66</v>
       </c>
       <c r="H71" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="72">
@@ -2339,7 +2375,7 @@
         <v>2</v>
       </c>
       <c r="H72" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="73">
@@ -2359,7 +2395,7 @@
         <v>164</v>
       </c>
       <c r="H73" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="74">

--- a/test.xlsx
+++ b/test.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2177" uniqueCount="204">
   <si>
     <t xml:space="preserve">No</t>
   </si>
@@ -1316,7 +1316,7 @@
         <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="17">
@@ -1447,6 +1447,9 @@
       <c r="G23" s="14" t="s">
         <v>66</v>
       </c>
+      <c r="H23" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="24">
       <c r="A24" s="14" t="n">
@@ -1466,6 +1469,9 @@
       <c r="G24" s="14" t="n">
         <v>2</v>
       </c>
+      <c r="H24" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="25">
       <c r="A25" s="14" t="n">
@@ -1485,6 +1491,9 @@
       <c r="G25" s="14" t="s">
         <v>66</v>
       </c>
+      <c r="H25" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="26">
       <c r="A26" s="14" t="n">
@@ -1504,6 +1513,9 @@
       <c r="G26" s="14" t="n">
         <v>2</v>
       </c>
+      <c r="H26" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="27">
       <c r="A27" s="14" t="n">
@@ -1521,6 +1533,9 @@
       <c r="G27" s="14" t="s">
         <v>66</v>
       </c>
+      <c r="H27" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="28">
       <c r="A28" s="14" t="n">
@@ -1537,6 +1552,9 @@
       <c r="F28" s="14"/>
       <c r="G28" s="14" t="n">
         <v>1</v>
+      </c>
+      <c r="H28" t="s">
+        <v>202</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="29">
@@ -2309,7 +2327,7 @@
         <v>155</v>
       </c>
       <c r="H69" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="70">
@@ -2329,7 +2347,7 @@
         <v>158</v>
       </c>
       <c r="H70" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="71">
@@ -2353,7 +2371,7 @@
         <v>66</v>
       </c>
       <c r="H71" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="72">
@@ -2375,7 +2393,7 @@
         <v>2</v>
       </c>
       <c r="H72" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="73">
@@ -2395,7 +2413,7 @@
         <v>164</v>
       </c>
       <c r="H73" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="74">
@@ -2417,6 +2435,9 @@
       <c r="F74" s="14"/>
       <c r="G74" s="14" t="s">
         <v>34</v>
+      </c>
+      <c r="H74" t="s">
+        <v>202</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="75">
@@ -2433,6 +2454,9 @@
       <c r="G75" s="14" t="s">
         <v>167</v>
       </c>
+      <c r="H75" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="76">
       <c r="A76" s="14" t="n">
@@ -2449,6 +2473,9 @@
       <c r="F76" s="14"/>
       <c r="G76" s="14" t="s">
         <v>34</v>
+      </c>
+      <c r="H76" t="s">
+        <v>202</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="77">

--- a/test.xlsx
+++ b/test.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2177" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="205">
   <si>
     <t xml:space="preserve">No</t>
   </si>
@@ -61,219 +61,222 @@
     <t xml:space="preserve">Định dạng email không hợp lệ</t>
   </si>
   <si>
+    <t xml:space="preserve">Clean trường email -&gt; Nhập email sau chấm k có tên miền</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bipbipbip@gmail.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean trường email -&gt; Không nhập email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vui lòng nhập địa chỉ email hợp lệ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean trường email -&gt; Nhập email chứa các ký tự đặc biệt trừ @</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bipbipbip%@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vui lòng kiểm tra email và mật khẩu rồi thử lại.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean trường email -&gt; Nhập email thiếu @</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bipbipbipgmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean trường email -&gt; Nhập email → Nhập sai pass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bipbipbip@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bipbipbip@</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Không nhập pass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vui lòng nhập mật khẩu hợp lệ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vào App &gt; Tiếp tục bằng email &gt; Đăng ký -&gt; fill vào trường đăng ký -&gt; Đăng ký → Nhập email, password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bipbipbip112@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khám phá địa điểm được khách du lịch đề xuất ở gần bạn - dù bạn ở đâu.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify button search</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khách sạn → tìm kiếm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nhập địa chỉ tìm kiếm đã tồn tại</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hà Nội</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nhập tìm kiếm Rỗng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khách sạn lân cận</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nhâp địa chỉ toàn chữ hoa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HÀ NỘI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nhập địa chỉ toàn chữ thường</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hà nội</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nhập địa chỉ tìm kiếm có khoảng trắng đầu và cuối </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Hà Nội  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nhập địa chỉ tìm kiếm không dấu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ha Noi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nhâpj địa chỉ tìm kiếm k tồn tại → Chọn xem tất cả kết quả </t>
+  </si>
+  <si>
+    <t xml:space="preserve">unljhf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rất tiếc, chúng tôi không tìm thấy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify lọc đặt ngày book khách sạn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khách sạn→ Nhập Hà Nội → chọn Hà Nội → Chọn lọc ngày</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ngày kết thúc &lt; 1 tháng so với ngày bắt đầu. Chọn ngày hợp lệ đặt phòng từ ngày 9/7 đến ngày 9/8. Chọn ngày bắt đầu trước</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9,7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8,8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 thg 7 → 8 thg 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ngày kết thúc quá 1 tháng so với ngày bắt đầu. Chọn ngày đặt phòng từ ngày 9/7 đến ngày 10/8. Chọn ngày bắt đầu trước </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10,8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phạm vi ngày quá dài</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ngày kết thúc 1 tháng so với ngày bắt đầu. Chọn ngày đặt phòng từ ngày 10/7 đến ngày 9/8. Chọn ngày bắt đầu trước</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10,7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9,8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 thg 7 → 9 thg 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ngày kết thúc &gt; 1 tháng so với ngày bắt đầu. Chọn ngày đặt phòng từ ngày 9/7→ 9/10. Chọn ngày kết thúc trước </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9,10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khách sạn→ Nhập Hà Nội → chọn Hà Nội → Chọn lọc số phòng, số người</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chọn phòng &lt;1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chọn phòng &gt;= 1. Kiểm tra Chọn số phòng = 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chọn người lớn &lt;1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chọn người lớn &gt; 1. Kiểm tra Chọn người lớn = 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chọn trẻ em &lt;0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chọn trẻ em &gt;0. kiểm tra chọn trẻ con = 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chọn Đặt lại</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 thg 6 → 9 thg 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chọn Áp dụng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 thg 7 → 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify các trường nhập đặt phòng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khách sạn → Hà Nội → Chọn Hanoi Aria Central Hotel &amp; Spa → Xem giảm giá → Đặt cho 1 đêm → Phòng Suwperior Giường Đôi → Đặt phòng → Bước tiếp theo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Họ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nhập họ toàn số</t>
+  </si>
+  <si>
+    <t xml:space="preserve">878971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vui lòng điền họ không bao gồm số, ký tự đặc biệt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Failed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bỏ trống trường họ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vui lòng nhập họ của bạn</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pass</t>
   </si>
   <si>
-    <t xml:space="preserve">Clean trường email -&gt; Nhập email sau chấm k có tên miền</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bipbipbip@gmail.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clean trường email -&gt; Không nhập email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vui lòng nhập địa chỉ email hợp lệ.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clean trường email -&gt; Nhập email chứa các ký tự đặc biệt trừ @</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bipbipbip%@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vui lòng kiểm tra email và mật khẩu rồi thử lại.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clean trường email -&gt; Nhập email thiếu @</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bipbipbipgmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clean trường email -&gt; Nhập email → Nhập sai pass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bipbipbip@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bipbipbip@</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Không nhập pass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vui lòng nhập mật khẩu hợp lệ.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vào App &gt; Tiếp tục bằng email &gt; Đăng ký -&gt; fill vào trường đăng ký -&gt; Đăng ký → Nhập email, password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bipbipbip112@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Khám phá địa điểm được khách du lịch đề xuất ở gần bạn - dù bạn ở đâu.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify button search</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Khách sạn → tìm kiếm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nhập địa chỉ tìm kiếm đã tồn tại</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hà Nội</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nhập tìm kiếm Rỗng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Khách sạn lân cận</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nhâp địa chỉ toàn chữ hoa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HÀ NỘI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nhập địa chỉ toàn chữ thường</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hà nội</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nhập địa chỉ tìm kiếm có khoảng trắng đầu và cuối </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Hà Nội  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nhập địa chỉ tìm kiếm không dấu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ha Noi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nhâpj địa chỉ tìm kiếm k tồn tại → Chọn xem tất cả kết quả </t>
-  </si>
-  <si>
-    <t xml:space="preserve">unljhf </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rất tiếc, chúng tôi không tìm thấy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify lọc đặt ngày book khách sạn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Khách sạn→ Nhập Hà Nội → chọn Hà Nội → Chọn lọc ngày</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ngày kết thúc &lt; 1 tháng so với ngày bắt đầu. Chọn ngày hợp lệ đặt phòng từ ngày 9/7 đến ngày 9/8. Chọn ngày bắt đầu trước</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9,7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8,8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 thg 7 → 8 thg 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ngày kết thúc quá 1 tháng so với ngày bắt đầu. Chọn ngày đặt phòng từ ngày 9/7 đến ngày 10/8. Chọn ngày bắt đầu trước </t>
-  </si>
-  <si>
-    <t xml:space="preserve">10,8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phạm vi ngày quá dài</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ngày kết thúc 1 tháng so với ngày bắt đầu. Chọn ngày đặt phòng từ ngày 10/7 đến ngày 9/8. Chọn ngày bắt đầu trước</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10,7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9,8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 thg 7 → 9 thg 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ngày kết thúc &gt; 1 tháng so với ngày bắt đầu. Chọn ngày đặt phòng từ ngày 9/7→ 9/10. Chọn ngày kết thúc trước </t>
-  </si>
-  <si>
-    <t xml:space="preserve">9,10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Khách sạn→ Nhập Hà Nội → chọn Hà Nội → Chọn lọc số phòng, số người</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chọn phòng &lt;1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chọn phòng &gt;= 1. Kiểm tra Chọn số phòng = 2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chọn người lớn &lt;1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chọn người lớn &gt; 1. Kiểm tra Chọn người lớn = 2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chọn trẻ em &lt;0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chọn trẻ em &gt;0. kiểm tra chọn trẻ con = 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chọn Đặt lại</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 thg 6 → 6 thg 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chọn Áp dụng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 thg 7 → 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify các trường nhập đặt phòng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Khách sạn → Hà Nội → Chọn Hanoi Aria Central Hotel &amp; Spa → Xem giảm giá → Đặt cho 1 đêm → Phòng Suwperior Giường Đôi → Đặt phòng → Bước tiếp theo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Họ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nhập họ toàn số</t>
-  </si>
-  <si>
-    <t xml:space="preserve">878971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vui lòng điền họ không bao gồm số, ký tự đặc biệt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bỏ trống trường họ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vui lòng nhập họ của bạn</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nhập họ gồm ký tự đặc biệt</t>
   </si>
   <si>
@@ -331,7 +334,7 @@
     <t xml:space="preserve">Nhập email đúng định dạng</t>
   </si>
   <si>
-    <t xml:space="preserve">bipbipbip12@gmail.com</t>
+    <t xml:space="preserve">bipbipbip16@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">Không</t>
@@ -484,10 +487,10 @@
     <t xml:space="preserve">Chọn ngày hiện tại </t>
   </si>
   <si>
-    <t xml:space="preserve">6,6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 thg 6</t>
+    <t xml:space="preserve">8,6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 thg 6</t>
   </si>
   <si>
     <t xml:space="preserve">Chọn ngày tương lai 30/6</t>
@@ -628,10 +631,10 @@
     <t/>
   </si>
   <si>
+    <t>Failed</t>
+  </si>
+  <si>
     <t>Pass</t>
-  </si>
-  <si>
-    <t>Faild</t>
   </si>
 </sst>
 </file>
@@ -960,11 +963,11 @@
   </sheetPr>
   <dimension ref="A1:I95"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="B55" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="G69" activeCellId="0" pane="topLeft" sqref="G69"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="B34" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="E65" activeCellId="0" pane="topLeft" sqref="E65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.7578125" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="false"/>
+  <sheetFormatPr defaultColWidth="13.8671875" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="false"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="4.44" collapsed="true" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="26.13" collapsed="true" outlineLevel="0"/>
@@ -1023,9 +1026,6 @@
       <c r="G2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="s">
-        <v>202</v>
-      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="3">
       <c r="A3" s="5" t="n">
@@ -1034,19 +1034,16 @@
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
       <c r="D3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>15</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>11</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>12</v>
-      </c>
-      <c r="H3" t="s">
-        <v>202</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4">
@@ -1056,17 +1053,14 @@
       <c r="B4" s="6"/>
       <c r="C4" s="7"/>
       <c r="D4" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="9" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" t="s">
-        <v>202</v>
+        <v>16</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="5">
@@ -1076,19 +1070,16 @@
       <c r="B5" s="6"/>
       <c r="C5" s="7"/>
       <c r="D5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" t="s">
-        <v>202</v>
+        <v>19</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="6">
@@ -1098,19 +1089,16 @@
       <c r="B6" s="6"/>
       <c r="C6" s="7"/>
       <c r="D6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="10" t="s">
         <v>12</v>
-      </c>
-      <c r="H6" t="s">
-        <v>202</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="7">
@@ -1120,19 +1108,16 @@
       <c r="B7" s="6"/>
       <c r="C7" s="7"/>
       <c r="D7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="F7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="9" t="s">
-        <v>25</v>
-      </c>
       <c r="G7" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" t="s">
-        <v>202</v>
+        <v>19</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="8">
@@ -1142,17 +1127,14 @@
       <c r="B8" s="6"/>
       <c r="C8" s="7"/>
       <c r="D8" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" t="s">
-        <v>202</v>
+        <v>26</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32.05" outlineLevel="0" r="9">
@@ -1162,19 +1144,16 @@
       <c r="B9" s="6"/>
       <c r="C9" s="7"/>
       <c r="D9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="12" t="s">
         <v>28</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>29</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" t="s">
-        <v>202</v>
+        <v>29</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="10">
@@ -1182,23 +1161,20 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="D10" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="E10" s="14" t="s">
         <v>33</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>34</v>
       </c>
       <c r="F10" s="14"/>
       <c r="G10" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" t="s">
-        <v>202</v>
+        <v>33</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="11">
@@ -1208,15 +1184,12 @@
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
       <c r="D11" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
       <c r="G11" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" t="s">
-        <v>202</v>
+        <v>35</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="12">
@@ -1226,17 +1199,14 @@
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
       <c r="D12" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="14" t="s">
         <v>37</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>38</v>
       </c>
       <c r="F12" s="14"/>
       <c r="G12" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="H12" t="s">
-        <v>202</v>
+        <v>33</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="13">
@@ -1246,17 +1216,14 @@
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
       <c r="D13" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="14" t="s">
         <v>39</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>40</v>
       </c>
       <c r="F13" s="14"/>
       <c r="G13" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13" t="s">
-        <v>202</v>
+        <v>33</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="14">
@@ -1266,17 +1233,14 @@
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
       <c r="D14" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="14" t="s">
         <v>41</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>42</v>
       </c>
       <c r="F14" s="14"/>
       <c r="G14" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="H14" t="s">
-        <v>202</v>
+        <v>33</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="15">
@@ -1286,17 +1250,14 @@
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
       <c r="D15" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="14" t="s">
         <v>43</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>44</v>
       </c>
       <c r="F15" s="14"/>
       <c r="G15" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="H15" t="s">
-        <v>202</v>
+        <v>33</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="16">
@@ -1306,17 +1267,14 @@
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
       <c r="D16" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="14" t="s">
         <v>45</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>46</v>
       </c>
       <c r="F16" s="14"/>
       <c r="G16" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="H16" t="s">
-        <v>202</v>
+        <v>46</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="17">
@@ -1330,7 +1288,7 @@
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
       <c r="H17" s="14" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="18">
@@ -1338,22 +1296,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="D18" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="E18" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="F18" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="G18" s="14" t="s">
         <v>52</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>53</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="19">
@@ -1363,16 +1321,16 @@
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
       <c r="D19" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="E19" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="F19" s="16" t="s">
+      <c r="G19" s="14" t="s">
         <v>55</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>56</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="20">
@@ -1382,16 +1340,16 @@
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
       <c r="D20" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="F20" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="F20" s="14" t="s">
+      <c r="G20" s="14" t="s">
         <v>59</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>60</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="21">
@@ -1401,16 +1359,16 @@
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
       <c r="D21" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="E21" s="14" t="s">
-        <v>62</v>
-      </c>
       <c r="F21" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="22">
@@ -1419,14 +1377,14 @@
       </c>
       <c r="B22" s="14"/>
       <c r="C22" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
       <c r="H22" s="14" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="23">
@@ -1436,19 +1394,16 @@
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
       <c r="D23" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E23" s="14" t="n">
         <v>1</v>
       </c>
       <c r="F23" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G23" s="14" t="s">
         <v>65</v>
-      </c>
-      <c r="G23" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="H23" t="s">
-        <v>202</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="24">
@@ -1458,19 +1413,16 @@
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
       <c r="D24" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E24" s="14" t="n">
         <v>2</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G24" s="14" t="n">
         <v>2</v>
-      </c>
-      <c r="H24" t="s">
-        <v>202</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="25">
@@ -1480,19 +1432,16 @@
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
       <c r="D25" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E25" s="14" t="n">
         <v>1</v>
       </c>
       <c r="F25" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G25" s="14" t="s">
         <v>65</v>
-      </c>
-      <c r="G25" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="H25" t="s">
-        <v>202</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="26">
@@ -1502,19 +1451,16 @@
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
       <c r="D26" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E26" s="14" t="n">
         <v>2</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G26" s="14" t="n">
         <v>2</v>
-      </c>
-      <c r="H26" t="s">
-        <v>202</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="27">
@@ -1524,17 +1470,14 @@
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
       <c r="D27" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E27" s="14" t="n">
         <v>0</v>
       </c>
       <c r="F27" s="14"/>
       <c r="G27" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="H27" t="s">
-        <v>202</v>
+        <v>65</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="28">
@@ -1544,7 +1487,7 @@
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E28" s="14" t="n">
         <v>1</v>
@@ -1552,9 +1495,6 @@
       <c r="F28" s="14"/>
       <c r="G28" s="14" t="n">
         <v>1</v>
-      </c>
-      <c r="H28" t="s">
-        <v>202</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="29">
@@ -1568,7 +1508,7 @@
       <c r="F29" s="14"/>
       <c r="G29" s="14"/>
       <c r="H29" s="14" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="30">
@@ -1578,19 +1518,16 @@
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
       <c r="D30" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G30" s="14" t="s">
         <v>72</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="F30" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="G30" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="H30" s="14" t="s">
-        <v>201</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="31">
@@ -1600,19 +1537,16 @@
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
       <c r="D31" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G31" s="14" t="s">
         <v>74</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="F31" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="G31" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="H31" s="14" t="s">
-        <v>201</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="32">
@@ -1620,17 +1554,17 @@
         <v>31</v>
       </c>
       <c r="B32" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="15" t="s">
         <v>76</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>77</v>
       </c>
       <c r="D32" s="14"/>
       <c r="E32" s="14"/>
       <c r="F32" s="14"/>
       <c r="G32" s="14"/>
       <c r="H32" s="14" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="33">
@@ -1639,17 +1573,20 @@
       </c>
       <c r="B33" s="14"/>
       <c r="C33" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="D33" s="14" t="s">
+      <c r="E33" s="17" t="s">
         <v>79</v>
-      </c>
-      <c r="E33" s="17" t="s">
-        <v>80</v>
       </c>
       <c r="F33" s="14"/>
       <c r="G33" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
+      </c>
+      <c r="H33" t="s">
+        <v>202</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="34">
@@ -1666,8 +1603,8 @@
       <c r="G34" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="H34" s="14" t="s">
-        <v>201</v>
+      <c r="H34" t="s">
+        <v>202</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="35">
@@ -1677,14 +1614,17 @@
       <c r="B35" s="14"/>
       <c r="C35" s="15"/>
       <c r="D35" s="14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F35" s="14"/>
       <c r="G35" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
+      </c>
+      <c r="H35" t="s">
+        <v>202</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="36">
@@ -1694,15 +1634,18 @@
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
       <c r="D36" s="14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G36" s="14"/>
+      <c r="H36" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="37">
       <c r="A37" s="14" t="n">
@@ -1711,15 +1654,18 @@
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
       <c r="D37" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F37" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="E37" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="F37" s="14" t="s">
-        <v>88</v>
-      </c>
       <c r="G37" s="14"/>
+      <c r="H37" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="38">
       <c r="A38" s="14" t="n">
@@ -1727,18 +1673,18 @@
       </c>
       <c r="B38" s="14"/>
       <c r="C38" s="15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E38" s="14"/>
       <c r="F38" s="14"/>
       <c r="G38" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="H38" s="14" t="s">
-        <v>201</v>
+        <v>94</v>
+      </c>
+      <c r="H38" t="s">
+        <v>202</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="39">
@@ -1748,16 +1694,19 @@
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
       <c r="D39" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E39" s="17" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G39" s="14" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="H39" t="s">
+        <v>202</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="40">
@@ -1767,14 +1716,17 @@
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
       <c r="D40" s="14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F40" s="14"/>
       <c r="G40" s="14" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="H40" t="s">
+        <v>202</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="41">
@@ -1784,15 +1736,18 @@
       <c r="B41" s="14"/>
       <c r="C41" s="15"/>
       <c r="D41" s="14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G41" s="14"/>
+      <c r="H41" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="42">
       <c r="A42" s="14" t="n">
@@ -1801,13 +1756,16 @@
       <c r="B42" s="14"/>
       <c r="C42" s="15"/>
       <c r="D42" s="14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F42" s="14"/>
       <c r="G42" s="14"/>
+      <c r="H42" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="43">
       <c r="A43" s="14" t="n">
@@ -1815,7 +1773,7 @@
       </c>
       <c r="B43" s="14"/>
       <c r="C43" s="14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>9</v>
@@ -1825,10 +1783,10 @@
       </c>
       <c r="F43" s="9"/>
       <c r="G43" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="H43" s="14" t="s">
-        <v>201</v>
+        <v>102</v>
+      </c>
+      <c r="H43" t="s">
+        <v>202</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="44">
@@ -1838,17 +1796,17 @@
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
       <c r="D44" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>15</v>
       </c>
       <c r="F44" s="9"/>
       <c r="G44" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="H44" s="14" t="s">
-        <v>201</v>
+        <v>102</v>
+      </c>
+      <c r="H44" t="s">
+        <v>202</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="45">
@@ -1858,15 +1816,15 @@
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
       <c r="D45" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E45" s="8"/>
       <c r="F45" s="9"/>
       <c r="G45" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="H45" s="14" t="s">
-        <v>201</v>
+        <v>102</v>
+      </c>
+      <c r="H45" t="s">
+        <v>202</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="46">
@@ -1876,17 +1834,17 @@
       <c r="B46" s="14"/>
       <c r="C46" s="14"/>
       <c r="D46" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="F46" s="9"/>
       <c r="G46" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="H46" s="14" t="s">
-        <v>201</v>
+        <v>102</v>
+      </c>
+      <c r="H46" t="s">
+        <v>202</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="47">
@@ -1896,17 +1854,17 @@
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
       <c r="D47" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E47" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="F47" s="9"/>
       <c r="G47" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="H47" s="14" t="s">
-        <v>201</v>
+        <v>102</v>
+      </c>
+      <c r="H47" t="s">
+        <v>202</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="48">
@@ -1916,15 +1874,18 @@
       <c r="B48" s="14"/>
       <c r="C48" s="14"/>
       <c r="D48" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G48" s="10"/>
+      <c r="H48" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="49">
       <c r="A49" s="14" t="n">
@@ -1932,15 +1893,18 @@
       </c>
       <c r="B49" s="14"/>
       <c r="C49" s="14" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E49" s="14"/>
       <c r="F49" s="14"/>
       <c r="G49" s="14" t="s">
-        <v>107</v>
+        <v>108</v>
+      </c>
+      <c r="H49" t="s">
+        <v>202</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="50">
@@ -1949,17 +1913,20 @@
       </c>
       <c r="B50" s="14"/>
       <c r="C50" s="14" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F50" s="14"/>
       <c r="G50" s="14" t="s">
-        <v>107</v>
+        <v>108</v>
+      </c>
+      <c r="H50" t="s">
+        <v>202</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="51">
@@ -1969,17 +1936,17 @@
       <c r="B51" s="14"/>
       <c r="C51" s="14"/>
       <c r="D51" s="14" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E51" s="14" t="n">
         <v>78976567</v>
       </c>
       <c r="F51" s="14"/>
       <c r="G51" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="H51" s="14" t="s">
-        <v>201</v>
+        <v>113</v>
+      </c>
+      <c r="H51" t="s">
+        <v>202</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="52">
@@ -1989,15 +1956,18 @@
       <c r="B52" s="14"/>
       <c r="C52" s="14"/>
       <c r="D52" s="14" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E52" s="14" t="n">
         <v>678909765</v>
       </c>
       <c r="F52" s="14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G52" s="14"/>
+      <c r="H52" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="53">
       <c r="A53" s="14" t="n">
@@ -2006,14 +1976,17 @@
       <c r="B53" s="14"/>
       <c r="C53" s="14"/>
       <c r="D53" s="14" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E53" s="14" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F53" s="14"/>
       <c r="G53" s="14" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="H53" t="s">
+        <v>202</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="54">
@@ -2022,20 +1995,20 @@
       </c>
       <c r="B54" s="14"/>
       <c r="C54" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D54" s="14" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E54" s="17" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F54" s="14"/>
       <c r="G54" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="H54" s="14" t="s">
-        <v>201</v>
+        <v>113</v>
+      </c>
+      <c r="H54" t="s">
+        <v>202</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="55">
@@ -2045,15 +2018,15 @@
       <c r="B55" s="14"/>
       <c r="C55" s="14"/>
       <c r="D55" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E55" s="18"/>
       <c r="F55" s="14"/>
       <c r="G55" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="H55" s="14" t="s">
-        <v>201</v>
+        <v>113</v>
+      </c>
+      <c r="H55" t="s">
+        <v>202</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="56">
@@ -2063,17 +2036,17 @@
       <c r="B56" s="14"/>
       <c r="C56" s="14"/>
       <c r="D56" s="14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E56" s="17" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F56" s="14"/>
       <c r="G56" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="H56" s="14" t="s">
-        <v>201</v>
+        <v>113</v>
+      </c>
+      <c r="H56" t="s">
+        <v>202</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="57">
@@ -2083,15 +2056,18 @@
       <c r="B57" s="14"/>
       <c r="C57" s="14"/>
       <c r="D57" s="14" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E57" s="17" t="n">
         <v>789654</v>
       </c>
       <c r="F57" s="14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G57" s="14"/>
+      <c r="H57" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="79.85" outlineLevel="0" r="58">
       <c r="A58" s="14" t="n">
@@ -2099,20 +2075,20 @@
       </c>
       <c r="B58" s="14"/>
       <c r="C58" s="15" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D58" s="14" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E58" s="14" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F58" s="14"/>
       <c r="G58" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="H58" s="14" t="s">
-        <v>201</v>
+        <v>128</v>
+      </c>
+      <c r="H58" t="s">
+        <v>202</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="59">
@@ -2122,15 +2098,15 @@
       <c r="B59" s="14"/>
       <c r="C59" s="15"/>
       <c r="D59" s="15" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E59" s="14"/>
       <c r="F59" s="14"/>
       <c r="G59" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="H59" s="14" t="s">
-        <v>201</v>
+        <v>130</v>
+      </c>
+      <c r="H59" t="s">
+        <v>202</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="60">
@@ -2140,17 +2116,17 @@
       <c r="B60" s="14"/>
       <c r="C60" s="15"/>
       <c r="D60" s="15" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E60" s="14" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F60" s="14"/>
       <c r="G60" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="H60" s="14" t="s">
-        <v>201</v>
+        <v>133</v>
+      </c>
+      <c r="H60" t="s">
+        <v>202</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="61">
@@ -2160,17 +2136,17 @@
       <c r="B61" s="14"/>
       <c r="C61" s="14"/>
       <c r="D61" s="15" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E61" s="14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F61" s="14"/>
       <c r="G61" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="H61" s="14" t="s">
-        <v>201</v>
+        <v>133</v>
+      </c>
+      <c r="H61" t="s">
+        <v>202</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="62">
@@ -2180,17 +2156,17 @@
       <c r="B62" s="14"/>
       <c r="C62" s="15"/>
       <c r="D62" s="15" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E62" s="14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F62" s="14"/>
       <c r="G62" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="H62" s="14" t="s">
-        <v>201</v>
+        <v>133</v>
+      </c>
+      <c r="H62" t="s">
+        <v>202</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="63">
@@ -2200,15 +2176,15 @@
       <c r="B63" s="14"/>
       <c r="C63" s="15"/>
       <c r="D63" s="15" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E63" s="14" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F63" s="14"/>
       <c r="G63" s="14"/>
-      <c r="H63" s="14" t="s">
-        <v>201</v>
+      <c r="H63" t="s">
+        <v>202</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="64">
@@ -2216,21 +2192,21 @@
         <v>63</v>
       </c>
       <c r="B64" s="14" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D64" s="14" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E64" s="19"/>
       <c r="F64" s="14"/>
       <c r="G64" s="15" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H64" s="14" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="65">
@@ -2240,17 +2216,17 @@
       <c r="B65" s="14"/>
       <c r="C65" s="7"/>
       <c r="D65" s="14" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F65" s="14"/>
       <c r="G65" s="15" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H65" s="14" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="66">
@@ -2260,17 +2236,17 @@
       <c r="B66" s="14"/>
       <c r="C66" s="15"/>
       <c r="D66" s="14" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E66" s="14" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F66" s="14"/>
       <c r="G66" s="15" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H66" s="14" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="67">
@@ -2280,14 +2256,17 @@
       <c r="B67" s="14"/>
       <c r="C67" s="15"/>
       <c r="D67" s="15" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E67" s="14" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F67" s="14"/>
       <c r="G67" s="15" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="H67" t="s">
+        <v>204</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="68">
@@ -2295,17 +2274,17 @@
         <v>67</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D68" s="14"/>
       <c r="E68" s="14"/>
       <c r="F68" s="14"/>
       <c r="G68" s="15"/>
       <c r="H68" s="14" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="69">
@@ -2314,20 +2293,17 @@
       </c>
       <c r="B69" s="15"/>
       <c r="C69" s="15" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D69" s="14" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E69" s="14" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F69" s="14"/>
       <c r="G69" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="H69" t="s">
-        <v>202</v>
+        <v>156</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="70">
@@ -2337,17 +2313,14 @@
       <c r="B70" s="15"/>
       <c r="C70" s="15"/>
       <c r="D70" s="14" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E70" s="14" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F70" s="14"/>
       <c r="G70" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="H70" t="s">
-        <v>202</v>
+        <v>159</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="71">
@@ -2356,22 +2329,19 @@
       </c>
       <c r="B71" s="15"/>
       <c r="C71" s="15" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D71" s="14" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E71" s="14" t="n">
         <v>0</v>
       </c>
       <c r="F71" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G71" s="14" t="s">
         <v>65</v>
-      </c>
-      <c r="G71" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="H71" t="s">
-        <v>202</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="72">
@@ -2381,19 +2351,16 @@
       <c r="B72" s="15"/>
       <c r="C72" s="15"/>
       <c r="D72" s="15" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E72" s="14" t="n">
         <v>2</v>
       </c>
       <c r="F72" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G72" s="14" t="n">
         <v>2</v>
-      </c>
-      <c r="H72" t="s">
-        <v>202</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="73">
@@ -2402,18 +2369,15 @@
       </c>
       <c r="B73" s="15"/>
       <c r="C73" s="15" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D73" s="15" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E73" s="14"/>
       <c r="F73" s="14"/>
       <c r="G73" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="H73" t="s">
-        <v>203</v>
+        <v>165</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="74">
@@ -2421,23 +2385,20 @@
         <v>73</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D74" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E74" s="14" t="s">
         <v>33</v>
-      </c>
-      <c r="E74" s="14" t="s">
-        <v>34</v>
       </c>
       <c r="F74" s="14"/>
       <c r="G74" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="H74" t="s">
-        <v>202</v>
+        <v>33</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="75">
@@ -2447,15 +2408,12 @@
       <c r="B75" s="14"/>
       <c r="C75" s="14"/>
       <c r="D75" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E75" s="14"/>
       <c r="F75" s="14"/>
       <c r="G75" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="H75" t="s">
-        <v>202</v>
+        <v>168</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="76">
@@ -2465,17 +2423,14 @@
       <c r="B76" s="14"/>
       <c r="C76" s="14"/>
       <c r="D76" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E76" s="14" t="s">
         <v>37</v>
-      </c>
-      <c r="E76" s="14" t="s">
-        <v>38</v>
       </c>
       <c r="F76" s="14"/>
       <c r="G76" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="H76" t="s">
-        <v>202</v>
+        <v>33</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="77">
@@ -2485,14 +2440,14 @@
       <c r="B77" s="14"/>
       <c r="C77" s="14"/>
       <c r="D77" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E77" s="14" t="s">
         <v>39</v>
-      </c>
-      <c r="E77" s="14" t="s">
-        <v>40</v>
       </c>
       <c r="F77" s="14"/>
       <c r="G77" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="78">
@@ -2502,14 +2457,14 @@
       <c r="B78" s="14"/>
       <c r="C78" s="14"/>
       <c r="D78" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E78" s="14" t="s">
         <v>41</v>
-      </c>
-      <c r="E78" s="14" t="s">
-        <v>42</v>
       </c>
       <c r="F78" s="14"/>
       <c r="G78" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="79">
@@ -2519,14 +2474,14 @@
       <c r="B79" s="14"/>
       <c r="C79" s="14"/>
       <c r="D79" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E79" s="14" t="s">
         <v>43</v>
-      </c>
-      <c r="E79" s="14" t="s">
-        <v>44</v>
       </c>
       <c r="F79" s="14"/>
       <c r="G79" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="80">
@@ -2536,14 +2491,14 @@
       <c r="B80" s="14"/>
       <c r="C80" s="14"/>
       <c r="D80" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E80" s="14" t="s">
         <v>45</v>
-      </c>
-      <c r="E80" s="14" t="s">
-        <v>46</v>
       </c>
       <c r="F80" s="14"/>
       <c r="G80" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="81">
@@ -2551,17 +2506,17 @@
         <v>80</v>
       </c>
       <c r="B81" s="14" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C81" s="15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D81" s="14"/>
       <c r="E81" s="14"/>
       <c r="F81" s="14"/>
       <c r="G81" s="14"/>
       <c r="H81" s="14" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="82">
@@ -2570,15 +2525,15 @@
       </c>
       <c r="B82" s="14"/>
       <c r="C82" s="14" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E82" s="14"/>
       <c r="F82" s="14"/>
       <c r="G82" s="14" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="83">
@@ -2588,14 +2543,14 @@
       <c r="B83" s="14"/>
       <c r="C83" s="14"/>
       <c r="D83" s="14" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E83" s="14" t="n">
         <v>1</v>
       </c>
       <c r="F83" s="14"/>
       <c r="G83" s="14" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="84">
@@ -2610,7 +2565,7 @@
       </c>
       <c r="F84" s="14"/>
       <c r="G84" s="14" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="85">
@@ -2625,7 +2580,7 @@
       </c>
       <c r="F85" s="14"/>
       <c r="G85" s="14" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="86">
@@ -2640,7 +2595,7 @@
       </c>
       <c r="F86" s="14"/>
       <c r="G86" s="14" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="87">
@@ -2655,7 +2610,7 @@
       </c>
       <c r="F87" s="14"/>
       <c r="G87" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="88">
@@ -2664,15 +2619,15 @@
       </c>
       <c r="B88" s="14"/>
       <c r="C88" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D88" s="14" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E88" s="14"/>
       <c r="F88" s="14"/>
       <c r="G88" s="14" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="89">
@@ -2682,14 +2637,14 @@
       <c r="B89" s="14"/>
       <c r="C89" s="14"/>
       <c r="D89" s="14" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E89" s="14" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F89" s="14"/>
       <c r="G89" s="14" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="90">
@@ -2698,15 +2653,15 @@
       </c>
       <c r="B90" s="14"/>
       <c r="C90" s="14" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D90" s="14" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E90" s="14"/>
       <c r="F90" s="14"/>
       <c r="G90" s="14" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="91">
@@ -2716,14 +2671,14 @@
       <c r="B91" s="14"/>
       <c r="C91" s="14"/>
       <c r="D91" s="14" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E91" s="14" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F91" s="14"/>
       <c r="G91" s="14" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="91" outlineLevel="0" r="92">
@@ -2733,14 +2688,14 @@
       <c r="B92" s="14"/>
       <c r="C92" s="14"/>
       <c r="D92" s="14" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E92" s="15" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F92" s="14"/>
       <c r="G92" s="15" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="93">
@@ -2749,15 +2704,15 @@
       </c>
       <c r="B93" s="14"/>
       <c r="C93" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D93" s="14" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E93" s="14"/>
       <c r="F93" s="14"/>
       <c r="G93" s="14" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="57.45" outlineLevel="0" r="94">
@@ -2767,16 +2722,19 @@
       <c r="B94" s="14"/>
       <c r="C94" s="14"/>
       <c r="D94" s="14" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E94" s="15" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F94" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="G94" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="G94" s="15" t="s">
-        <v>196</v>
+      <c r="H94" s="0" t="s">
+        <v>84</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="95">
@@ -2786,14 +2744,17 @@
       <c r="B95" s="14"/>
       <c r="C95" s="14"/>
       <c r="D95" s="15" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E95" s="15" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F95" s="14"/>
       <c r="G95" s="14" t="s">
-        <v>200</v>
+        <v>201</v>
+      </c>
+      <c r="H95" s="0" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2804,6 +2765,8 @@
     <hyperlink display="bipbipbip@gmail.com" r:id="rId1" ref="E7"/>
     <hyperlink display="bipbipbip@gmail.com" r:id="rId2" ref="E8"/>
     <hyperlink display="bipbipbip112@gmail.com" r:id="rId3" ref="E9"/>
+    <hyperlink display="bipbipbip16@gmail" r:id="rId4" ref="E48"/>
+    <hyperlink display="bipbipbip16@gmail" r:id="rId5" ref="E65"/>
   </hyperlinks>
   <printOptions gridLines="false" gridLinesSet="true" headings="false" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" date1904="false" showObjects="all"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="500" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId2" sheetId="1" state="visible"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr iterate="false" iterateCount="100" iterateDelta="0.001" refMode="A1"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="200">
   <si>
     <t xml:space="preserve">No</t>
   </si>
@@ -265,18 +265,12 @@
     <t xml:space="preserve">Vui lòng điền họ không bao gồm số, ký tự đặc biệt</t>
   </si>
   <si>
-    <t xml:space="preserve">Failed</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bỏ trống trường họ </t>
   </si>
   <si>
     <t xml:space="preserve">Vui lòng nhập họ của bạn</t>
   </si>
   <si>
-    <t xml:space="preserve">Pass</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nhập họ gồm ký tự đặc biệt</t>
   </si>
   <si>
@@ -334,7 +328,7 @@
     <t xml:space="preserve">Nhập email đúng định dạng</t>
   </si>
   <si>
-    <t xml:space="preserve">bipbipbip16@gmail.com</t>
+    <t xml:space="preserve">bipbipbip20@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">Không</t>
@@ -626,15 +620,6 @@
   </si>
   <si>
     <t xml:space="preserve">Cảm ơn bạn đã đánh giá</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Failed</t>
-  </si>
-  <si>
-    <t>Pass</t>
   </si>
 </sst>
 </file>
@@ -749,28 +734,28 @@
     </fill>
   </fills>
   <borders count="4">
-    <border diagonalDown="false" diagonalUp="false">
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border diagonalUp="false" diagonalDown="false">
       <left style="dotted"/>
       <right style="dotted"/>
       <top/>
@@ -779,119 +764,119 @@
     </border>
   </borders>
   <cellStyleXfs count="20">
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="20">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="2" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="2" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="2" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="3" fillId="2" fontId="6" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="3" fontId="7" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="3" fontId="7" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="7" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="8" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="3" fontId="7" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="3" fontId="7" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="3" fontId="9" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="3" fontId="10" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="3" fontId="8" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="166" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="166" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="11" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" name="Comma" xfId="15"/>
-    <cellStyle builtinId="6" name="Comma [0]" xfId="16"/>
-    <cellStyle builtinId="4" name="Currency" xfId="17"/>
-    <cellStyle builtinId="7" name="Currency [0]" xfId="18"/>
-    <cellStyle builtinId="5" name="Percent" xfId="19"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -957,28 +942,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I95"/>
+  <dimension ref="A1:H95"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="B34" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="E65" activeCellId="0" pane="topLeft" sqref="E65"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H94" activeCellId="0" sqref="H94:H96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.8671875" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="false"/>
+  <sheetFormatPr defaultColWidth="13.88671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="4.44" collapsed="true" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="26.13" collapsed="true" outlineLevel="0"/>
-    <col min="3" max="3" customWidth="true" hidden="false" style="0" width="36.54" collapsed="true" outlineLevel="0"/>
-    <col min="4" max="4" customWidth="true" hidden="false" style="0" width="49.46" collapsed="true" outlineLevel="0"/>
-    <col min="5" max="5" customWidth="true" hidden="false" style="0" width="28.34" collapsed="true" outlineLevel="0"/>
-    <col min="6" max="6" customWidth="true" hidden="false" style="0" width="21.26" collapsed="true" outlineLevel="0"/>
-    <col min="7" max="7" customWidth="true" hidden="false" style="0" width="51.82" collapsed="true" outlineLevel="0"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="36.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="49.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="28.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="21.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="51.82"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.85" outlineLevel="0" r="1">
+    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1004,7 +989,7 @@
         <v>6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="2">
+    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="n">
         <v>1</v>
       </c>
@@ -1027,7 +1012,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="3">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="n">
         <v>2</v>
       </c>
@@ -1046,7 +1031,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="n">
         <v>3</v>
       </c>
@@ -1063,7 +1048,7 @@
         <v>16</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="5">
+    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="n">
         <v>4</v>
       </c>
@@ -1082,7 +1067,7 @@
         <v>19</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="6">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="n">
         <v>5</v>
       </c>
@@ -1101,7 +1086,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="7">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="n">
         <v>6</v>
       </c>
@@ -1120,7 +1105,7 @@
         <v>19</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="8">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="n">
         <v>7</v>
       </c>
@@ -1137,7 +1122,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32.05" outlineLevel="0" r="9">
+    <row r="9" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="n">
         <v>8</v>
       </c>
@@ -1156,7 +1141,7 @@
         <v>29</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="10">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="n">
         <v>9</v>
       </c>
@@ -1177,7 +1162,7 @@
         <v>33</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="11">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="n">
         <v>10</v>
       </c>
@@ -1192,7 +1177,7 @@
         <v>35</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="12">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="n">
         <v>11</v>
       </c>
@@ -1209,7 +1194,7 @@
         <v>33</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="13">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="n">
         <v>12</v>
       </c>
@@ -1226,7 +1211,7 @@
         <v>33</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="14">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="n">
         <v>13</v>
       </c>
@@ -1243,7 +1228,7 @@
         <v>33</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="15">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="n">
         <v>14</v>
       </c>
@@ -1260,7 +1245,7 @@
         <v>33</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="16">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="n">
         <v>15</v>
       </c>
@@ -1277,7 +1262,7 @@
         <v>46</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="17">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="14" t="n">
         <v>16</v>
       </c>
@@ -1287,11 +1272,9 @@
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
-      <c r="H17" s="14" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="18">
+      <c r="H17" s="14"/>
+    </row>
+    <row r="18" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="14" t="n">
         <v>17</v>
       </c>
@@ -1314,7 +1297,7 @@
         <v>52</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="19">
+    <row r="19" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="14" t="n">
         <v>18</v>
       </c>
@@ -1333,7 +1316,7 @@
         <v>55</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="20">
+    <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="14" t="n">
         <v>19</v>
       </c>
@@ -1352,7 +1335,7 @@
         <v>59</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="21">
+    <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="14" t="n">
         <v>20</v>
       </c>
@@ -1371,7 +1354,7 @@
         <v>55</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="22">
+    <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="14" t="n">
         <v>21</v>
       </c>
@@ -1383,11 +1366,9 @@
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
-      <c r="H22" s="14" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="23">
+      <c r="H22" s="14"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="14" t="n">
         <v>22</v>
       </c>
@@ -1406,7 +1387,7 @@
         <v>65</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="24">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="14" t="n">
         <v>23</v>
       </c>
@@ -1425,7 +1406,7 @@
         <v>2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="25">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="14" t="n">
         <v>24</v>
       </c>
@@ -1444,7 +1425,7 @@
         <v>65</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="26">
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="14" t="n">
         <v>25</v>
       </c>
@@ -1463,7 +1444,7 @@
         <v>2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="27">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="14" t="n">
         <v>26</v>
       </c>
@@ -1480,7 +1461,7 @@
         <v>65</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="28">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="14" t="n">
         <v>27</v>
       </c>
@@ -1497,7 +1478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="29">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="14" t="n">
         <v>28</v>
       </c>
@@ -1507,11 +1488,9 @@
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
       <c r="G29" s="14"/>
-      <c r="H29" s="14" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="30">
+      <c r="H29" s="14"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="14" t="n">
         <v>29</v>
       </c>
@@ -1530,7 +1509,7 @@
         <v>72</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="31">
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="14" t="n">
         <v>30</v>
       </c>
@@ -1549,7 +1528,7 @@
         <v>74</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="32">
+    <row r="32" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="14" t="n">
         <v>31</v>
       </c>
@@ -1563,11 +1542,9 @@
       <c r="E32" s="14"/>
       <c r="F32" s="14"/>
       <c r="G32" s="14"/>
-      <c r="H32" s="14" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="33">
+      <c r="H32" s="14"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="14" t="n">
         <v>32</v>
       </c>
@@ -1585,109 +1562,91 @@
       <c r="G33" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="H33" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="34">
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="14" t="n">
         <v>33</v>
       </c>
       <c r="B34" s="14"/>
       <c r="C34" s="15"/>
       <c r="D34" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E34" s="14"/>
       <c r="F34" s="14"/>
       <c r="G34" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="H34" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="35">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="14" t="n">
         <v>34</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="15"/>
       <c r="D35" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F35" s="14"/>
       <c r="G35" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="H35" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="36">
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="14" t="n">
         <v>35</v>
       </c>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
       <c r="D36" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="F36" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="E36" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="F36" s="14" t="s">
-        <v>89</v>
-      </c>
       <c r="G36" s="14"/>
-      <c r="H36" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="37">
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="14" t="n">
         <v>36</v>
       </c>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
       <c r="D37" s="14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G37" s="14"/>
-      <c r="H37" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="38">
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="14" t="n">
         <v>37</v>
       </c>
       <c r="B38" s="14"/>
       <c r="C38" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E38" s="14"/>
       <c r="F38" s="14"/>
       <c r="G38" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="H38" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="39">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="14" t="n">
         <v>38</v>
       </c>
@@ -1697,83 +1656,71 @@
         <v>78</v>
       </c>
       <c r="E39" s="17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G39" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="H39" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="40">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="14" t="n">
         <v>39</v>
       </c>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
       <c r="D40" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F40" s="14"/>
       <c r="G40" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="H40" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="41">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="14" t="n">
         <v>40</v>
       </c>
       <c r="B41" s="14"/>
       <c r="C41" s="15"/>
       <c r="D41" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="F41" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="E41" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="F41" s="14" t="s">
-        <v>89</v>
-      </c>
       <c r="G41" s="14"/>
-      <c r="H41" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="42">
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="14" t="n">
         <v>41</v>
       </c>
       <c r="B42" s="14"/>
       <c r="C42" s="15"/>
       <c r="D42" s="14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F42" s="14"/>
       <c r="G42" s="14"/>
-      <c r="H42" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="43">
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="14" t="n">
         <v>42</v>
       </c>
       <c r="B43" s="14"/>
       <c r="C43" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>9</v>
@@ -1783,13 +1730,10 @@
       </c>
       <c r="F43" s="9"/>
       <c r="G43" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="H43" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="44">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="14" t="n">
         <v>43</v>
       </c>
@@ -1803,13 +1747,10 @@
       </c>
       <c r="F44" s="9"/>
       <c r="G44" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="H44" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="14" t="n">
         <v>44</v>
       </c>
@@ -1821,13 +1762,10 @@
       <c r="E45" s="8"/>
       <c r="F45" s="9"/>
       <c r="G45" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="H45" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="46">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="14" t="n">
         <v>45</v>
       </c>
@@ -1841,13 +1779,10 @@
       </c>
       <c r="F46" s="9"/>
       <c r="G46" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="H46" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="47">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="14" t="n">
         <v>46</v>
       </c>
@@ -1861,478 +1796,416 @@
       </c>
       <c r="F47" s="9"/>
       <c r="G47" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="H47" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="48">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="14" t="n">
         <v>47</v>
       </c>
       <c r="B48" s="14"/>
       <c r="C48" s="14"/>
       <c r="D48" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F48" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="E48" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="F48" s="9" t="s">
-        <v>105</v>
-      </c>
       <c r="G48" s="10"/>
-      <c r="H48" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="49">
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="14" t="n">
         <v>48</v>
       </c>
       <c r="B49" s="14"/>
       <c r="C49" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E49" s="14"/>
       <c r="F49" s="14"/>
       <c r="G49" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="H49" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="50">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="14" t="n">
         <v>49</v>
       </c>
       <c r="B50" s="14"/>
       <c r="C50" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="D50" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="E50" s="14" t="s">
         <v>109</v>
-      </c>
-      <c r="D50" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="E50" s="14" t="s">
-        <v>111</v>
       </c>
       <c r="F50" s="14"/>
       <c r="G50" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="H50" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="51">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="14" t="n">
         <v>50</v>
       </c>
       <c r="B51" s="14"/>
       <c r="C51" s="14"/>
       <c r="D51" s="14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E51" s="14" t="n">
         <v>78976567</v>
       </c>
       <c r="F51" s="14"/>
       <c r="G51" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="H51" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="52">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="14" t="n">
         <v>51</v>
       </c>
       <c r="B52" s="14"/>
       <c r="C52" s="14"/>
       <c r="D52" s="14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E52" s="14" t="n">
         <v>678909765</v>
       </c>
       <c r="F52" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G52" s="14"/>
-      <c r="H52" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="53">
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="14" t="n">
         <v>52</v>
       </c>
       <c r="B53" s="14"/>
       <c r="C53" s="14"/>
       <c r="D53" s="14" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E53" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F53" s="14"/>
       <c r="G53" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="H53" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="54">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="14" t="n">
         <v>53</v>
       </c>
       <c r="B54" s="14"/>
       <c r="C54" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D54" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="E54" s="17" t="s">
         <v>118</v>
-      </c>
-      <c r="D54" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="E54" s="17" t="s">
-        <v>120</v>
       </c>
       <c r="F54" s="14"/>
       <c r="G54" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="H54" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="55">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="14" t="n">
         <v>54</v>
       </c>
       <c r="B55" s="14"/>
       <c r="C55" s="14"/>
       <c r="D55" s="14" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E55" s="18"/>
       <c r="F55" s="14"/>
       <c r="G55" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="H55" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="56">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="14" t="n">
         <v>55</v>
       </c>
       <c r="B56" s="14"/>
       <c r="C56" s="14"/>
       <c r="D56" s="14" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E56" s="17" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F56" s="14"/>
       <c r="G56" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="H56" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="57">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="14" t="n">
         <v>56</v>
       </c>
       <c r="B57" s="14"/>
       <c r="C57" s="14"/>
       <c r="D57" s="14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E57" s="17" t="n">
         <v>789654</v>
       </c>
       <c r="F57" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G57" s="14"/>
-      <c r="H57" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="79.85" outlineLevel="0" r="58">
+    </row>
+    <row r="58" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="14" t="n">
         <v>57</v>
       </c>
       <c r="B58" s="14"/>
       <c r="C58" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="D58" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="E58" s="14" t="s">
         <v>125</v>
-      </c>
-      <c r="D58" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="E58" s="14" t="s">
-        <v>127</v>
       </c>
       <c r="F58" s="14"/>
       <c r="G58" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="H58" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="59">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="14" t="n">
         <v>58</v>
       </c>
       <c r="B59" s="14"/>
       <c r="C59" s="15"/>
       <c r="D59" s="15" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E59" s="14"/>
       <c r="F59" s="14"/>
       <c r="G59" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="H59" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="60">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="14" t="n">
         <v>59</v>
       </c>
       <c r="B60" s="14"/>
       <c r="C60" s="15"/>
       <c r="D60" s="15" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E60" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F60" s="14"/>
       <c r="G60" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="H60" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="61">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="14" t="n">
         <v>60</v>
       </c>
       <c r="B61" s="14"/>
       <c r="C61" s="14"/>
       <c r="D61" s="15" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E61" s="14" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F61" s="14"/>
       <c r="G61" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="H61" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="62">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="14" t="n">
         <v>61</v>
       </c>
       <c r="B62" s="14"/>
       <c r="C62" s="15"/>
       <c r="D62" s="15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E62" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F62" s="14"/>
       <c r="G62" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="H62" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="63">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="14" t="n">
         <v>62</v>
       </c>
       <c r="B63" s="14"/>
       <c r="C63" s="15"/>
       <c r="D63" s="15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E63" s="14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F63" s="14"/>
       <c r="G63" s="14"/>
-      <c r="H63" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="64">
+    </row>
+    <row r="64" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="14" t="n">
         <v>63</v>
       </c>
       <c r="B64" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="C64" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="D64" s="14" t="s">
         <v>140</v>
-      </c>
-      <c r="C64" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="D64" s="14" t="s">
-        <v>142</v>
       </c>
       <c r="E64" s="19"/>
       <c r="F64" s="14"/>
       <c r="G64" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="H64" s="14" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="65">
+        <v>141</v>
+      </c>
+      <c r="H64" s="14"/>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="14" t="n">
         <v>64</v>
       </c>
       <c r="B65" s="14"/>
       <c r="C65" s="7"/>
       <c r="D65" s="14" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F65" s="14"/>
       <c r="G65" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="H65" s="14" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="66">
+        <v>143</v>
+      </c>
+      <c r="H65" s="14"/>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="14" t="n">
         <v>65</v>
       </c>
       <c r="B66" s="14"/>
       <c r="C66" s="15"/>
       <c r="D66" s="14" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E66" s="14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F66" s="14"/>
       <c r="G66" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="H66" s="14" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="67">
+        <v>146</v>
+      </c>
+      <c r="H66" s="14"/>
+    </row>
+    <row r="67" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="14" t="n">
         <v>66</v>
       </c>
       <c r="B67" s="14"/>
       <c r="C67" s="15"/>
       <c r="D67" s="15" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E67" s="14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F67" s="14"/>
       <c r="G67" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="H67" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="68">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="14" t="n">
         <v>67</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D68" s="14"/>
       <c r="E68" s="14"/>
       <c r="F68" s="14"/>
       <c r="G68" s="15"/>
-      <c r="H68" s="14" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="69">
+      <c r="H68" s="14"/>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="14" t="n">
         <v>68</v>
       </c>
       <c r="B69" s="15"/>
       <c r="C69" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="D69" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="E69" s="14" t="s">
         <v>153</v>
-      </c>
-      <c r="D69" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="E69" s="14" t="s">
-        <v>155</v>
       </c>
       <c r="F69" s="14"/>
       <c r="G69" s="15" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="70">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="14" t="n">
         <v>69</v>
       </c>
       <c r="B70" s="15"/>
       <c r="C70" s="15"/>
       <c r="D70" s="14" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E70" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F70" s="14"/>
       <c r="G70" s="15" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="71">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="14" t="n">
         <v>70</v>
       </c>
       <c r="B71" s="15"/>
       <c r="C71" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D71" s="14" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E71" s="14" t="n">
         <v>0</v>
@@ -2344,14 +2217,14 @@
         <v>65</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="72">
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="14" t="n">
         <v>71</v>
       </c>
       <c r="B72" s="15"/>
       <c r="C72" s="15"/>
       <c r="D72" s="15" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E72" s="14" t="n">
         <v>2</v>
@@ -2363,32 +2236,32 @@
         <v>2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="73">
+    <row r="73" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="14" t="n">
         <v>72</v>
       </c>
       <c r="B73" s="15"/>
       <c r="C73" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D73" s="15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E73" s="14"/>
       <c r="F73" s="14"/>
       <c r="G73" s="15" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="74">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="14" t="n">
         <v>73</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D74" s="14" t="s">
         <v>32</v>
@@ -2401,7 +2274,7 @@
         <v>33</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="75">
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="14" t="n">
         <v>74</v>
       </c>
@@ -2413,10 +2286,10 @@
       <c r="E75" s="14"/>
       <c r="F75" s="14"/>
       <c r="G75" s="14" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="76">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="14" t="n">
         <v>75</v>
       </c>
@@ -2433,7 +2306,7 @@
         <v>33</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="77">
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="14" t="n">
         <v>76</v>
       </c>
@@ -2450,7 +2323,7 @@
         <v>33</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="78">
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="14" t="n">
         <v>77</v>
       </c>
@@ -2467,7 +2340,7 @@
         <v>33</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="79">
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="14" t="n">
         <v>78</v>
       </c>
@@ -2484,7 +2357,7 @@
         <v>33</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="80">
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="14" t="n">
         <v>79</v>
       </c>
@@ -2501,59 +2374,57 @@
         <v>46</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="81">
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="14" t="n">
         <v>80</v>
       </c>
       <c r="B81" s="14" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C81" s="15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D81" s="14"/>
       <c r="E81" s="14"/>
       <c r="F81" s="14"/>
       <c r="G81" s="14"/>
-      <c r="H81" s="14" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="82">
+      <c r="H81" s="14"/>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="14" t="n">
         <v>81</v>
       </c>
       <c r="B82" s="14"/>
       <c r="C82" s="14" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E82" s="14"/>
       <c r="F82" s="14"/>
       <c r="G82" s="14" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="83">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="14" t="n">
         <v>82</v>
       </c>
       <c r="B83" s="14"/>
       <c r="C83" s="14"/>
       <c r="D83" s="14" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E83" s="14" t="n">
         <v>1</v>
       </c>
       <c r="F83" s="14"/>
       <c r="G83" s="14" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="84">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="14" t="n">
         <v>83</v>
       </c>
@@ -2565,10 +2436,10 @@
       </c>
       <c r="F84" s="14"/>
       <c r="G84" s="14" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="85">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="14" t="n">
         <v>84</v>
       </c>
@@ -2580,10 +2451,10 @@
       </c>
       <c r="F85" s="14"/>
       <c r="G85" s="14" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="86">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="14" t="n">
         <v>85</v>
       </c>
@@ -2595,10 +2466,10 @@
       </c>
       <c r="F86" s="14"/>
       <c r="G86" s="14" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="87">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="14" t="n">
         <v>86</v>
       </c>
@@ -2610,151 +2481,145 @@
       </c>
       <c r="F87" s="14"/>
       <c r="G87" s="14" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="88">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="14" t="n">
         <v>87</v>
       </c>
       <c r="B88" s="14"/>
       <c r="C88" s="14" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D88" s="14" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E88" s="14"/>
       <c r="F88" s="14"/>
       <c r="G88" s="14" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="89">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="14" t="n">
         <v>88</v>
       </c>
       <c r="B89" s="14"/>
       <c r="C89" s="14"/>
       <c r="D89" s="14" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E89" s="14" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F89" s="14"/>
       <c r="G89" s="14" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="90">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="14" t="n">
         <v>89</v>
       </c>
       <c r="B90" s="14"/>
       <c r="C90" s="14" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D90" s="14" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E90" s="14"/>
       <c r="F90" s="14"/>
       <c r="G90" s="14" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="91">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="14" t="n">
         <v>90</v>
       </c>
       <c r="B91" s="14"/>
       <c r="C91" s="14"/>
       <c r="D91" s="14" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E91" s="14" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F91" s="14"/>
       <c r="G91" s="14" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="91" outlineLevel="0" r="92">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="14" t="n">
         <v>91</v>
       </c>
       <c r="B92" s="14"/>
       <c r="C92" s="14"/>
       <c r="D92" s="14" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E92" s="15" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F92" s="14"/>
       <c r="G92" s="15" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="93">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="14" t="n">
         <v>92</v>
       </c>
       <c r="B93" s="14"/>
       <c r="C93" s="14" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D93" s="14" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E93" s="14"/>
       <c r="F93" s="14"/>
       <c r="G93" s="14" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="57.45" outlineLevel="0" r="94">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="14" t="n">
         <v>93</v>
       </c>
       <c r="B94" s="14"/>
       <c r="C94" s="14"/>
       <c r="D94" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="E94" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="F94" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="E94" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="F94" s="14" t="s">
-        <v>198</v>
-      </c>
       <c r="G94" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="H94" s="0" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="95">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="14" t="n">
         <v>94</v>
       </c>
       <c r="B95" s="14"/>
       <c r="C95" s="14"/>
       <c r="D95" s="15" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E95" s="15" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F95" s="14"/>
       <c r="G95" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="H95" s="0" t="s">
-        <v>84</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -2762,15 +2627,14 @@
     <mergeCell ref="E1:F1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink display="bipbipbip@gmail.com" r:id="rId1" ref="E7"/>
-    <hyperlink display="bipbipbip@gmail.com" r:id="rId2" ref="E8"/>
-    <hyperlink display="bipbipbip112@gmail.com" r:id="rId3" ref="E9"/>
-    <hyperlink display="bipbipbip16@gmail" r:id="rId4" ref="E48"/>
-    <hyperlink display="bipbipbip16@gmail" r:id="rId5" ref="E65"/>
+    <hyperlink ref="E7" r:id="rId1" display="bipbipbip@gmail.com"/>
+    <hyperlink ref="E8" r:id="rId2" display="bipbipbip@gmail.com"/>
+    <hyperlink ref="E9" r:id="rId3" display="bipbipbip112@gmail.com"/>
+    <hyperlink ref="E48" r:id="rId4" display="bipbipbip20@gmail"/>
   </hyperlinks>
-  <printOptions gridLines="false" gridLinesSet="true" headings="false" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="true" verticalDpi="300"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Chuẩn"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Chuẩn"&amp;12Page &amp;P</oddFooter>

--- a/test.xlsx
+++ b/test.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookPr backupFile="false" date1904="false" showObjects="all"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="500" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" r:id="rId2" sheetId="1" state="visible"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr iterate="false" iterateCount="100" iterateDelta="0.001" refMode="A1"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="202">
   <si>
     <t xml:space="preserve">No</t>
   </si>
@@ -620,6 +620,12 @@
   </si>
   <si>
     <t xml:space="preserve">Cảm ơn bạn đã đánh giá</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Pass</t>
   </si>
 </sst>
 </file>
@@ -734,28 +740,28 @@
     </fill>
   </fills>
   <borders count="4">
-    <border diagonalUp="false" diagonalDown="false">
+    <border diagonalDown="false" diagonalUp="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border diagonalDown="false" diagonalUp="false">
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border diagonalDown="false" diagonalUp="false">
       <left/>
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border diagonalDown="false" diagonalUp="false">
       <left style="dotted"/>
       <right style="dotted"/>
       <top/>
@@ -764,119 +770,119 @@
     </border>
   </borders>
   <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
   <cellXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="2" fontId="4" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="2" fontId="5" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="2" fontId="5" numFmtId="164" xfId="0">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="3" fillId="2" fontId="6" numFmtId="164" xfId="0">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="3" fontId="7" numFmtId="164" xfId="0">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="3" fontId="7" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="7" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="8" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="3" fontId="7" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="3" fontId="7" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="3" fontId="9" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="3" fontId="10" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="3" fontId="8" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="165" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="11" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="3" name="Comma" xfId="15"/>
+    <cellStyle builtinId="6" name="Comma [0]" xfId="16"/>
+    <cellStyle builtinId="4" name="Currency" xfId="17"/>
+    <cellStyle builtinId="7" name="Currency [0]" xfId="18"/>
+    <cellStyle builtinId="5" name="Percent" xfId="19"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -942,28 +948,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H95"/>
+  <dimension ref="A1:I95"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H94" activeCellId="0" sqref="H94:H96"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="B2" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="H94" activeCellId="0" pane="topLeft" sqref="H94:H96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.88671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.88671875" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="false"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="36.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="49.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="28.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="21.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="51.82"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="4.44" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="26.13" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="3" customWidth="true" hidden="false" style="0" width="36.54" collapsed="true" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="true" hidden="false" style="0" width="49.46" collapsed="true" outlineLevel="0"/>
+    <col min="5" max="5" customWidth="true" hidden="false" style="0" width="28.34" collapsed="true" outlineLevel="0"/>
+    <col min="6" max="6" customWidth="true" hidden="false" style="0" width="21.26" collapsed="true" outlineLevel="0"/>
+    <col min="7" max="7" customWidth="true" hidden="false" style="0" width="51.82" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.85" outlineLevel="0" r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -989,7 +995,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="2">
       <c r="A2" s="5" t="n">
         <v>1</v>
       </c>
@@ -1012,7 +1018,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="3">
       <c r="A3" s="5" t="n">
         <v>2</v>
       </c>
@@ -1031,7 +1037,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4">
       <c r="A4" s="5" t="n">
         <v>3</v>
       </c>
@@ -1048,7 +1054,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="5">
       <c r="A5" s="5" t="n">
         <v>4</v>
       </c>
@@ -1067,7 +1073,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="6">
       <c r="A6" s="5" t="n">
         <v>5</v>
       </c>
@@ -1086,7 +1092,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="7">
       <c r="A7" s="5" t="n">
         <v>6</v>
       </c>
@@ -1105,7 +1111,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="8">
       <c r="A8" s="5" t="n">
         <v>7</v>
       </c>
@@ -1122,7 +1128,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32.05" outlineLevel="0" r="9">
       <c r="A9" s="5" t="n">
         <v>8</v>
       </c>
@@ -1141,7 +1147,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="10">
       <c r="A10" s="5" t="n">
         <v>9</v>
       </c>
@@ -1162,7 +1168,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="11">
       <c r="A11" s="5" t="n">
         <v>10</v>
       </c>
@@ -1177,7 +1183,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="12">
       <c r="A12" s="5" t="n">
         <v>11</v>
       </c>
@@ -1194,7 +1200,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="13">
       <c r="A13" s="5" t="n">
         <v>12</v>
       </c>
@@ -1211,7 +1217,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="14">
       <c r="A14" s="5" t="n">
         <v>13</v>
       </c>
@@ -1228,7 +1234,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="15">
       <c r="A15" s="5" t="n">
         <v>14</v>
       </c>
@@ -1245,7 +1251,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="16">
       <c r="A16" s="5" t="n">
         <v>15</v>
       </c>
@@ -1262,7 +1268,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="17">
       <c r="A17" s="14" t="n">
         <v>16</v>
       </c>
@@ -1272,9 +1278,11 @@
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-    </row>
-    <row r="18" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H17" s="14" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="18">
       <c r="A18" s="14" t="n">
         <v>17</v>
       </c>
@@ -1296,8 +1304,11 @@
       <c r="G18" s="14" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H18" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="19">
       <c r="A19" s="14" t="n">
         <v>18</v>
       </c>
@@ -1315,8 +1326,11 @@
       <c r="G19" s="14" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H19" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="20">
       <c r="A20" s="14" t="n">
         <v>19</v>
       </c>
@@ -1334,8 +1348,11 @@
       <c r="G20" s="14" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H20" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="21">
       <c r="A21" s="14" t="n">
         <v>20</v>
       </c>
@@ -1353,8 +1370,11 @@
       <c r="G21" s="14" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H21" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="22">
       <c r="A22" s="14" t="n">
         <v>21</v>
       </c>
@@ -1366,9 +1386,11 @@
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H22" s="14" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="23">
       <c r="A23" s="14" t="n">
         <v>22</v>
       </c>
@@ -1386,8 +1408,11 @@
       <c r="G23" s="14" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H23" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="24">
       <c r="A24" s="14" t="n">
         <v>23</v>
       </c>
@@ -1405,8 +1430,11 @@
       <c r="G24" s="14" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H24" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="25">
       <c r="A25" s="14" t="n">
         <v>24</v>
       </c>
@@ -1424,8 +1452,11 @@
       <c r="G25" s="14" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H25" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="26">
       <c r="A26" s="14" t="n">
         <v>25</v>
       </c>
@@ -1443,8 +1474,11 @@
       <c r="G26" s="14" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H26" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="27">
       <c r="A27" s="14" t="n">
         <v>26</v>
       </c>
@@ -1460,8 +1494,11 @@
       <c r="G27" s="14" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H27" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="28">
       <c r="A28" s="14" t="n">
         <v>27</v>
       </c>
@@ -1477,8 +1514,11 @@
       <c r="G28" s="14" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H28" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="29">
       <c r="A29" s="14" t="n">
         <v>28</v>
       </c>
@@ -1488,9 +1528,11 @@
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
       <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H29" s="14" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="30">
       <c r="A30" s="14" t="n">
         <v>29</v>
       </c>
@@ -1508,8 +1550,11 @@
       <c r="G30" s="14" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H30" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="31">
       <c r="A31" s="14" t="n">
         <v>30</v>
       </c>
@@ -1527,8 +1572,11 @@
       <c r="G31" s="14" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H31" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="32">
       <c r="A32" s="14" t="n">
         <v>31</v>
       </c>
@@ -1542,9 +1590,11 @@
       <c r="E32" s="14"/>
       <c r="F32" s="14"/>
       <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H32" s="14" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="33">
       <c r="A33" s="14" t="n">
         <v>32</v>
       </c>
@@ -1563,7 +1613,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="34">
       <c r="A34" s="14" t="n">
         <v>33</v>
       </c>
@@ -1578,7 +1628,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="35">
       <c r="A35" s="14" t="n">
         <v>34</v>
       </c>
@@ -1595,7 +1645,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="36">
       <c r="A36" s="14" t="n">
         <v>35</v>
       </c>
@@ -1612,7 +1662,7 @@
       </c>
       <c r="G36" s="14"/>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="37">
       <c r="A37" s="14" t="n">
         <v>36</v>
       </c>
@@ -1629,7 +1679,7 @@
       </c>
       <c r="G37" s="14"/>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="38">
       <c r="A38" s="14" t="n">
         <v>37</v>
       </c>
@@ -1646,7 +1696,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="39">
       <c r="A39" s="14" t="n">
         <v>38</v>
       </c>
@@ -1665,7 +1715,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="40">
       <c r="A40" s="14" t="n">
         <v>39</v>
       </c>
@@ -1682,7 +1732,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="41">
       <c r="A41" s="14" t="n">
         <v>40</v>
       </c>
@@ -1699,7 +1749,7 @@
       </c>
       <c r="G41" s="14"/>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="42">
       <c r="A42" s="14" t="n">
         <v>41</v>
       </c>
@@ -1714,7 +1764,7 @@
       <c r="F42" s="14"/>
       <c r="G42" s="14"/>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="43">
       <c r="A43" s="14" t="n">
         <v>42</v>
       </c>
@@ -1733,7 +1783,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="44">
       <c r="A44" s="14" t="n">
         <v>43</v>
       </c>
@@ -1750,7 +1800,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="45">
       <c r="A45" s="14" t="n">
         <v>44</v>
       </c>
@@ -1765,7 +1815,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="46">
       <c r="A46" s="14" t="n">
         <v>45</v>
       </c>
@@ -1782,7 +1832,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="47">
       <c r="A47" s="14" t="n">
         <v>46</v>
       </c>
@@ -1799,7 +1849,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="48">
       <c r="A48" s="14" t="n">
         <v>47</v>
       </c>
@@ -1816,7 +1866,7 @@
       </c>
       <c r="G48" s="10"/>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="49">
       <c r="A49" s="14" t="n">
         <v>48</v>
       </c>
@@ -1833,7 +1883,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="50">
       <c r="A50" s="14" t="n">
         <v>49</v>
       </c>
@@ -1852,7 +1902,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="51">
       <c r="A51" s="14" t="n">
         <v>50</v>
       </c>
@@ -1869,7 +1919,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="52">
       <c r="A52" s="14" t="n">
         <v>51</v>
       </c>
@@ -1886,7 +1936,7 @@
       </c>
       <c r="G52" s="14"/>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="53">
       <c r="A53" s="14" t="n">
         <v>52</v>
       </c>
@@ -1903,7 +1953,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="54">
       <c r="A54" s="14" t="n">
         <v>53</v>
       </c>
@@ -1922,7 +1972,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="55">
       <c r="A55" s="14" t="n">
         <v>54</v>
       </c>
@@ -1937,7 +1987,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="56">
       <c r="A56" s="14" t="n">
         <v>55</v>
       </c>
@@ -1954,7 +2004,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="57">
       <c r="A57" s="14" t="n">
         <v>56</v>
       </c>
@@ -1971,7 +2021,7 @@
       </c>
       <c r="G57" s="14"/>
     </row>
-    <row r="58" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="79.85" outlineLevel="0" r="58">
       <c r="A58" s="14" t="n">
         <v>57</v>
       </c>
@@ -1990,7 +2040,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="59">
       <c r="A59" s="14" t="n">
         <v>58</v>
       </c>
@@ -2005,7 +2055,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="60">
       <c r="A60" s="14" t="n">
         <v>59</v>
       </c>
@@ -2022,7 +2072,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="61">
       <c r="A61" s="14" t="n">
         <v>60</v>
       </c>
@@ -2039,7 +2089,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="62">
       <c r="A62" s="14" t="n">
         <v>61</v>
       </c>
@@ -2056,7 +2106,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="63">
       <c r="A63" s="14" t="n">
         <v>62</v>
       </c>
@@ -2071,7 +2121,7 @@
       <c r="F63" s="14"/>
       <c r="G63" s="14"/>
     </row>
-    <row r="64" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="64">
       <c r="A64" s="14" t="n">
         <v>63</v>
       </c>
@@ -2089,9 +2139,11 @@
       <c r="G64" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="H64" s="14"/>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H64" s="14" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="65">
       <c r="A65" s="14" t="n">
         <v>64</v>
       </c>
@@ -2107,9 +2159,11 @@
       <c r="G65" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="H65" s="14"/>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H65" s="14" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="66">
       <c r="A66" s="14" t="n">
         <v>65</v>
       </c>
@@ -2125,9 +2179,11 @@
       <c r="G66" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="H66" s="14"/>
-    </row>
-    <row r="67" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H66" s="14" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="67">
       <c r="A67" s="14" t="n">
         <v>66</v>
       </c>
@@ -2144,7 +2200,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="68">
       <c r="A68" s="14" t="n">
         <v>67</v>
       </c>
@@ -2158,9 +2214,11 @@
       <c r="E68" s="14"/>
       <c r="F68" s="14"/>
       <c r="G68" s="15"/>
-      <c r="H68" s="14"/>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H68" s="14" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="69">
       <c r="A69" s="14" t="n">
         <v>68</v>
       </c>
@@ -2179,7 +2237,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="70">
       <c r="A70" s="14" t="n">
         <v>69</v>
       </c>
@@ -2196,7 +2254,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="71">
       <c r="A71" s="14" t="n">
         <v>70</v>
       </c>
@@ -2217,7 +2275,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="72">
       <c r="A72" s="14" t="n">
         <v>71</v>
       </c>
@@ -2236,7 +2294,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="73">
       <c r="A73" s="14" t="n">
         <v>72</v>
       </c>
@@ -2253,7 +2311,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="74">
       <c r="A74" s="14" t="n">
         <v>73</v>
       </c>
@@ -2274,7 +2332,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="75">
       <c r="A75" s="14" t="n">
         <v>74</v>
       </c>
@@ -2289,7 +2347,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="76">
       <c r="A76" s="14" t="n">
         <v>75</v>
       </c>
@@ -2306,7 +2364,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="77">
       <c r="A77" s="14" t="n">
         <v>76</v>
       </c>
@@ -2323,7 +2381,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="78">
       <c r="A78" s="14" t="n">
         <v>77</v>
       </c>
@@ -2340,7 +2398,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="79">
       <c r="A79" s="14" t="n">
         <v>78</v>
       </c>
@@ -2357,7 +2415,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="80">
       <c r="A80" s="14" t="n">
         <v>79</v>
       </c>
@@ -2374,7 +2432,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="81">
       <c r="A81" s="14" t="n">
         <v>80</v>
       </c>
@@ -2388,9 +2446,11 @@
       <c r="E81" s="14"/>
       <c r="F81" s="14"/>
       <c r="G81" s="14"/>
-      <c r="H81" s="14"/>
-    </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H81" s="14" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="82">
       <c r="A82" s="14" t="n">
         <v>81</v>
       </c>
@@ -2407,7 +2467,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="83">
       <c r="A83" s="14" t="n">
         <v>82</v>
       </c>
@@ -2424,7 +2484,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="84">
       <c r="A84" s="14" t="n">
         <v>83</v>
       </c>
@@ -2439,7 +2499,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="85">
       <c r="A85" s="14" t="n">
         <v>84</v>
       </c>
@@ -2454,7 +2514,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="86">
       <c r="A86" s="14" t="n">
         <v>85</v>
       </c>
@@ -2469,7 +2529,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="87">
       <c r="A87" s="14" t="n">
         <v>86</v>
       </c>
@@ -2484,7 +2544,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="88">
       <c r="A88" s="14" t="n">
         <v>87</v>
       </c>
@@ -2501,7 +2561,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="89">
       <c r="A89" s="14" t="n">
         <v>88</v>
       </c>
@@ -2518,7 +2578,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="90">
       <c r="A90" s="14" t="n">
         <v>89</v>
       </c>
@@ -2535,7 +2595,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="91">
       <c r="A91" s="14" t="n">
         <v>90</v>
       </c>
@@ -2552,7 +2612,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="91" outlineLevel="0" r="92">
       <c r="A92" s="14" t="n">
         <v>91</v>
       </c>
@@ -2569,7 +2629,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="93">
       <c r="A93" s="14" t="n">
         <v>92</v>
       </c>
@@ -2586,7 +2646,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="57.45" outlineLevel="0" r="94">
       <c r="A94" s="14" t="n">
         <v>93</v>
       </c>
@@ -2605,7 +2665,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="95">
       <c r="A95" s="14" t="n">
         <v>94</v>
       </c>
@@ -2627,14 +2687,14 @@
     <mergeCell ref="E1:F1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E7" r:id="rId1" display="bipbipbip@gmail.com"/>
-    <hyperlink ref="E8" r:id="rId2" display="bipbipbip@gmail.com"/>
-    <hyperlink ref="E9" r:id="rId3" display="bipbipbip112@gmail.com"/>
-    <hyperlink ref="E48" r:id="rId4" display="bipbipbip20@gmail"/>
+    <hyperlink display="bipbipbip@gmail.com" r:id="rId1" ref="E7"/>
+    <hyperlink display="bipbipbip@gmail.com" r:id="rId2" ref="E8"/>
+    <hyperlink display="bipbipbip112@gmail.com" r:id="rId3" ref="E9"/>
+    <hyperlink display="bipbipbip20@gmail" r:id="rId4" ref="E48"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <printOptions gridLines="false" gridLinesSet="true" headings="false" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="true" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Chuẩn"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Chuẩn"&amp;12Page &amp;P</oddFooter>

--- a/test.xlsx
+++ b/test.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" date1904="false" showObjects="all"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="500" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId2" sheetId="1" state="visible"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr iterate="false" iterateCount="100" iterateDelta="0.001" refMode="A1"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="200">
   <si>
     <t xml:space="preserve">No</t>
   </si>
@@ -481,10 +481,10 @@
     <t xml:space="preserve">Chọn ngày hiện tại </t>
   </si>
   <si>
-    <t xml:space="preserve">8,6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 thg 6</t>
+    <t xml:space="preserve">9,6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 thg 6</t>
   </si>
   <si>
     <t xml:space="preserve">Chọn ngày tương lai 30/6</t>
@@ -620,12 +620,6 @@
   </si>
   <si>
     <t xml:space="preserve">Cảm ơn bạn đã đánh giá</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Pass</t>
   </si>
 </sst>
 </file>
@@ -740,28 +734,28 @@
     </fill>
   </fills>
   <borders count="4">
-    <border diagonalDown="false" diagonalUp="false">
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border diagonalUp="false" diagonalDown="false">
       <left style="dotted"/>
       <right style="dotted"/>
       <top/>
@@ -770,119 +764,119 @@
     </border>
   </borders>
   <cellStyleXfs count="20">
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="20">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="2" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="2" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="2" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="3" fillId="2" fontId="6" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="3" fontId="7" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="3" fontId="7" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="7" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="8" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="3" fontId="7" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="3" fontId="7" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="3" fontId="9" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="3" fontId="10" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="3" fontId="8" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="166" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="166" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="11" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" name="Comma" xfId="15"/>
-    <cellStyle builtinId="6" name="Comma [0]" xfId="16"/>
-    <cellStyle builtinId="4" name="Currency" xfId="17"/>
-    <cellStyle builtinId="7" name="Currency [0]" xfId="18"/>
-    <cellStyle builtinId="5" name="Percent" xfId="19"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -948,28 +942,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I95"/>
+  <dimension ref="A1:H95"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="B2" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="H94" activeCellId="0" pane="topLeft" sqref="H94:H96"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H14" activeCellId="0" sqref="H14:H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.88671875" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="false"/>
+  <sheetFormatPr defaultColWidth="13.90234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="4.44" collapsed="true" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="26.13" collapsed="true" outlineLevel="0"/>
-    <col min="3" max="3" customWidth="true" hidden="false" style="0" width="36.54" collapsed="true" outlineLevel="0"/>
-    <col min="4" max="4" customWidth="true" hidden="false" style="0" width="49.46" collapsed="true" outlineLevel="0"/>
-    <col min="5" max="5" customWidth="true" hidden="false" style="0" width="28.34" collapsed="true" outlineLevel="0"/>
-    <col min="6" max="6" customWidth="true" hidden="false" style="0" width="21.26" collapsed="true" outlineLevel="0"/>
-    <col min="7" max="7" customWidth="true" hidden="false" style="0" width="51.82" collapsed="true" outlineLevel="0"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="36.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="49.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="28.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="21.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="51.82"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.85" outlineLevel="0" r="1">
+    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -995,7 +989,7 @@
         <v>6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="2">
+    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="n">
         <v>1</v>
       </c>
@@ -1018,7 +1012,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="3">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="n">
         <v>2</v>
       </c>
@@ -1037,7 +1031,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="n">
         <v>3</v>
       </c>
@@ -1054,7 +1048,7 @@
         <v>16</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="5">
+    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="n">
         <v>4</v>
       </c>
@@ -1073,7 +1067,7 @@
         <v>19</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="6">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="n">
         <v>5</v>
       </c>
@@ -1092,7 +1086,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="7">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="n">
         <v>6</v>
       </c>
@@ -1111,7 +1105,7 @@
         <v>19</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="8">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="n">
         <v>7</v>
       </c>
@@ -1128,7 +1122,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32.05" outlineLevel="0" r="9">
+    <row r="9" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="n">
         <v>8</v>
       </c>
@@ -1147,7 +1141,7 @@
         <v>29</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="10">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="n">
         <v>9</v>
       </c>
@@ -1168,7 +1162,7 @@
         <v>33</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="11">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="n">
         <v>10</v>
       </c>
@@ -1183,7 +1177,7 @@
         <v>35</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="12">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="n">
         <v>11</v>
       </c>
@@ -1200,7 +1194,7 @@
         <v>33</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="13">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="n">
         <v>12</v>
       </c>
@@ -1217,7 +1211,7 @@
         <v>33</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="14">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="n">
         <v>13</v>
       </c>
@@ -1234,7 +1228,7 @@
         <v>33</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="15">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="n">
         <v>14</v>
       </c>
@@ -1251,7 +1245,7 @@
         <v>33</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="16">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="n">
         <v>15</v>
       </c>
@@ -1268,7 +1262,7 @@
         <v>46</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="17">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="14" t="n">
         <v>16</v>
       </c>
@@ -1278,11 +1272,9 @@
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
-      <c r="H17" s="14" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="18">
+      <c r="H17" s="14"/>
+    </row>
+    <row r="18" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="14" t="n">
         <v>17</v>
       </c>
@@ -1304,11 +1296,8 @@
       <c r="G18" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="H18" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="19">
+    </row>
+    <row r="19" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="14" t="n">
         <v>18</v>
       </c>
@@ -1326,11 +1315,8 @@
       <c r="G19" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="H19" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="20">
+    </row>
+    <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="14" t="n">
         <v>19</v>
       </c>
@@ -1348,11 +1334,8 @@
       <c r="G20" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="H20" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="21">
+    </row>
+    <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="14" t="n">
         <v>20</v>
       </c>
@@ -1370,11 +1353,8 @@
       <c r="G21" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="H21" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="22">
+    </row>
+    <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="14" t="n">
         <v>21</v>
       </c>
@@ -1386,11 +1366,9 @@
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
-      <c r="H22" s="14" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="23">
+      <c r="H22" s="14"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="14" t="n">
         <v>22</v>
       </c>
@@ -1408,11 +1386,8 @@
       <c r="G23" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="H23" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="24">
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="14" t="n">
         <v>23</v>
       </c>
@@ -1430,11 +1405,8 @@
       <c r="G24" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="H24" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="25">
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="14" t="n">
         <v>24</v>
       </c>
@@ -1452,11 +1424,8 @@
       <c r="G25" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="H25" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="26">
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="14" t="n">
         <v>25</v>
       </c>
@@ -1474,11 +1443,8 @@
       <c r="G26" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="H26" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="27">
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="14" t="n">
         <v>26</v>
       </c>
@@ -1494,11 +1460,8 @@
       <c r="G27" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="H27" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="28">
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="14" t="n">
         <v>27</v>
       </c>
@@ -1514,11 +1477,8 @@
       <c r="G28" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="H28" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="29">
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="14" t="n">
         <v>28</v>
       </c>
@@ -1528,11 +1488,9 @@
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
       <c r="G29" s="14"/>
-      <c r="H29" s="14" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="30">
+      <c r="H29" s="14"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="14" t="n">
         <v>29</v>
       </c>
@@ -1550,11 +1508,8 @@
       <c r="G30" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="H30" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="31">
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="14" t="n">
         <v>30</v>
       </c>
@@ -1572,11 +1527,8 @@
       <c r="G31" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="H31" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="32">
+    </row>
+    <row r="32" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="14" t="n">
         <v>31</v>
       </c>
@@ -1590,11 +1542,9 @@
       <c r="E32" s="14"/>
       <c r="F32" s="14"/>
       <c r="G32" s="14"/>
-      <c r="H32" s="14" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="33">
+      <c r="H32" s="14"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="14" t="n">
         <v>32</v>
       </c>
@@ -1613,7 +1563,7 @@
         <v>80</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="34">
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="14" t="n">
         <v>33</v>
       </c>
@@ -1628,7 +1578,7 @@
         <v>82</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="35">
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="14" t="n">
         <v>34</v>
       </c>
@@ -1645,7 +1595,7 @@
         <v>80</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="36">
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="14" t="n">
         <v>35</v>
       </c>
@@ -1662,7 +1612,7 @@
       </c>
       <c r="G36" s="14"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="37">
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="14" t="n">
         <v>36</v>
       </c>
@@ -1679,7 +1629,7 @@
       </c>
       <c r="G37" s="14"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="38">
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="14" t="n">
         <v>37</v>
       </c>
@@ -1696,7 +1646,7 @@
         <v>92</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="39">
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="14" t="n">
         <v>38</v>
       </c>
@@ -1715,7 +1665,7 @@
         <v>94</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="40">
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="14" t="n">
         <v>39</v>
       </c>
@@ -1732,7 +1682,7 @@
         <v>94</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="41">
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="14" t="n">
         <v>40</v>
       </c>
@@ -1749,7 +1699,7 @@
       </c>
       <c r="G41" s="14"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="42">
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="14" t="n">
         <v>41</v>
       </c>
@@ -1764,7 +1714,7 @@
       <c r="F42" s="14"/>
       <c r="G42" s="14"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="43">
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="14" t="n">
         <v>42</v>
       </c>
@@ -1783,7 +1733,7 @@
         <v>100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="44">
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="14" t="n">
         <v>43</v>
       </c>
@@ -1800,7 +1750,7 @@
         <v>100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="45">
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="14" t="n">
         <v>44</v>
       </c>
@@ -1815,7 +1765,7 @@
         <v>100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="46">
+    <row r="46" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="14" t="n">
         <v>45</v>
       </c>
@@ -1832,7 +1782,7 @@
         <v>100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="47">
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="14" t="n">
         <v>46</v>
       </c>
@@ -1849,7 +1799,7 @@
         <v>100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="48">
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="14" t="n">
         <v>47</v>
       </c>
@@ -1866,7 +1816,7 @@
       </c>
       <c r="G48" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="49">
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="14" t="n">
         <v>48</v>
       </c>
@@ -1883,7 +1833,7 @@
         <v>106</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="50">
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="14" t="n">
         <v>49</v>
       </c>
@@ -1902,7 +1852,7 @@
         <v>106</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="51">
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="14" t="n">
         <v>50</v>
       </c>
@@ -1919,7 +1869,7 @@
         <v>111</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="52">
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="14" t="n">
         <v>51</v>
       </c>
@@ -1936,7 +1886,7 @@
       </c>
       <c r="G52" s="14"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="53">
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="14" t="n">
         <v>52</v>
       </c>
@@ -1953,7 +1903,7 @@
         <v>115</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="54">
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="14" t="n">
         <v>53</v>
       </c>
@@ -1972,7 +1922,7 @@
         <v>111</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="55">
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="14" t="n">
         <v>54</v>
       </c>
@@ -1987,7 +1937,7 @@
         <v>111</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="56">
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="14" t="n">
         <v>55</v>
       </c>
@@ -2004,7 +1954,7 @@
         <v>111</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="57">
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="14" t="n">
         <v>56</v>
       </c>
@@ -2021,7 +1971,7 @@
       </c>
       <c r="G57" s="14"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="79.85" outlineLevel="0" r="58">
+    <row r="58" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="14" t="n">
         <v>57</v>
       </c>
@@ -2040,7 +1990,7 @@
         <v>126</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="59">
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="14" t="n">
         <v>58</v>
       </c>
@@ -2055,7 +2005,7 @@
         <v>128</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="60">
+    <row r="60" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="14" t="n">
         <v>59</v>
       </c>
@@ -2072,7 +2022,7 @@
         <v>131</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="61">
+    <row r="61" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="14" t="n">
         <v>60</v>
       </c>
@@ -2089,7 +2039,7 @@
         <v>131</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="62">
+    <row r="62" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="14" t="n">
         <v>61</v>
       </c>
@@ -2106,7 +2056,7 @@
         <v>131</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="63">
+    <row r="63" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="14" t="n">
         <v>62</v>
       </c>
@@ -2121,7 +2071,7 @@
       <c r="F63" s="14"/>
       <c r="G63" s="14"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="64">
+    <row r="64" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="14" t="n">
         <v>63</v>
       </c>
@@ -2139,11 +2089,9 @@
       <c r="G64" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="H64" s="14" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="65">
+      <c r="H64" s="14"/>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="14" t="n">
         <v>64</v>
       </c>
@@ -2159,11 +2107,9 @@
       <c r="G65" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="H65" s="14" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="66">
+      <c r="H65" s="14"/>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="14" t="n">
         <v>65</v>
       </c>
@@ -2179,11 +2125,9 @@
       <c r="G66" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="H66" s="14" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="67">
+      <c r="H66" s="14"/>
+    </row>
+    <row r="67" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="14" t="n">
         <v>66</v>
       </c>
@@ -2200,7 +2144,7 @@
         <v>148</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="68">
+    <row r="68" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="14" t="n">
         <v>67</v>
       </c>
@@ -2214,11 +2158,9 @@
       <c r="E68" s="14"/>
       <c r="F68" s="14"/>
       <c r="G68" s="15"/>
-      <c r="H68" s="14" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="69">
+      <c r="H68" s="14"/>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="14" t="n">
         <v>68</v>
       </c>
@@ -2237,7 +2179,7 @@
         <v>154</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="70">
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="14" t="n">
         <v>69</v>
       </c>
@@ -2254,7 +2196,7 @@
         <v>157</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="71">
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="14" t="n">
         <v>70</v>
       </c>
@@ -2275,7 +2217,7 @@
         <v>65</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="72">
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="14" t="n">
         <v>71</v>
       </c>
@@ -2294,7 +2236,7 @@
         <v>2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="73">
+    <row r="73" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="14" t="n">
         <v>72</v>
       </c>
@@ -2311,7 +2253,7 @@
         <v>163</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="74">
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="14" t="n">
         <v>73</v>
       </c>
@@ -2332,7 +2274,7 @@
         <v>33</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="75">
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="14" t="n">
         <v>74</v>
       </c>
@@ -2347,7 +2289,7 @@
         <v>166</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="76">
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="14" t="n">
         <v>75</v>
       </c>
@@ -2364,7 +2306,7 @@
         <v>33</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="77">
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="14" t="n">
         <v>76</v>
       </c>
@@ -2381,7 +2323,7 @@
         <v>33</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="78">
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="14" t="n">
         <v>77</v>
       </c>
@@ -2398,7 +2340,7 @@
         <v>33</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="79">
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="14" t="n">
         <v>78</v>
       </c>
@@ -2415,7 +2357,7 @@
         <v>33</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="80">
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="14" t="n">
         <v>79</v>
       </c>
@@ -2432,7 +2374,7 @@
         <v>46</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="81">
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="14" t="n">
         <v>80</v>
       </c>
@@ -2446,11 +2388,9 @@
       <c r="E81" s="14"/>
       <c r="F81" s="14"/>
       <c r="G81" s="14"/>
-      <c r="H81" s="14" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="82">
+      <c r="H81" s="14"/>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="14" t="n">
         <v>81</v>
       </c>
@@ -2467,7 +2407,7 @@
         <v>171</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="83">
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="14" t="n">
         <v>82</v>
       </c>
@@ -2484,7 +2424,7 @@
         <v>173</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="84">
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="14" t="n">
         <v>83</v>
       </c>
@@ -2499,7 +2439,7 @@
         <v>174</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="85">
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="14" t="n">
         <v>84</v>
       </c>
@@ -2514,7 +2454,7 @@
         <v>175</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="86">
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="14" t="n">
         <v>85</v>
       </c>
@@ -2529,7 +2469,7 @@
         <v>176</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="87">
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="14" t="n">
         <v>86</v>
       </c>
@@ -2544,7 +2484,7 @@
         <v>177</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="88">
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="14" t="n">
         <v>87</v>
       </c>
@@ -2561,7 +2501,7 @@
         <v>180</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="89">
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="14" t="n">
         <v>88</v>
       </c>
@@ -2578,7 +2518,7 @@
         <v>183</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="90">
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="14" t="n">
         <v>89</v>
       </c>
@@ -2595,7 +2535,7 @@
         <v>186</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="91">
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="14" t="n">
         <v>90</v>
       </c>
@@ -2612,7 +2552,7 @@
         <v>186</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="91" outlineLevel="0" r="92">
+    <row r="92" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="14" t="n">
         <v>91</v>
       </c>
@@ -2629,7 +2569,7 @@
         <v>190</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="93">
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="14" t="n">
         <v>92</v>
       </c>
@@ -2646,7 +2586,7 @@
         <v>193</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="57.45" outlineLevel="0" r="94">
+    <row r="94" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="14" t="n">
         <v>93</v>
       </c>
@@ -2665,7 +2605,7 @@
         <v>195</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="95">
+    <row r="95" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="14" t="n">
         <v>94</v>
       </c>
@@ -2687,14 +2627,14 @@
     <mergeCell ref="E1:F1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink display="bipbipbip@gmail.com" r:id="rId1" ref="E7"/>
-    <hyperlink display="bipbipbip@gmail.com" r:id="rId2" ref="E8"/>
-    <hyperlink display="bipbipbip112@gmail.com" r:id="rId3" ref="E9"/>
-    <hyperlink display="bipbipbip20@gmail" r:id="rId4" ref="E48"/>
+    <hyperlink ref="E7" r:id="rId1" display="bipbipbip@gmail.com"/>
+    <hyperlink ref="E8" r:id="rId2" display="bipbipbip@gmail.com"/>
+    <hyperlink ref="E9" r:id="rId3" display="bipbipbip112@gmail.com"/>
+    <hyperlink ref="E48" r:id="rId4" display="bipbipbip20@gmail.com"/>
   </hyperlinks>
-  <printOptions gridLines="false" gridLinesSet="true" headings="false" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="true" verticalDpi="300"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Chuẩn"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Chuẩn"&amp;12Page &amp;P</oddFooter>

--- a/test.xlsx
+++ b/test.xlsx
@@ -238,7 +238,7 @@
     <t xml:space="preserve">Chọn Đặt lại</t>
   </si>
   <si>
-    <t xml:space="preserve">8 thg 6 → 9 thg 6</t>
+    <t xml:space="preserve">9 thg 6 → 10 thg 6</t>
   </si>
   <si>
     <t xml:space="preserve">Chọn Áp dụng</t>
@@ -481,10 +481,10 @@
     <t xml:space="preserve">Chọn ngày hiện tại </t>
   </si>
   <si>
-    <t xml:space="preserve">9,6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 thg 6</t>
+    <t xml:space="preserve">10,6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 thg 6</t>
   </si>
   <si>
     <t xml:space="preserve">Chọn ngày tương lai 30/6</t>
@@ -949,10 +949,10 @@
   <dimension ref="A1:H95"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H14" activeCellId="0" sqref="H14:H32"/>
+      <selection pane="topLeft" activeCell="G30" activeCellId="0" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.90234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.13"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -328,7 +328,7 @@
     <t xml:space="preserve">Nhập email đúng định dạng</t>
   </si>
   <si>
-    <t xml:space="preserve">bipbipbip20@gmail.com</t>
+    <t xml:space="preserve">bipbipbip21@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">Không</t>
@@ -948,11 +948,11 @@
   </sheetPr>
   <dimension ref="A1:H95"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G30" activeCellId="0" sqref="G30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E65" activeCellId="0" sqref="E65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.13"/>
@@ -2630,7 +2630,6 @@
     <hyperlink ref="E7" r:id="rId1" display="bipbipbip@gmail.com"/>
     <hyperlink ref="E8" r:id="rId2" display="bipbipbip@gmail.com"/>
     <hyperlink ref="E9" r:id="rId3" display="bipbipbip112@gmail.com"/>
-    <hyperlink ref="E48" r:id="rId4" display="bipbipbip20@gmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookPr backupFile="false" date1904="false" showObjects="all"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="500" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" r:id="rId2" sheetId="1" state="visible"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr iterate="false" iterateCount="100" iterateDelta="0.001" refMode="A1"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="202">
   <si>
     <t xml:space="preserve">No</t>
   </si>
@@ -620,6 +620,12 @@
   </si>
   <si>
     <t xml:space="preserve">Cảm ơn bạn đã đánh giá</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Pass</t>
   </si>
 </sst>
 </file>
@@ -734,28 +740,28 @@
     </fill>
   </fills>
   <borders count="4">
-    <border diagonalUp="false" diagonalDown="false">
+    <border diagonalDown="false" diagonalUp="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border diagonalDown="false" diagonalUp="false">
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border diagonalDown="false" diagonalUp="false">
       <left/>
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border diagonalDown="false" diagonalUp="false">
       <left style="dotted"/>
       <right style="dotted"/>
       <top/>
@@ -764,119 +770,119 @@
     </border>
   </borders>
   <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
   <cellXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="2" fontId="4" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="2" fontId="5" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="2" fontId="5" numFmtId="164" xfId="0">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="3" fillId="2" fontId="6" numFmtId="164" xfId="0">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="3" fontId="7" numFmtId="164" xfId="0">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="3" fontId="7" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="7" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="8" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="3" fontId="7" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="3" fontId="7" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="3" fontId="9" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="3" fontId="10" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="3" fontId="8" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="165" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="11" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="3" name="Comma" xfId="15"/>
+    <cellStyle builtinId="6" name="Comma [0]" xfId="16"/>
+    <cellStyle builtinId="4" name="Currency" xfId="17"/>
+    <cellStyle builtinId="7" name="Currency [0]" xfId="18"/>
+    <cellStyle builtinId="5" name="Percent" xfId="19"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -942,28 +948,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H95"/>
+  <dimension ref="A1:I95"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E65" activeCellId="0" sqref="E65"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="B40" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="E65" activeCellId="0" pane="topLeft" sqref="E65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.94140625" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="false"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="36.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="49.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="28.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="21.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="51.82"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="4.44" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="26.13" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="3" customWidth="true" hidden="false" style="0" width="36.54" collapsed="true" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="true" hidden="false" style="0" width="49.46" collapsed="true" outlineLevel="0"/>
+    <col min="5" max="5" customWidth="true" hidden="false" style="0" width="28.34" collapsed="true" outlineLevel="0"/>
+    <col min="6" max="6" customWidth="true" hidden="false" style="0" width="21.26" collapsed="true" outlineLevel="0"/>
+    <col min="7" max="7" customWidth="true" hidden="false" style="0" width="51.82" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.85" outlineLevel="0" r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -989,7 +995,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="2">
       <c r="A2" s="5" t="n">
         <v>1</v>
       </c>
@@ -1012,7 +1018,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="3">
       <c r="A3" s="5" t="n">
         <v>2</v>
       </c>
@@ -1031,7 +1037,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4">
       <c r="A4" s="5" t="n">
         <v>3</v>
       </c>
@@ -1048,7 +1054,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="5">
       <c r="A5" s="5" t="n">
         <v>4</v>
       </c>
@@ -1067,7 +1073,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="6">
       <c r="A6" s="5" t="n">
         <v>5</v>
       </c>
@@ -1086,7 +1092,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="7">
       <c r="A7" s="5" t="n">
         <v>6</v>
       </c>
@@ -1105,7 +1111,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="8">
       <c r="A8" s="5" t="n">
         <v>7</v>
       </c>
@@ -1122,7 +1128,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32.05" outlineLevel="0" r="9">
       <c r="A9" s="5" t="n">
         <v>8</v>
       </c>
@@ -1141,7 +1147,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="10">
       <c r="A10" s="5" t="n">
         <v>9</v>
       </c>
@@ -1162,7 +1168,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="11">
       <c r="A11" s="5" t="n">
         <v>10</v>
       </c>
@@ -1177,7 +1183,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="12">
       <c r="A12" s="5" t="n">
         <v>11</v>
       </c>
@@ -1194,7 +1200,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="13">
       <c r="A13" s="5" t="n">
         <v>12</v>
       </c>
@@ -1211,7 +1217,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="14">
       <c r="A14" s="5" t="n">
         <v>13</v>
       </c>
@@ -1228,7 +1234,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="15">
       <c r="A15" s="5" t="n">
         <v>14</v>
       </c>
@@ -1245,7 +1251,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="16">
       <c r="A16" s="5" t="n">
         <v>15</v>
       </c>
@@ -1262,7 +1268,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="17">
       <c r="A17" s="14" t="n">
         <v>16</v>
       </c>
@@ -1272,9 +1278,11 @@
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-    </row>
-    <row r="18" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H17" s="14" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="18">
       <c r="A18" s="14" t="n">
         <v>17</v>
       </c>
@@ -1297,7 +1305,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="19">
       <c r="A19" s="14" t="n">
         <v>18</v>
       </c>
@@ -1316,7 +1324,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="20">
       <c r="A20" s="14" t="n">
         <v>19</v>
       </c>
@@ -1335,7 +1343,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="21">
       <c r="A21" s="14" t="n">
         <v>20</v>
       </c>
@@ -1354,7 +1362,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="22">
       <c r="A22" s="14" t="n">
         <v>21</v>
       </c>
@@ -1366,9 +1374,11 @@
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H22" s="14" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="23">
       <c r="A23" s="14" t="n">
         <v>22</v>
       </c>
@@ -1387,7 +1397,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="24">
       <c r="A24" s="14" t="n">
         <v>23</v>
       </c>
@@ -1406,7 +1416,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="25">
       <c r="A25" s="14" t="n">
         <v>24</v>
       </c>
@@ -1425,7 +1435,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="26">
       <c r="A26" s="14" t="n">
         <v>25</v>
       </c>
@@ -1444,7 +1454,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="27">
       <c r="A27" s="14" t="n">
         <v>26</v>
       </c>
@@ -1461,7 +1471,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="28">
       <c r="A28" s="14" t="n">
         <v>27</v>
       </c>
@@ -1478,7 +1488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="29">
       <c r="A29" s="14" t="n">
         <v>28</v>
       </c>
@@ -1488,9 +1498,11 @@
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
       <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H29" s="14" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="30">
       <c r="A30" s="14" t="n">
         <v>29</v>
       </c>
@@ -1509,7 +1521,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="31">
       <c r="A31" s="14" t="n">
         <v>30</v>
       </c>
@@ -1528,7 +1540,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="32">
       <c r="A32" s="14" t="n">
         <v>31</v>
       </c>
@@ -1542,9 +1554,11 @@
       <c r="E32" s="14"/>
       <c r="F32" s="14"/>
       <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H32" s="14" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="33">
       <c r="A33" s="14" t="n">
         <v>32</v>
       </c>
@@ -1563,7 +1577,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="34">
       <c r="A34" s="14" t="n">
         <v>33</v>
       </c>
@@ -1578,7 +1592,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="35">
       <c r="A35" s="14" t="n">
         <v>34</v>
       </c>
@@ -1595,7 +1609,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="36">
       <c r="A36" s="14" t="n">
         <v>35</v>
       </c>
@@ -1612,7 +1626,7 @@
       </c>
       <c r="G36" s="14"/>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="37">
       <c r="A37" s="14" t="n">
         <v>36</v>
       </c>
@@ -1629,7 +1643,7 @@
       </c>
       <c r="G37" s="14"/>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="38">
       <c r="A38" s="14" t="n">
         <v>37</v>
       </c>
@@ -1646,7 +1660,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="39">
       <c r="A39" s="14" t="n">
         <v>38</v>
       </c>
@@ -1665,7 +1679,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="40">
       <c r="A40" s="14" t="n">
         <v>39</v>
       </c>
@@ -1682,7 +1696,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="41">
       <c r="A41" s="14" t="n">
         <v>40</v>
       </c>
@@ -1699,7 +1713,7 @@
       </c>
       <c r="G41" s="14"/>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="42">
       <c r="A42" s="14" t="n">
         <v>41</v>
       </c>
@@ -1714,7 +1728,7 @@
       <c r="F42" s="14"/>
       <c r="G42" s="14"/>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="43">
       <c r="A43" s="14" t="n">
         <v>42</v>
       </c>
@@ -1733,7 +1747,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="44">
       <c r="A44" s="14" t="n">
         <v>43</v>
       </c>
@@ -1750,7 +1764,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="45">
       <c r="A45" s="14" t="n">
         <v>44</v>
       </c>
@@ -1765,7 +1779,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="46">
       <c r="A46" s="14" t="n">
         <v>45</v>
       </c>
@@ -1782,7 +1796,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="47">
       <c r="A47" s="14" t="n">
         <v>46</v>
       </c>
@@ -1799,7 +1813,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="48">
       <c r="A48" s="14" t="n">
         <v>47</v>
       </c>
@@ -1816,7 +1830,7 @@
       </c>
       <c r="G48" s="10"/>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="49">
       <c r="A49" s="14" t="n">
         <v>48</v>
       </c>
@@ -1833,7 +1847,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="50">
       <c r="A50" s="14" t="n">
         <v>49</v>
       </c>
@@ -1852,7 +1866,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="51">
       <c r="A51" s="14" t="n">
         <v>50</v>
       </c>
@@ -1869,7 +1883,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="52">
       <c r="A52" s="14" t="n">
         <v>51</v>
       </c>
@@ -1886,7 +1900,7 @@
       </c>
       <c r="G52" s="14"/>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="53">
       <c r="A53" s="14" t="n">
         <v>52</v>
       </c>
@@ -1903,7 +1917,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="54">
       <c r="A54" s="14" t="n">
         <v>53</v>
       </c>
@@ -1922,7 +1936,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="55">
       <c r="A55" s="14" t="n">
         <v>54</v>
       </c>
@@ -1937,7 +1951,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="56">
       <c r="A56" s="14" t="n">
         <v>55</v>
       </c>
@@ -1954,7 +1968,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="57">
       <c r="A57" s="14" t="n">
         <v>56</v>
       </c>
@@ -1971,7 +1985,7 @@
       </c>
       <c r="G57" s="14"/>
     </row>
-    <row r="58" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="79.85" outlineLevel="0" r="58">
       <c r="A58" s="14" t="n">
         <v>57</v>
       </c>
@@ -1990,7 +2004,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="59">
       <c r="A59" s="14" t="n">
         <v>58</v>
       </c>
@@ -2005,7 +2019,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="60">
       <c r="A60" s="14" t="n">
         <v>59</v>
       </c>
@@ -2022,7 +2036,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="61">
       <c r="A61" s="14" t="n">
         <v>60</v>
       </c>
@@ -2039,7 +2053,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="62">
       <c r="A62" s="14" t="n">
         <v>61</v>
       </c>
@@ -2056,7 +2070,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="63">
       <c r="A63" s="14" t="n">
         <v>62</v>
       </c>
@@ -2071,7 +2085,7 @@
       <c r="F63" s="14"/>
       <c r="G63" s="14"/>
     </row>
-    <row r="64" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="64">
       <c r="A64" s="14" t="n">
         <v>63</v>
       </c>
@@ -2089,9 +2103,11 @@
       <c r="G64" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="H64" s="14"/>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H64" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="65">
       <c r="A65" s="14" t="n">
         <v>64</v>
       </c>
@@ -2107,9 +2123,11 @@
       <c r="G65" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="H65" s="14"/>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H65" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="66">
       <c r="A66" s="14" t="n">
         <v>65</v>
       </c>
@@ -2125,9 +2143,11 @@
       <c r="G66" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="H66" s="14"/>
-    </row>
-    <row r="67" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H66" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="67">
       <c r="A67" s="14" t="n">
         <v>66</v>
       </c>
@@ -2144,7 +2164,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="68">
       <c r="A68" s="14" t="n">
         <v>67</v>
       </c>
@@ -2158,9 +2178,11 @@
       <c r="E68" s="14"/>
       <c r="F68" s="14"/>
       <c r="G68" s="15"/>
-      <c r="H68" s="14"/>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H68" s="14" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="69">
       <c r="A69" s="14" t="n">
         <v>68</v>
       </c>
@@ -2179,7 +2201,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="70">
       <c r="A70" s="14" t="n">
         <v>69</v>
       </c>
@@ -2196,7 +2218,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="71">
       <c r="A71" s="14" t="n">
         <v>70</v>
       </c>
@@ -2217,7 +2239,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="72">
       <c r="A72" s="14" t="n">
         <v>71</v>
       </c>
@@ -2236,7 +2258,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="73">
       <c r="A73" s="14" t="n">
         <v>72</v>
       </c>
@@ -2253,7 +2275,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="74">
       <c r="A74" s="14" t="n">
         <v>73</v>
       </c>
@@ -2274,7 +2296,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="75">
       <c r="A75" s="14" t="n">
         <v>74</v>
       </c>
@@ -2289,7 +2311,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="76">
       <c r="A76" s="14" t="n">
         <v>75</v>
       </c>
@@ -2306,7 +2328,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="77">
       <c r="A77" s="14" t="n">
         <v>76</v>
       </c>
@@ -2323,7 +2345,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="78">
       <c r="A78" s="14" t="n">
         <v>77</v>
       </c>
@@ -2340,7 +2362,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="79">
       <c r="A79" s="14" t="n">
         <v>78</v>
       </c>
@@ -2357,7 +2379,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="80">
       <c r="A80" s="14" t="n">
         <v>79</v>
       </c>
@@ -2374,7 +2396,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="81">
       <c r="A81" s="14" t="n">
         <v>80</v>
       </c>
@@ -2388,9 +2410,11 @@
       <c r="E81" s="14"/>
       <c r="F81" s="14"/>
       <c r="G81" s="14"/>
-      <c r="H81" s="14"/>
-    </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H81" s="14" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="82">
       <c r="A82" s="14" t="n">
         <v>81</v>
       </c>
@@ -2407,7 +2431,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="83">
       <c r="A83" s="14" t="n">
         <v>82</v>
       </c>
@@ -2424,7 +2448,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="84">
       <c r="A84" s="14" t="n">
         <v>83</v>
       </c>
@@ -2439,7 +2463,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="85">
       <c r="A85" s="14" t="n">
         <v>84</v>
       </c>
@@ -2454,7 +2478,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="86">
       <c r="A86" s="14" t="n">
         <v>85</v>
       </c>
@@ -2469,7 +2493,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="87">
       <c r="A87" s="14" t="n">
         <v>86</v>
       </c>
@@ -2484,7 +2508,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="88">
       <c r="A88" s="14" t="n">
         <v>87</v>
       </c>
@@ -2501,7 +2525,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="89">
       <c r="A89" s="14" t="n">
         <v>88</v>
       </c>
@@ -2518,7 +2542,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="90">
       <c r="A90" s="14" t="n">
         <v>89</v>
       </c>
@@ -2535,7 +2559,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="91">
       <c r="A91" s="14" t="n">
         <v>90</v>
       </c>
@@ -2552,7 +2576,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="91" outlineLevel="0" r="92">
       <c r="A92" s="14" t="n">
         <v>91</v>
       </c>
@@ -2569,7 +2593,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="93">
       <c r="A93" s="14" t="n">
         <v>92</v>
       </c>
@@ -2586,7 +2610,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="57.45" outlineLevel="0" r="94">
       <c r="A94" s="14" t="n">
         <v>93</v>
       </c>
@@ -2605,7 +2629,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="95">
       <c r="A95" s="14" t="n">
         <v>94</v>
       </c>
@@ -2627,13 +2651,13 @@
     <mergeCell ref="E1:F1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E7" r:id="rId1" display="bipbipbip@gmail.com"/>
-    <hyperlink ref="E8" r:id="rId2" display="bipbipbip@gmail.com"/>
-    <hyperlink ref="E9" r:id="rId3" display="bipbipbip112@gmail.com"/>
+    <hyperlink display="bipbipbip@gmail.com" r:id="rId1" ref="E7"/>
+    <hyperlink display="bipbipbip@gmail.com" r:id="rId2" ref="E8"/>
+    <hyperlink display="bipbipbip112@gmail.com" r:id="rId3" ref="E9"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <printOptions gridLines="false" gridLinesSet="true" headings="false" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="true" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Chuẩn"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Chuẩn"&amp;12Page &amp;P</oddFooter>

--- a/test.xlsx
+++ b/test.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" date1904="false" showObjects="all"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="500" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId2" sheetId="1" state="visible"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr iterate="false" iterateCount="100" iterateDelta="0.001" refMode="A1"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="201">
   <si>
     <t xml:space="preserve">No</t>
   </si>
@@ -328,7 +328,7 @@
     <t xml:space="preserve">Nhập email đúng định dạng</t>
   </si>
   <si>
-    <t xml:space="preserve">bipbipbip21@gmail.com</t>
+    <t xml:space="preserve">bipbipbip30@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">Không</t>
@@ -448,6 +448,9 @@
     <t xml:space="preserve">Vui lòng nhập địa chỉ email của bạn</t>
   </si>
   <si>
+    <t xml:space="preserve">Pass</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nhập mail đã tồn tại → Tiếp tục với email</t>
   </si>
   <si>
@@ -620,12 +623,6 @@
   </si>
   <si>
     <t xml:space="preserve">Cảm ơn bạn đã đánh giá</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Pass</t>
   </si>
 </sst>
 </file>
@@ -740,28 +737,28 @@
     </fill>
   </fills>
   <borders count="4">
-    <border diagonalDown="false" diagonalUp="false">
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border diagonalUp="false" diagonalDown="false">
       <left style="dotted"/>
       <right style="dotted"/>
       <top/>
@@ -770,119 +767,119 @@
     </border>
   </borders>
   <cellStyleXfs count="20">
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="20">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="2" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="2" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="2" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="3" fillId="2" fontId="6" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="3" fontId="7" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="3" fontId="7" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="7" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="8" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="3" fontId="7" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="3" fontId="7" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="3" fontId="9" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="3" fontId="10" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="3" fontId="8" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="166" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="166" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="11" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" name="Comma" xfId="15"/>
-    <cellStyle builtinId="6" name="Comma [0]" xfId="16"/>
-    <cellStyle builtinId="4" name="Currency" xfId="17"/>
-    <cellStyle builtinId="7" name="Currency [0]" xfId="18"/>
-    <cellStyle builtinId="5" name="Percent" xfId="19"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -948,28 +945,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I95"/>
+  <dimension ref="A1:H95"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="B40" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="E65" activeCellId="0" pane="topLeft" sqref="E65"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E48" activeCellId="0" sqref="E48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.94140625" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="false"/>
+  <sheetFormatPr defaultColWidth="13.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="4.44" collapsed="true" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="26.13" collapsed="true" outlineLevel="0"/>
-    <col min="3" max="3" customWidth="true" hidden="false" style="0" width="36.54" collapsed="true" outlineLevel="0"/>
-    <col min="4" max="4" customWidth="true" hidden="false" style="0" width="49.46" collapsed="true" outlineLevel="0"/>
-    <col min="5" max="5" customWidth="true" hidden="false" style="0" width="28.34" collapsed="true" outlineLevel="0"/>
-    <col min="6" max="6" customWidth="true" hidden="false" style="0" width="21.26" collapsed="true" outlineLevel="0"/>
-    <col min="7" max="7" customWidth="true" hidden="false" style="0" width="51.82" collapsed="true" outlineLevel="0"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="36.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="49.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="28.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="21.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="51.82"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.85" outlineLevel="0" r="1">
+    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -995,7 +992,7 @@
         <v>6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="2">
+    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="n">
         <v>1</v>
       </c>
@@ -1018,7 +1015,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="3">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="n">
         <v>2</v>
       </c>
@@ -1037,7 +1034,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="n">
         <v>3</v>
       </c>
@@ -1054,7 +1051,7 @@
         <v>16</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="5">
+    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="n">
         <v>4</v>
       </c>
@@ -1073,7 +1070,7 @@
         <v>19</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="6">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="n">
         <v>5</v>
       </c>
@@ -1092,7 +1089,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="7">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="n">
         <v>6</v>
       </c>
@@ -1111,7 +1108,7 @@
         <v>19</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="8">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="n">
         <v>7</v>
       </c>
@@ -1128,7 +1125,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32.05" outlineLevel="0" r="9">
+    <row r="9" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="n">
         <v>8</v>
       </c>
@@ -1147,7 +1144,7 @@
         <v>29</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="10">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="n">
         <v>9</v>
       </c>
@@ -1168,7 +1165,7 @@
         <v>33</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="11">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="n">
         <v>10</v>
       </c>
@@ -1183,7 +1180,7 @@
         <v>35</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="12">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="n">
         <v>11</v>
       </c>
@@ -1200,7 +1197,7 @@
         <v>33</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="13">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="n">
         <v>12</v>
       </c>
@@ -1217,7 +1214,7 @@
         <v>33</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="14">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="n">
         <v>13</v>
       </c>
@@ -1234,7 +1231,7 @@
         <v>33</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="15">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="n">
         <v>14</v>
       </c>
@@ -1251,7 +1248,7 @@
         <v>33</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="16">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="n">
         <v>15</v>
       </c>
@@ -1268,7 +1265,7 @@
         <v>46</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="17">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="14" t="n">
         <v>16</v>
       </c>
@@ -1278,11 +1275,9 @@
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
-      <c r="H17" s="14" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="18">
+      <c r="H17" s="14"/>
+    </row>
+    <row r="18" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="14" t="n">
         <v>17</v>
       </c>
@@ -1305,7 +1300,7 @@
         <v>52</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="19">
+    <row r="19" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="14" t="n">
         <v>18</v>
       </c>
@@ -1324,7 +1319,7 @@
         <v>55</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="20">
+    <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="14" t="n">
         <v>19</v>
       </c>
@@ -1343,7 +1338,7 @@
         <v>59</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="21">
+    <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="14" t="n">
         <v>20</v>
       </c>
@@ -1362,7 +1357,7 @@
         <v>55</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="22">
+    <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="14" t="n">
         <v>21</v>
       </c>
@@ -1374,11 +1369,9 @@
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
-      <c r="H22" s="14" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="23">
+      <c r="H22" s="14"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="14" t="n">
         <v>22</v>
       </c>
@@ -1397,7 +1390,7 @@
         <v>65</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="24">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="14" t="n">
         <v>23</v>
       </c>
@@ -1416,7 +1409,7 @@
         <v>2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="25">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="14" t="n">
         <v>24</v>
       </c>
@@ -1435,7 +1428,7 @@
         <v>65</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="26">
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="14" t="n">
         <v>25</v>
       </c>
@@ -1454,7 +1447,7 @@
         <v>2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="27">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="14" t="n">
         <v>26</v>
       </c>
@@ -1471,7 +1464,7 @@
         <v>65</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="28">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="14" t="n">
         <v>27</v>
       </c>
@@ -1488,7 +1481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="29">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="14" t="n">
         <v>28</v>
       </c>
@@ -1498,11 +1491,9 @@
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
       <c r="G29" s="14"/>
-      <c r="H29" s="14" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="30">
+      <c r="H29" s="14"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="14" t="n">
         <v>29</v>
       </c>
@@ -1521,7 +1512,7 @@
         <v>72</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="31">
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="14" t="n">
         <v>30</v>
       </c>
@@ -1540,7 +1531,7 @@
         <v>74</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="32">
+    <row r="32" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="14" t="n">
         <v>31</v>
       </c>
@@ -1554,11 +1545,9 @@
       <c r="E32" s="14"/>
       <c r="F32" s="14"/>
       <c r="G32" s="14"/>
-      <c r="H32" s="14" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="33">
+      <c r="H32" s="14"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="14" t="n">
         <v>32</v>
       </c>
@@ -1577,7 +1566,7 @@
         <v>80</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="34">
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="14" t="n">
         <v>33</v>
       </c>
@@ -1592,7 +1581,7 @@
         <v>82</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="35">
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="14" t="n">
         <v>34</v>
       </c>
@@ -1609,7 +1598,7 @@
         <v>80</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="36">
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="14" t="n">
         <v>35</v>
       </c>
@@ -1626,7 +1615,7 @@
       </c>
       <c r="G36" s="14"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="37">
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="14" t="n">
         <v>36</v>
       </c>
@@ -1643,7 +1632,7 @@
       </c>
       <c r="G37" s="14"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="38">
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="14" t="n">
         <v>37</v>
       </c>
@@ -1660,7 +1649,7 @@
         <v>92</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="39">
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="14" t="n">
         <v>38</v>
       </c>
@@ -1679,7 +1668,7 @@
         <v>94</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="40">
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="14" t="n">
         <v>39</v>
       </c>
@@ -1696,7 +1685,7 @@
         <v>94</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="41">
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="14" t="n">
         <v>40</v>
       </c>
@@ -1713,7 +1702,7 @@
       </c>
       <c r="G41" s="14"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="42">
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="14" t="n">
         <v>41</v>
       </c>
@@ -1728,7 +1717,7 @@
       <c r="F42" s="14"/>
       <c r="G42" s="14"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="43">
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="14" t="n">
         <v>42</v>
       </c>
@@ -1747,7 +1736,7 @@
         <v>100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="44">
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="14" t="n">
         <v>43</v>
       </c>
@@ -1764,7 +1753,7 @@
         <v>100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="45">
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="14" t="n">
         <v>44</v>
       </c>
@@ -1779,7 +1768,7 @@
         <v>100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="46">
+    <row r="46" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="14" t="n">
         <v>45</v>
       </c>
@@ -1796,7 +1785,7 @@
         <v>100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="47">
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="14" t="n">
         <v>46</v>
       </c>
@@ -1813,7 +1802,7 @@
         <v>100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="48">
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="14" t="n">
         <v>47</v>
       </c>
@@ -1830,7 +1819,7 @@
       </c>
       <c r="G48" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="49">
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="14" t="n">
         <v>48</v>
       </c>
@@ -1847,7 +1836,7 @@
         <v>106</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="50">
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="14" t="n">
         <v>49</v>
       </c>
@@ -1866,7 +1855,7 @@
         <v>106</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="51">
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="14" t="n">
         <v>50</v>
       </c>
@@ -1883,7 +1872,7 @@
         <v>111</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="52">
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="14" t="n">
         <v>51</v>
       </c>
@@ -1900,7 +1889,7 @@
       </c>
       <c r="G52" s="14"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="53">
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="14" t="n">
         <v>52</v>
       </c>
@@ -1917,7 +1906,7 @@
         <v>115</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="54">
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="14" t="n">
         <v>53</v>
       </c>
@@ -1936,7 +1925,7 @@
         <v>111</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="55">
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="14" t="n">
         <v>54</v>
       </c>
@@ -1951,7 +1940,7 @@
         <v>111</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="56">
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="14" t="n">
         <v>55</v>
       </c>
@@ -1968,7 +1957,7 @@
         <v>111</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="57">
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="14" t="n">
         <v>56</v>
       </c>
@@ -1985,7 +1974,7 @@
       </c>
       <c r="G57" s="14"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="79.85" outlineLevel="0" r="58">
+    <row r="58" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="14" t="n">
         <v>57</v>
       </c>
@@ -2004,7 +1993,7 @@
         <v>126</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="59">
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="14" t="n">
         <v>58</v>
       </c>
@@ -2019,7 +2008,7 @@
         <v>128</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="60">
+    <row r="60" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="14" t="n">
         <v>59</v>
       </c>
@@ -2036,7 +2025,7 @@
         <v>131</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="61">
+    <row r="61" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="14" t="n">
         <v>60</v>
       </c>
@@ -2053,7 +2042,7 @@
         <v>131</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="62">
+    <row r="62" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="14" t="n">
         <v>61</v>
       </c>
@@ -2070,7 +2059,7 @@
         <v>131</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="63">
+    <row r="63" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="14" t="n">
         <v>62</v>
       </c>
@@ -2085,7 +2074,7 @@
       <c r="F63" s="14"/>
       <c r="G63" s="14"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="64">
+    <row r="64" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="14" t="n">
         <v>63</v>
       </c>
@@ -2103,131 +2092,129 @@
       <c r="G64" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="H64" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="65">
+      <c r="H64" s="0" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="14" t="n">
         <v>64</v>
       </c>
       <c r="B65" s="14"/>
       <c r="C65" s="7"/>
       <c r="D65" s="14" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E65" s="7" t="s">
         <v>102</v>
       </c>
       <c r="F65" s="14"/>
       <c r="G65" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="H65" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="66">
+        <v>144</v>
+      </c>
+      <c r="H65" s="0" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="14" t="n">
         <v>65</v>
       </c>
       <c r="B66" s="14"/>
       <c r="C66" s="15"/>
       <c r="D66" s="14" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E66" s="14" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F66" s="14"/>
       <c r="G66" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="H66" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="67">
+        <v>147</v>
+      </c>
+      <c r="H66" s="0" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="14" t="n">
         <v>66</v>
       </c>
       <c r="B67" s="14"/>
       <c r="C67" s="15"/>
       <c r="D67" s="15" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E67" s="14" t="s">
         <v>137</v>
       </c>
       <c r="F67" s="14"/>
       <c r="G67" s="15" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="68">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="14" t="n">
         <v>67</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D68" s="14"/>
       <c r="E68" s="14"/>
       <c r="F68" s="14"/>
       <c r="G68" s="15"/>
-      <c r="H68" s="14" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="69">
+      <c r="H68" s="14"/>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="14" t="n">
         <v>68</v>
       </c>
       <c r="B69" s="15"/>
       <c r="C69" s="15" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D69" s="14" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E69" s="14" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F69" s="14"/>
       <c r="G69" s="15" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="70">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="14" t="n">
         <v>69</v>
       </c>
       <c r="B70" s="15"/>
       <c r="C70" s="15"/>
       <c r="D70" s="14" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E70" s="14" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F70" s="14"/>
       <c r="G70" s="15" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="71">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="14" t="n">
         <v>70</v>
       </c>
       <c r="B71" s="15"/>
       <c r="C71" s="15" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D71" s="14" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E71" s="14" t="n">
         <v>0</v>
@@ -2239,14 +2226,14 @@
         <v>65</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="72">
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="14" t="n">
         <v>71</v>
       </c>
       <c r="B72" s="15"/>
       <c r="C72" s="15"/>
       <c r="D72" s="15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E72" s="14" t="n">
         <v>2</v>
@@ -2258,32 +2245,32 @@
         <v>2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="73">
+    <row r="73" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="14" t="n">
         <v>72</v>
       </c>
       <c r="B73" s="15"/>
       <c r="C73" s="15" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D73" s="15" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E73" s="14"/>
       <c r="F73" s="14"/>
       <c r="G73" s="15" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="74">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="14" t="n">
         <v>73</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D74" s="14" t="s">
         <v>32</v>
@@ -2296,7 +2283,7 @@
         <v>33</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="75">
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="14" t="n">
         <v>74</v>
       </c>
@@ -2308,10 +2295,10 @@
       <c r="E75" s="14"/>
       <c r="F75" s="14"/>
       <c r="G75" s="14" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="76">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="14" t="n">
         <v>75</v>
       </c>
@@ -2328,7 +2315,7 @@
         <v>33</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="77">
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="14" t="n">
         <v>76</v>
       </c>
@@ -2345,7 +2332,7 @@
         <v>33</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="78">
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="14" t="n">
         <v>77</v>
       </c>
@@ -2362,7 +2349,7 @@
         <v>33</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="79">
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="14" t="n">
         <v>78</v>
       </c>
@@ -2379,7 +2366,7 @@
         <v>33</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="80">
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="14" t="n">
         <v>79</v>
       </c>
@@ -2396,59 +2383,57 @@
         <v>46</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="81">
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="14" t="n">
         <v>80</v>
       </c>
       <c r="B81" s="14" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C81" s="15" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D81" s="14"/>
       <c r="E81" s="14"/>
       <c r="F81" s="14"/>
       <c r="G81" s="14"/>
-      <c r="H81" s="14" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="82">
+      <c r="H81" s="14"/>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="14" t="n">
         <v>81</v>
       </c>
       <c r="B82" s="14"/>
       <c r="C82" s="14" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E82" s="14"/>
       <c r="F82" s="14"/>
       <c r="G82" s="14" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="83">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="14" t="n">
         <v>82</v>
       </c>
       <c r="B83" s="14"/>
       <c r="C83" s="14"/>
       <c r="D83" s="14" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E83" s="14" t="n">
         <v>1</v>
       </c>
       <c r="F83" s="14"/>
       <c r="G83" s="14" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="84">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="14" t="n">
         <v>83</v>
       </c>
@@ -2460,10 +2445,10 @@
       </c>
       <c r="F84" s="14"/>
       <c r="G84" s="14" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="85">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="14" t="n">
         <v>84</v>
       </c>
@@ -2475,10 +2460,10 @@
       </c>
       <c r="F85" s="14"/>
       <c r="G85" s="14" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="86">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="14" t="n">
         <v>85</v>
       </c>
@@ -2490,10 +2475,10 @@
       </c>
       <c r="F86" s="14"/>
       <c r="G86" s="14" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="87">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="14" t="n">
         <v>86</v>
       </c>
@@ -2505,145 +2490,145 @@
       </c>
       <c r="F87" s="14"/>
       <c r="G87" s="14" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="88">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="14" t="n">
         <v>87</v>
       </c>
       <c r="B88" s="14"/>
       <c r="C88" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D88" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E88" s="14"/>
       <c r="F88" s="14"/>
       <c r="G88" s="14" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="89">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="14" t="n">
         <v>88</v>
       </c>
       <c r="B89" s="14"/>
       <c r="C89" s="14"/>
       <c r="D89" s="14" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E89" s="14" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F89" s="14"/>
       <c r="G89" s="14" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="90">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="14" t="n">
         <v>89</v>
       </c>
       <c r="B90" s="14"/>
       <c r="C90" s="14" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D90" s="14" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E90" s="14"/>
       <c r="F90" s="14"/>
       <c r="G90" s="14" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="91">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="14" t="n">
         <v>90</v>
       </c>
       <c r="B91" s="14"/>
       <c r="C91" s="14"/>
       <c r="D91" s="14" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E91" s="14" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F91" s="14"/>
       <c r="G91" s="14" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="91" outlineLevel="0" r="92">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="14" t="n">
         <v>91</v>
       </c>
       <c r="B92" s="14"/>
       <c r="C92" s="14"/>
       <c r="D92" s="14" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E92" s="15" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F92" s="14"/>
       <c r="G92" s="15" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="93">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="14" t="n">
         <v>92</v>
       </c>
       <c r="B93" s="14"/>
       <c r="C93" s="14" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D93" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E93" s="14"/>
       <c r="F93" s="14"/>
       <c r="G93" s="14" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="57.45" outlineLevel="0" r="94">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="14" t="n">
         <v>93</v>
       </c>
       <c r="B94" s="14"/>
       <c r="C94" s="14"/>
       <c r="D94" s="14" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E94" s="15" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F94" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="G94" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="G94" s="15" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="95">
+    </row>
+    <row r="95" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="14" t="n">
         <v>94</v>
       </c>
       <c r="B95" s="14"/>
       <c r="C95" s="14"/>
       <c r="D95" s="15" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E95" s="15" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F95" s="14"/>
       <c r="G95" s="14" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -2651,13 +2636,13 @@
     <mergeCell ref="E1:F1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink display="bipbipbip@gmail.com" r:id="rId1" ref="E7"/>
-    <hyperlink display="bipbipbip@gmail.com" r:id="rId2" ref="E8"/>
-    <hyperlink display="bipbipbip112@gmail.com" r:id="rId3" ref="E9"/>
+    <hyperlink ref="E7" r:id="rId1" display="bipbipbip@gmail.com"/>
+    <hyperlink ref="E8" r:id="rId2" display="bipbipbip@gmail.com"/>
+    <hyperlink ref="E9" r:id="rId3" display="bipbipbip112@gmail.com"/>
   </hyperlinks>
-  <printOptions gridLines="false" gridLinesSet="true" headings="false" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="true" verticalDpi="300"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Chuẩn"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Chuẩn"&amp;12Page &amp;P</oddFooter>

--- a/test.xlsx
+++ b/test.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="200">
   <si>
     <t xml:space="preserve">No</t>
   </si>
@@ -238,7 +238,7 @@
     <t xml:space="preserve">Chọn Đặt lại</t>
   </si>
   <si>
-    <t xml:space="preserve">9 thg 6 → 10 thg 6</t>
+    <t xml:space="preserve">10 thg 6 → 11 thg 6</t>
   </si>
   <si>
     <t xml:space="preserve">Chọn Áp dụng</t>
@@ -328,7 +328,7 @@
     <t xml:space="preserve">Nhập email đúng định dạng</t>
   </si>
   <si>
-    <t xml:space="preserve">bipbipbip30@gmail.com</t>
+    <t xml:space="preserve">bipbipbip31@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">Không</t>
@@ -446,9 +446,6 @@
   </si>
   <si>
     <t xml:space="preserve">Vui lòng nhập địa chỉ email của bạn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pass</t>
   </si>
   <si>
     <t xml:space="preserve">Nhập mail đã tồn tại → Tiếp tục với email</t>
@@ -951,11 +948,11 @@
   </sheetPr>
   <dimension ref="A1:H95"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E48" activeCellId="0" sqref="E48"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H63" activeCellId="0" sqref="H63:H68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.13"/>
@@ -2092,9 +2089,6 @@
       <c r="G64" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="H64" s="0" t="s">
-        <v>142</v>
-      </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="14" t="n">
@@ -2103,17 +2097,14 @@
       <c r="B65" s="14"/>
       <c r="C65" s="7"/>
       <c r="D65" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E65" s="7" t="s">
         <v>102</v>
       </c>
       <c r="F65" s="14"/>
       <c r="G65" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="H65" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2123,17 +2114,14 @@
       <c r="B66" s="14"/>
       <c r="C66" s="15"/>
       <c r="D66" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="E66" s="14" t="s">
         <v>145</v>
-      </c>
-      <c r="E66" s="14" t="s">
-        <v>146</v>
       </c>
       <c r="F66" s="14"/>
       <c r="G66" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="H66" s="0" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2143,14 +2131,14 @@
       <c r="B67" s="14"/>
       <c r="C67" s="15"/>
       <c r="D67" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E67" s="14" t="s">
         <v>137</v>
       </c>
       <c r="F67" s="14"/>
       <c r="G67" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2158,10 +2146,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="C68" s="15" t="s">
         <v>150</v>
-      </c>
-      <c r="C68" s="15" t="s">
-        <v>151</v>
       </c>
       <c r="D68" s="14"/>
       <c r="E68" s="14"/>
@@ -2175,17 +2163,17 @@
       </c>
       <c r="B69" s="15"/>
       <c r="C69" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="D69" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="D69" s="14" t="s">
+      <c r="E69" s="14" t="s">
         <v>153</v>
-      </c>
-      <c r="E69" s="14" t="s">
-        <v>154</v>
       </c>
       <c r="F69" s="14"/>
       <c r="G69" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2195,14 +2183,14 @@
       <c r="B70" s="15"/>
       <c r="C70" s="15"/>
       <c r="D70" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="E70" s="14" t="s">
         <v>156</v>
-      </c>
-      <c r="E70" s="14" t="s">
-        <v>157</v>
       </c>
       <c r="F70" s="14"/>
       <c r="G70" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2211,10 +2199,10 @@
       </c>
       <c r="B71" s="15"/>
       <c r="C71" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="D71" s="14" t="s">
         <v>159</v>
-      </c>
-      <c r="D71" s="14" t="s">
-        <v>160</v>
       </c>
       <c r="E71" s="14" t="n">
         <v>0</v>
@@ -2233,7 +2221,7 @@
       <c r="B72" s="15"/>
       <c r="C72" s="15"/>
       <c r="D72" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E72" s="14" t="n">
         <v>2</v>
@@ -2251,15 +2239,15 @@
       </c>
       <c r="B73" s="15"/>
       <c r="C73" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="D73" s="15" t="s">
         <v>162</v>
-      </c>
-      <c r="D73" s="15" t="s">
-        <v>163</v>
       </c>
       <c r="E73" s="14"/>
       <c r="F73" s="14"/>
       <c r="G73" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2267,10 +2255,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C74" s="14" t="s">
         <v>165</v>
-      </c>
-      <c r="C74" s="14" t="s">
-        <v>166</v>
       </c>
       <c r="D74" s="14" t="s">
         <v>32</v>
@@ -2295,7 +2283,7 @@
       <c r="E75" s="14"/>
       <c r="F75" s="14"/>
       <c r="G75" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2388,10 +2376,10 @@
         <v>80</v>
       </c>
       <c r="B81" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="C81" s="15" t="s">
         <v>168</v>
-      </c>
-      <c r="C81" s="15" t="s">
-        <v>169</v>
       </c>
       <c r="D81" s="14"/>
       <c r="E81" s="14"/>
@@ -2405,15 +2393,15 @@
       </c>
       <c r="B82" s="14"/>
       <c r="C82" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="D82" s="14" t="s">
         <v>170</v>
-      </c>
-      <c r="D82" s="14" t="s">
-        <v>171</v>
       </c>
       <c r="E82" s="14"/>
       <c r="F82" s="14"/>
       <c r="G82" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2423,14 +2411,14 @@
       <c r="B83" s="14"/>
       <c r="C83" s="14"/>
       <c r="D83" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E83" s="14" t="n">
         <v>1</v>
       </c>
       <c r="F83" s="14"/>
       <c r="G83" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2445,7 +2433,7 @@
       </c>
       <c r="F84" s="14"/>
       <c r="G84" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2460,7 +2448,7 @@
       </c>
       <c r="F85" s="14"/>
       <c r="G85" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2475,7 +2463,7 @@
       </c>
       <c r="F86" s="14"/>
       <c r="G86" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2490,7 +2478,7 @@
       </c>
       <c r="F87" s="14"/>
       <c r="G87" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2499,15 +2487,15 @@
       </c>
       <c r="B88" s="14"/>
       <c r="C88" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="D88" s="14" t="s">
         <v>179</v>
-      </c>
-      <c r="D88" s="14" t="s">
-        <v>180</v>
       </c>
       <c r="E88" s="14"/>
       <c r="F88" s="14"/>
       <c r="G88" s="14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2517,14 +2505,14 @@
       <c r="B89" s="14"/>
       <c r="C89" s="14"/>
       <c r="D89" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="E89" s="14" t="s">
         <v>182</v>
-      </c>
-      <c r="E89" s="14" t="s">
-        <v>183</v>
       </c>
       <c r="F89" s="14"/>
       <c r="G89" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2533,15 +2521,15 @@
       </c>
       <c r="B90" s="14"/>
       <c r="C90" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="D90" s="14" t="s">
         <v>185</v>
-      </c>
-      <c r="D90" s="14" t="s">
-        <v>186</v>
       </c>
       <c r="E90" s="14"/>
       <c r="F90" s="14"/>
       <c r="G90" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2551,14 +2539,14 @@
       <c r="B91" s="14"/>
       <c r="C91" s="14"/>
       <c r="D91" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="E91" s="14" t="s">
         <v>188</v>
-      </c>
-      <c r="E91" s="14" t="s">
-        <v>189</v>
       </c>
       <c r="F91" s="14"/>
       <c r="G91" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2568,14 +2556,14 @@
       <c r="B92" s="14"/>
       <c r="C92" s="14"/>
       <c r="D92" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="E92" s="15" t="s">
         <v>190</v>
-      </c>
-      <c r="E92" s="15" t="s">
-        <v>191</v>
       </c>
       <c r="F92" s="14"/>
       <c r="G92" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2584,15 +2572,15 @@
       </c>
       <c r="B93" s="14"/>
       <c r="C93" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="D93" s="14" t="s">
         <v>192</v>
-      </c>
-      <c r="D93" s="14" t="s">
-        <v>193</v>
       </c>
       <c r="E93" s="14"/>
       <c r="F93" s="14"/>
       <c r="G93" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2602,16 +2590,16 @@
       <c r="B94" s="14"/>
       <c r="C94" s="14"/>
       <c r="D94" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="E94" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="E94" s="15" t="s">
+      <c r="F94" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="F94" s="14" t="s">
-        <v>197</v>
-      </c>
       <c r="G94" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2621,14 +2609,14 @@
       <c r="B95" s="14"/>
       <c r="C95" s="14"/>
       <c r="D95" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="E95" s="15" t="s">
         <v>198</v>
-      </c>
-      <c r="E95" s="15" t="s">
-        <v>199</v>
       </c>
       <c r="F95" s="14"/>
       <c r="G95" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookPr backupFile="false" date1904="false" showObjects="all"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="500" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" r:id="rId2" sheetId="1" state="visible"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr iterate="false" iterateCount="100" iterateDelta="0.001" refMode="A1"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="202">
   <si>
     <t xml:space="preserve">No</t>
   </si>
@@ -620,6 +620,12 @@
   </si>
   <si>
     <t xml:space="preserve">Cảm ơn bạn đã đánh giá</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Pass</t>
   </si>
 </sst>
 </file>
@@ -734,28 +740,28 @@
     </fill>
   </fills>
   <borders count="4">
-    <border diagonalUp="false" diagonalDown="false">
+    <border diagonalDown="false" diagonalUp="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border diagonalDown="false" diagonalUp="false">
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border diagonalDown="false" diagonalUp="false">
       <left/>
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border diagonalDown="false" diagonalUp="false">
       <left style="dotted"/>
       <right style="dotted"/>
       <top/>
@@ -764,119 +770,119 @@
     </border>
   </borders>
   <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
   <cellXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="2" fontId="4" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="2" fontId="5" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="2" fontId="5" numFmtId="164" xfId="0">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="3" fillId="2" fontId="6" numFmtId="164" xfId="0">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="3" fontId="7" numFmtId="164" xfId="0">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="3" fontId="7" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="7" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="8" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="3" fontId="7" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="3" fontId="7" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="3" fontId="9" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="3" fontId="10" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="3" fontId="8" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="165" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="11" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="3" name="Comma" xfId="15"/>
+    <cellStyle builtinId="6" name="Comma [0]" xfId="16"/>
+    <cellStyle builtinId="4" name="Currency" xfId="17"/>
+    <cellStyle builtinId="7" name="Currency [0]" xfId="18"/>
+    <cellStyle builtinId="5" name="Percent" xfId="19"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -942,28 +948,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H95"/>
+  <dimension ref="A1:I95"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H63" activeCellId="0" sqref="H63:H68"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="B46" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="H63" activeCellId="0" pane="topLeft" sqref="H63:H68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.9765625" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="false"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="36.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="49.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="28.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="21.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="51.82"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="4.44" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="26.13" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="3" customWidth="true" hidden="false" style="0" width="36.54" collapsed="true" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="true" hidden="false" style="0" width="49.46" collapsed="true" outlineLevel="0"/>
+    <col min="5" max="5" customWidth="true" hidden="false" style="0" width="28.34" collapsed="true" outlineLevel="0"/>
+    <col min="6" max="6" customWidth="true" hidden="false" style="0" width="21.26" collapsed="true" outlineLevel="0"/>
+    <col min="7" max="7" customWidth="true" hidden="false" style="0" width="51.82" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.85" outlineLevel="0" r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -989,7 +995,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="2">
       <c r="A2" s="5" t="n">
         <v>1</v>
       </c>
@@ -1012,7 +1018,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="3">
       <c r="A3" s="5" t="n">
         <v>2</v>
       </c>
@@ -1031,7 +1037,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4">
       <c r="A4" s="5" t="n">
         <v>3</v>
       </c>
@@ -1048,7 +1054,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="5">
       <c r="A5" s="5" t="n">
         <v>4</v>
       </c>
@@ -1067,7 +1073,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="6">
       <c r="A6" s="5" t="n">
         <v>5</v>
       </c>
@@ -1086,7 +1092,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="7">
       <c r="A7" s="5" t="n">
         <v>6</v>
       </c>
@@ -1105,7 +1111,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="8">
       <c r="A8" s="5" t="n">
         <v>7</v>
       </c>
@@ -1122,7 +1128,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32.05" outlineLevel="0" r="9">
       <c r="A9" s="5" t="n">
         <v>8</v>
       </c>
@@ -1141,7 +1147,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="10">
       <c r="A10" s="5" t="n">
         <v>9</v>
       </c>
@@ -1162,7 +1168,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="11">
       <c r="A11" s="5" t="n">
         <v>10</v>
       </c>
@@ -1177,7 +1183,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="12">
       <c r="A12" s="5" t="n">
         <v>11</v>
       </c>
@@ -1194,7 +1200,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="13">
       <c r="A13" s="5" t="n">
         <v>12</v>
       </c>
@@ -1211,7 +1217,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="14">
       <c r="A14" s="5" t="n">
         <v>13</v>
       </c>
@@ -1228,7 +1234,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="15">
       <c r="A15" s="5" t="n">
         <v>14</v>
       </c>
@@ -1245,7 +1251,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="16">
       <c r="A16" s="5" t="n">
         <v>15</v>
       </c>
@@ -1262,7 +1268,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="17">
       <c r="A17" s="14" t="n">
         <v>16</v>
       </c>
@@ -1272,9 +1278,11 @@
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-    </row>
-    <row r="18" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H17" s="14" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="18">
       <c r="A18" s="14" t="n">
         <v>17</v>
       </c>
@@ -1297,7 +1305,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="19">
       <c r="A19" s="14" t="n">
         <v>18</v>
       </c>
@@ -1316,7 +1324,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="20">
       <c r="A20" s="14" t="n">
         <v>19</v>
       </c>
@@ -1335,7 +1343,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="21">
       <c r="A21" s="14" t="n">
         <v>20</v>
       </c>
@@ -1354,7 +1362,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="22">
       <c r="A22" s="14" t="n">
         <v>21</v>
       </c>
@@ -1366,9 +1374,11 @@
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H22" s="14" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="23">
       <c r="A23" s="14" t="n">
         <v>22</v>
       </c>
@@ -1387,7 +1397,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="24">
       <c r="A24" s="14" t="n">
         <v>23</v>
       </c>
@@ -1406,7 +1416,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="25">
       <c r="A25" s="14" t="n">
         <v>24</v>
       </c>
@@ -1425,7 +1435,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="26">
       <c r="A26" s="14" t="n">
         <v>25</v>
       </c>
@@ -1444,7 +1454,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="27">
       <c r="A27" s="14" t="n">
         <v>26</v>
       </c>
@@ -1461,7 +1471,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="28">
       <c r="A28" s="14" t="n">
         <v>27</v>
       </c>
@@ -1478,7 +1488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="29">
       <c r="A29" s="14" t="n">
         <v>28</v>
       </c>
@@ -1488,9 +1498,11 @@
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
       <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H29" s="14" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="30">
       <c r="A30" s="14" t="n">
         <v>29</v>
       </c>
@@ -1509,7 +1521,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="31">
       <c r="A31" s="14" t="n">
         <v>30</v>
       </c>
@@ -1528,7 +1540,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="32">
       <c r="A32" s="14" t="n">
         <v>31</v>
       </c>
@@ -1542,9 +1554,11 @@
       <c r="E32" s="14"/>
       <c r="F32" s="14"/>
       <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H32" s="14" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="33">
       <c r="A33" s="14" t="n">
         <v>32</v>
       </c>
@@ -1563,7 +1577,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="34">
       <c r="A34" s="14" t="n">
         <v>33</v>
       </c>
@@ -1578,7 +1592,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="35">
       <c r="A35" s="14" t="n">
         <v>34</v>
       </c>
@@ -1595,7 +1609,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="36">
       <c r="A36" s="14" t="n">
         <v>35</v>
       </c>
@@ -1612,7 +1626,7 @@
       </c>
       <c r="G36" s="14"/>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="37">
       <c r="A37" s="14" t="n">
         <v>36</v>
       </c>
@@ -1629,7 +1643,7 @@
       </c>
       <c r="G37" s="14"/>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="38">
       <c r="A38" s="14" t="n">
         <v>37</v>
       </c>
@@ -1646,7 +1660,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="39">
       <c r="A39" s="14" t="n">
         <v>38</v>
       </c>
@@ -1665,7 +1679,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="40">
       <c r="A40" s="14" t="n">
         <v>39</v>
       </c>
@@ -1682,7 +1696,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="41">
       <c r="A41" s="14" t="n">
         <v>40</v>
       </c>
@@ -1699,7 +1713,7 @@
       </c>
       <c r="G41" s="14"/>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="42">
       <c r="A42" s="14" t="n">
         <v>41</v>
       </c>
@@ -1714,7 +1728,7 @@
       <c r="F42" s="14"/>
       <c r="G42" s="14"/>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="43">
       <c r="A43" s="14" t="n">
         <v>42</v>
       </c>
@@ -1733,7 +1747,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="44">
       <c r="A44" s="14" t="n">
         <v>43</v>
       </c>
@@ -1750,7 +1764,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="45">
       <c r="A45" s="14" t="n">
         <v>44</v>
       </c>
@@ -1765,7 +1779,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="46">
       <c r="A46" s="14" t="n">
         <v>45</v>
       </c>
@@ -1782,7 +1796,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="47">
       <c r="A47" s="14" t="n">
         <v>46</v>
       </c>
@@ -1799,7 +1813,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="48">
       <c r="A48" s="14" t="n">
         <v>47</v>
       </c>
@@ -1816,7 +1830,7 @@
       </c>
       <c r="G48" s="10"/>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="49">
       <c r="A49" s="14" t="n">
         <v>48</v>
       </c>
@@ -1833,7 +1847,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="50">
       <c r="A50" s="14" t="n">
         <v>49</v>
       </c>
@@ -1852,7 +1866,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="51">
       <c r="A51" s="14" t="n">
         <v>50</v>
       </c>
@@ -1869,7 +1883,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="52">
       <c r="A52" s="14" t="n">
         <v>51</v>
       </c>
@@ -1886,7 +1900,7 @@
       </c>
       <c r="G52" s="14"/>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="53">
       <c r="A53" s="14" t="n">
         <v>52</v>
       </c>
@@ -1903,7 +1917,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="54">
       <c r="A54" s="14" t="n">
         <v>53</v>
       </c>
@@ -1922,7 +1936,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="55">
       <c r="A55" s="14" t="n">
         <v>54</v>
       </c>
@@ -1937,7 +1951,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="56">
       <c r="A56" s="14" t="n">
         <v>55</v>
       </c>
@@ -1954,7 +1968,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="57">
       <c r="A57" s="14" t="n">
         <v>56</v>
       </c>
@@ -1971,7 +1985,7 @@
       </c>
       <c r="G57" s="14"/>
     </row>
-    <row r="58" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="79.85" outlineLevel="0" r="58">
       <c r="A58" s="14" t="n">
         <v>57</v>
       </c>
@@ -1990,7 +2004,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="59">
       <c r="A59" s="14" t="n">
         <v>58</v>
       </c>
@@ -2005,7 +2019,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="60">
       <c r="A60" s="14" t="n">
         <v>59</v>
       </c>
@@ -2022,7 +2036,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="61">
       <c r="A61" s="14" t="n">
         <v>60</v>
       </c>
@@ -2039,7 +2053,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="62">
       <c r="A62" s="14" t="n">
         <v>61</v>
       </c>
@@ -2056,7 +2070,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="63">
       <c r="A63" s="14" t="n">
         <v>62</v>
       </c>
@@ -2071,7 +2085,7 @@
       <c r="F63" s="14"/>
       <c r="G63" s="14"/>
     </row>
-    <row r="64" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="64">
       <c r="A64" s="14" t="n">
         <v>63</v>
       </c>
@@ -2090,7 +2104,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="65">
       <c r="A65" s="14" t="n">
         <v>64</v>
       </c>
@@ -2107,7 +2121,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="66">
       <c r="A66" s="14" t="n">
         <v>65</v>
       </c>
@@ -2124,7 +2138,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="67">
       <c r="A67" s="14" t="n">
         <v>66</v>
       </c>
@@ -2141,7 +2155,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="68">
       <c r="A68" s="14" t="n">
         <v>67</v>
       </c>
@@ -2155,9 +2169,11 @@
       <c r="E68" s="14"/>
       <c r="F68" s="14"/>
       <c r="G68" s="15"/>
-      <c r="H68" s="14"/>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H68" s="14" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="69">
       <c r="A69" s="14" t="n">
         <v>68</v>
       </c>
@@ -2176,7 +2192,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="70">
       <c r="A70" s="14" t="n">
         <v>69</v>
       </c>
@@ -2193,7 +2209,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="71">
       <c r="A71" s="14" t="n">
         <v>70</v>
       </c>
@@ -2214,7 +2230,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="72">
       <c r="A72" s="14" t="n">
         <v>71</v>
       </c>
@@ -2233,7 +2249,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="73">
       <c r="A73" s="14" t="n">
         <v>72</v>
       </c>
@@ -2250,7 +2266,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="74">
       <c r="A74" s="14" t="n">
         <v>73</v>
       </c>
@@ -2271,7 +2287,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="75">
       <c r="A75" s="14" t="n">
         <v>74</v>
       </c>
@@ -2286,7 +2302,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="76">
       <c r="A76" s="14" t="n">
         <v>75</v>
       </c>
@@ -2303,7 +2319,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="77">
       <c r="A77" s="14" t="n">
         <v>76</v>
       </c>
@@ -2320,7 +2336,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="78">
       <c r="A78" s="14" t="n">
         <v>77</v>
       </c>
@@ -2337,7 +2353,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="79">
       <c r="A79" s="14" t="n">
         <v>78</v>
       </c>
@@ -2354,7 +2370,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="80">
       <c r="A80" s="14" t="n">
         <v>79</v>
       </c>
@@ -2371,7 +2387,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="81">
       <c r="A81" s="14" t="n">
         <v>80</v>
       </c>
@@ -2385,9 +2401,11 @@
       <c r="E81" s="14"/>
       <c r="F81" s="14"/>
       <c r="G81" s="14"/>
-      <c r="H81" s="14"/>
-    </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H81" s="14" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="82">
       <c r="A82" s="14" t="n">
         <v>81</v>
       </c>
@@ -2403,8 +2421,11 @@
       <c r="G82" s="14" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H82" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="83">
       <c r="A83" s="14" t="n">
         <v>82</v>
       </c>
@@ -2420,8 +2441,11 @@
       <c r="G83" s="14" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H83" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="84">
       <c r="A84" s="14" t="n">
         <v>83</v>
       </c>
@@ -2436,7 +2460,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="85">
       <c r="A85" s="14" t="n">
         <v>84</v>
       </c>
@@ -2451,7 +2475,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="86">
       <c r="A86" s="14" t="n">
         <v>85</v>
       </c>
@@ -2466,7 +2490,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="87">
       <c r="A87" s="14" t="n">
         <v>86</v>
       </c>
@@ -2481,7 +2505,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="88">
       <c r="A88" s="14" t="n">
         <v>87</v>
       </c>
@@ -2498,7 +2522,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="89">
       <c r="A89" s="14" t="n">
         <v>88</v>
       </c>
@@ -2515,7 +2539,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="90">
       <c r="A90" s="14" t="n">
         <v>89</v>
       </c>
@@ -2532,7 +2556,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="91">
       <c r="A91" s="14" t="n">
         <v>90</v>
       </c>
@@ -2549,7 +2573,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="91" outlineLevel="0" r="92">
       <c r="A92" s="14" t="n">
         <v>91</v>
       </c>
@@ -2566,7 +2590,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="93">
       <c r="A93" s="14" t="n">
         <v>92</v>
       </c>
@@ -2583,7 +2607,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="57.45" outlineLevel="0" r="94">
       <c r="A94" s="14" t="n">
         <v>93</v>
       </c>
@@ -2602,7 +2626,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="95">
       <c r="A95" s="14" t="n">
         <v>94</v>
       </c>
@@ -2624,13 +2648,13 @@
     <mergeCell ref="E1:F1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E7" r:id="rId1" display="bipbipbip@gmail.com"/>
-    <hyperlink ref="E8" r:id="rId2" display="bipbipbip@gmail.com"/>
-    <hyperlink ref="E9" r:id="rId3" display="bipbipbip112@gmail.com"/>
+    <hyperlink display="bipbipbip@gmail.com" r:id="rId1" ref="E7"/>
+    <hyperlink display="bipbipbip@gmail.com" r:id="rId2" ref="E8"/>
+    <hyperlink display="bipbipbip112@gmail.com" r:id="rId3" ref="E9"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <printOptions gridLines="false" gridLinesSet="true" headings="false" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="true" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Chuẩn"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Chuẩn"&amp;12Page &amp;P</oddFooter>
